--- a/data_cleaned_2.xlsx
+++ b/data_cleaned_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L543"/>
+  <dimension ref="A1:L544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23824,11 +23824,11 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>154835064</v>
+        <v>2.393612431018261e+17</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>AMA Watch Q15</t>
+          <t>Samsung Galaxy Watch 6 2023 dây thép</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -23837,39 +23837,43 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>371000</v>
+        <v>796868</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/154835064_7967125795428827099.jpg</t>
+          <t>Đồng_hồ_thông_minh/239361243101826085_9199338627928130607.avi</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4f/a0/c2/c978a931be8bc02a10e4d7058ea72210.jpg</t>
+          <t>https://img.lazcdn.com/g/p/dd15cd3a788bf146d858e79fb05dd32a.png_200x200q80.avif</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q15-lap-sim-nghe-goi-2-chieu-3-mau-xanh-hong-den-hang-chinh-hang-p154835064.html?spid=154835066</t>
+          <t>https://www.lazada.vn/products/pdp-i3013676188.html</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>Lazada</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Q15</t>
-        </is>
-      </c>
-      <c r="L509" t="inlineStr"/>
+          <t>Galaxy Watch 6 2023</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>dây thép</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -23878,11 +23882,11 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>149797747</v>
+        <v>154835064</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>AMA Q12S</t>
+          <t>AMA Watch Q15</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -23891,21 +23895,21 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>562000</v>
+        <v>371000</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/149797747_4683621684182599073.jpg</t>
+          <t>Đồng_hồ_thông_minh/154835064_7967125795428827099.jpg</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6e/b8/a5/a8820ac9fb55d23011ea48b6e69e74fb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4f/a0/c2/c978a931be8bc02a10e4d7058ea72210.jpg</t>
         </is>
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-q12s-model-2021-hang-nhap-khau-p149797747.html?spid=151619450</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q15-lap-sim-nghe-goi-2-chieu-3-mau-xanh-hong-den-hang-chinh-hang-p154835064.html?spid=154835066</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -23920,7 +23924,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Q12S</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="L510" t="inlineStr"/>
@@ -23932,11 +23936,11 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>207270188</v>
+        <v>149797747</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>AMA Watch FA91S</t>
+          <t>AMA Q12S</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -23945,21 +23949,21 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>1523870</v>
+        <v>562000</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/207270188_-6100385475971697174.jpg</t>
+          <t>Đồng_hồ_thông_minh/149797747_4683621684182599073.jpg</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4e/e3/0f/11c0588e2feb3dc5043b96a6adbba6eb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6e/b8/a5/a8820ac9fb55d23011ea48b6e69e74fb.jpg</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-hoc-sinh-sinh-vien-dinh-vi-wifi-goi-dien-thoai-video-call-ama-watch-fa91-hang-nhap-khau-p207270188.html?spid=208054739</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-q12s-model-2021-hang-nhap-khau-p149797747.html?spid=151619450</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -23974,7 +23978,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>FA91S</t>
+          <t>Q12S</t>
         </is>
       </c>
       <c r="L511" t="inlineStr"/>
@@ -23986,11 +23990,11 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>276295047</v>
+        <v>207270188</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Watch 5 Active</t>
+          <t>AMA Watch FA91S</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -23999,21 +24003,21 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>715000</v>
+        <v>1523870</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276295047_4908797466075377767.jpg</t>
+          <t>Đồng_hồ_thông_minh/207270188_-6100385475971697174.jpg</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4a/62/9d/b83f4513fcfbfdbc3e35989eb2080281.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4e/e3/0f/11c0588e2feb3dc5043b96a6adbba6eb.jpg</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-xiaomi-redmi-watch-5-active-midnight-black-hang-chinh-hang-p276295047.html?spid=276295049</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-hoc-sinh-sinh-vien-dinh-vi-wifi-goi-dien-thoai-video-call-ama-watch-fa91-hang-nhap-khau-p207270188.html?spid=208054739</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -24023,12 +24027,12 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Redmi Watch 5 Active</t>
+          <t>FA91S</t>
         </is>
       </c>
       <c r="L512" t="inlineStr"/>
@@ -24040,11 +24044,11 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>276130067</v>
+        <v>276295047</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Band 10</t>
+          <t>Xiaomi Redmi Watch 5 Active</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -24053,21 +24057,21 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1033050</v>
+        <v>715000</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276130067_-7228020809596367073.jpg</t>
+          <t>Đồng_hồ_thông_minh/276295047_4908797466075377767.jpg</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/80/f6/73/f8a7c3a0a56618abfe4652893c30b05d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4a/62/9d/b83f4513fcfbfdbc3e35989eb2080281.jpg</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-mi-band-9-ban-quoc-te-hang-chinh-hang-p276130067.html?spid=276130069</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-xiaomi-redmi-watch-5-active-midnight-black-hang-chinh-hang-p276295047.html?spid=276295049</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -24082,7 +24086,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Mi Band 10</t>
+          <t>Redmi Watch 5 Active</t>
         </is>
       </c>
       <c r="L513" t="inlineStr"/>
@@ -24094,11 +24098,11 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>275281412</v>
+        <v>276130067</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>MAI DUY Y85S</t>
+          <t>Xiaomi Mi Band 10</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -24107,21 +24111,21 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>325000</v>
+        <v>1033050</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/275281412_8288843787915995951.jpg</t>
+          <t>Đồng_hồ_thông_minh/276130067_-7228020809596367073.jpg</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/26/6e/13/2bf1e724903a941e9f1af13057fb0993.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/80/f6/73/f8a7c3a0a56618abfe4652893c30b05d.jpg</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-dinh-vi-tre-em-mai-duy-y85s-nghe-goi-nhan-tin-tu-xa-chong-nuoc-ip67-hang-nhap-khau-p275281412.html?spid=275281467</t>
+          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-mi-band-9-ban-quoc-te-hang-chinh-hang-p276130067.html?spid=276130069</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -24131,12 +24135,12 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>MAI DUY</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Y85S</t>
+          <t>Mi Band 10</t>
         </is>
       </c>
       <c r="L514" t="inlineStr"/>
@@ -24148,11 +24152,11 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>276664710</v>
+        <v>275281412</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Xiaomi Smart Band 9 Active</t>
+          <t>MAI DUY Y85S</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -24161,21 +24165,21 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>525000</v>
+        <v>325000</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276664710_-9198799680277359363.jpg</t>
+          <t>Đồng_hồ_thông_minh/275281412_8288843787915995951.jpg</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/50/18/56affe593feb1d3babcccad756a143fb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/26/6e/13/2bf1e724903a941e9f1af13057fb0993.jpg</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-smart-band-9-active-hang-chinh-hang-p276664710.html?spid=276664712</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-dinh-vi-tre-em-mai-duy-y85s-nghe-goi-nhan-tin-tu-xa-chong-nuoc-ip67-hang-nhap-khau-p275281412.html?spid=275281467</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -24185,12 +24189,12 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>MAI DUY</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Smart Band 9 Active</t>
+          <t>Y85S</t>
         </is>
       </c>
       <c r="L515" t="inlineStr"/>
@@ -24202,11 +24206,11 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>276115570</v>
+        <v>276664710</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Apple Watch Series 10 viền nhôm dây cao su</t>
+          <t>Xiaomi Smart Band 9 Active</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -24215,21 +24219,21 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>8760000</v>
+        <v>525000</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276115570_-6212342290080913237.jpg</t>
+          <t>Đồng_hồ_thông_minh/276664710_-9198799680277359363.jpg</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a8/a3/9a/e1bb7178418877ba332bd7c01b90b479.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/50/18/56affe593feb1d3babcccad756a143fb.jpg</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-watch-series-10-gps-vien-nhom-day-cao-su-p276115570.html?spid=276116452</t>
+          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-smart-band-9-active-hang-chinh-hang-p276664710.html?spid=276664712</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -24239,19 +24243,15 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Watch Series 10</t>
-        </is>
-      </c>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>viền nhôm dây cao su</t>
-        </is>
-      </c>
+          <t>Smart Band 9 Active</t>
+        </is>
+      </c>
+      <c r="L516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -24260,11 +24260,11 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>276115522</v>
+        <v>276115570</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Apple Watch SE 2024 viền nhôm dây cao su</t>
+          <t>Apple Watch Series 10 viền nhôm dây cao su</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -24273,21 +24273,21 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>6360000</v>
+        <v>8760000</v>
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276115522_1369627001624235375.jpg</t>
+          <t>Đồng_hồ_thông_minh/276115570_-6212342290080913237.jpg</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/ec/7d/de5a49dc09126ff6153b16bbb82ee814.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a8/a3/9a/e1bb7178418877ba332bd7c01b90b479.jpg</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-watch-se-2024-gps-vien-nhom-day-cao-su-p276115522.html?spid=276115846</t>
+          <t>https://tiki.vn/apple-watch-series-10-gps-vien-nhom-day-cao-su-p276115570.html?spid=276116452</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -24302,7 +24302,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Watch SE 2024</t>
+          <t>Watch Series 10</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -24318,11 +24318,11 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>273936761</v>
+        <v>276115522</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>AMA HW13</t>
+          <t>Apple Watch SE 2024 viền nhôm dây cao su</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -24331,21 +24331,21 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>1096391</v>
+        <v>6360000</v>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/273936761_-8735126153505365997.jpg</t>
+          <t>Đồng_hồ_thông_minh/276115522_1369627001624235375.jpg</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/79/06/db/de657748b73e722d01b96d126297833e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/ec/7d/de5a49dc09126ff6153b16bbb82ee814.jpg</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-hoc-sinh-tieu-hoc-thcs-thpt-chong-nuoc-lap-sim-dinh-vi-kep-smart-watch-ama-hw13-hang-nhap-khau-p273936761.html?spid=273936763</t>
+          <t>https://tiki.vn/apple-watch-se-2024-gps-vien-nhom-day-cao-su-p276115522.html?spid=276115846</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -24355,15 +24355,19 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>HW13</t>
-        </is>
-      </c>
-      <c r="L518" t="inlineStr"/>
+          <t>Watch SE 2024</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>viền nhôm dây cao su</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -24372,11 +24376,11 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>273690198</v>
+        <v>273936761</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>AMA TK Watch Android 8.1</t>
+          <t>AMA HW13</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -24385,21 +24389,21 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1620870</v>
+        <v>1096391</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/273690198_9168548247674116842.jpg</t>
+          <t>Đồng_hồ_thông_minh/273936761_-8735126153505365997.jpg</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/82/81/b64f1908940da2db9b94abff5939fad4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/79/06/db/de657748b73e722d01b96d126297833e.jpg</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-lap-sim-ket-noi-wifi-4g-blueltooth-dinh-vi-gps-google-xem-duoc-video-youtube-tiktok-tai-app-chat-za-lo-face-book-messenger-skype-whatsapp-viber-wechat-kakao-line-tele-choi-game-ama-smart-watch-tk-android-8-1-cho-tre-em-hang-nhap-khau-p273690198.html?spid=273690200</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-hoc-sinh-tieu-hoc-thcs-thpt-chong-nuoc-lap-sim-dinh-vi-kep-smart-watch-ama-hw13-hang-nhap-khau-p273936761.html?spid=273936763</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -24414,7 +24418,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>TK Watch Android 8.1</t>
+          <t>HW13</t>
         </is>
       </c>
       <c r="L519" t="inlineStr"/>
@@ -24426,11 +24430,11 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>9.186353276265624e+18</v>
+        <v>273690198</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch Ultra 47mm dây silicone</t>
+          <t>AMA TK Watch Android 8.1</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -24439,43 +24443,39 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>16990000</v>
+        <v>1620870</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
+          <t>Đồng_hồ_thông_minh/273690198_9168548247674116842.jpg</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/82/81/b64f1908940da2db9b94abff5939fad4.jpg</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-lap-sim-ket-noi-wifi-4g-blueltooth-dinh-vi-gps-google-xem-duoc-video-youtube-tiktok-tai-app-chat-za-lo-face-book-messenger-skype-whatsapp-viber-wechat-kakao-line-tele-choi-game-ama-smart-watch-tk-android-8-1-cho-tre-em-hang-nhap-khau-p273690198.html?spid=273690200</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>TGDD</t>
+          <t>Tiki</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
-        </is>
-      </c>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>47mm dây silicone</t>
-        </is>
-      </c>
+          <t>TK Watch Android 8.1</t>
+        </is>
+      </c>
+      <c r="L520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -24484,11 +24484,11 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>8.989072603909606e+18</v>
+        <v>9.186353276265624e+18</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 47mm dây silicone</t>
+          <t>Samsung Galaxy Watch Ultra 47mm dây silicone</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -24497,21 +24497,21 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14420000</v>
+        <v>16990000</v>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
+          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -24521,12 +24521,12 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Garmin</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Forerunner 570</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -24542,11 +24542,11 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>2.067984039751481e+18</v>
+        <v>8.989072603909606e+18</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Amazfit Active 2 Square 43.3mm dây da</t>
+          <t>Garmin Forerunner 570 47mm dây silicone</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -24555,21 +24555,21 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>3690000</v>
+        <v>14420000</v>
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
+          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -24579,17 +24579,17 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Amazfit</t>
+          <t>Garmin</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Active 2 Square</t>
+          <t>Forerunner 570</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>43.3mm dây da</t>
+          <t>47mm dây silicone</t>
         </is>
       </c>
     </row>
@@ -24600,11 +24600,11 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>4.510275253775064e+18</v>
+        <v>2.067984039751481e+18</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 42.4mm</t>
+          <t>Amazfit Active 2 Square 43.3mm dây da</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -24613,21 +24613,21 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>14420000</v>
+        <v>3690000</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
+          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -24637,17 +24637,17 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Garmin</t>
+          <t>Amazfit</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Forerunner 570</t>
+          <t>Active 2 Square</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>42.4mm</t>
+          <t>43.3mm dây da</t>
         </is>
       </c>
     </row>
@@ -24658,11 +24658,11 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>9.186353276265624e+18</v>
+        <v>4.510275253775064e+18</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch Ultra 47mm dây silicone</t>
+          <t>Garmin Forerunner 570 42.4mm</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -24671,21 +24671,21 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16990000</v>
+        <v>14420000</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
+          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -24695,17 +24695,17 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Garmin</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Forerunner 570</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>47mm dây silicone</t>
+          <t>42.4mm</t>
         </is>
       </c>
     </row>
@@ -24716,11 +24716,11 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>5.366895306400635e+18</v>
+        <v>9.186353276265624e+18</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Huawei Watch 5 46mm dây cao su</t>
+          <t>Samsung Galaxy Watch Ultra 47mm dây silicone</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -24729,21 +24729,21 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>8830000</v>
+        <v>16990000</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
+          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -24753,17 +24753,17 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Huawei</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Watch 5</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>46mm dây cao su</t>
+          <t>47mm dây silicone</t>
         </is>
       </c>
     </row>
@@ -24774,11 +24774,11 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1.676033394735769e+18</v>
+        <v>5.366895306400635e+18</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch8 40mm dây silicone</t>
+          <t>Huawei Watch 5 46mm dây cao su</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -24787,21 +24787,21 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>9990000</v>
+        <v>8830000</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
+          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
@@ -24811,17 +24811,17 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Huawei</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Galaxy Watch8</t>
+          <t>Watch 5</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>40mm dây silicone</t>
+          <t>46mm dây cao su</t>
         </is>
       </c>
     </row>
@@ -24832,11 +24832,11 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>1.65783369162941e+18</v>
+        <v>1.676033394735769e+18</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Garmin Venu X1 51.2mm dây nylon</t>
+          <t>Samsung Galaxy Watch8 40mm dây silicone</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -24845,21 +24845,21 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21090000</v>
+        <v>9990000</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/1657833691629409441_-3756484674081019100.jpg</t>
+          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340846/garmin-venu-x1-reu-tb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-venu-x1-sapphire</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -24869,17 +24869,17 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Garmin</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Venu X1</t>
+          <t>Galaxy Watch8</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>51.2mm dây nylon</t>
+          <t>40mm dây silicone</t>
         </is>
       </c>
     </row>
@@ -24890,11 +24890,11 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>8.989072603909606e+18</v>
+        <v>1.65783369162941e+18</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 47mm dây silicone</t>
+          <t>Garmin Venu X1 51.2mm dây nylon</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -24903,21 +24903,21 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>14420000</v>
+        <v>21090000</v>
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
+          <t>Đồng_hồ_thông_minh/1657833691629409441_-3756484674081019100.jpg</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340846/garmin-venu-x1-reu-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-venu-x1-sapphire</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -24932,12 +24932,12 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Forerunner 570</t>
+          <t>Venu X1</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>47mm dây silicone</t>
+          <t>51.2mm dây nylon</t>
         </is>
       </c>
     </row>
@@ -24948,11 +24948,11 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>2.067984039751481e+18</v>
+        <v>8.989072603909606e+18</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Amazfit Active 2 Square 43.3mm dây da</t>
+          <t>Garmin Forerunner 570 47mm dây silicone</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -24961,21 +24961,21 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>3690000</v>
+        <v>14420000</v>
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
+          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -24985,17 +24985,17 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Amazfit</t>
+          <t>Garmin</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Active 2 Square</t>
+          <t>Forerunner 570</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>43.3mm dây da</t>
+          <t>47mm dây silicone</t>
         </is>
       </c>
     </row>
@@ -25006,11 +25006,11 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>4.510275253775064e+18</v>
+        <v>2.067984039751481e+18</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 42.4mm</t>
+          <t>Amazfit Active 2 Square 43.3mm dây da</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -25019,21 +25019,21 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>14420000</v>
+        <v>3690000</v>
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
+          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -25043,17 +25043,17 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Garmin</t>
+          <t>Amazfit</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Forerunner 570</t>
+          <t>Active 2 Square</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>42.4mm</t>
+          <t>43.3mm dây da</t>
         </is>
       </c>
     </row>
@@ -25064,11 +25064,11 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>6.907835202262853e+18</v>
+        <v>4.510275253775064e+18</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Huawei Watch 5 46mm dây composite</t>
+          <t>Garmin Forerunner 570 42.4mm</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -25077,21 +25077,21 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>9810000</v>
+        <v>14420000</v>
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
+          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -25101,17 +25101,17 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Huawei</t>
+          <t>Garmin</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Watch 5</t>
+          <t>Forerunner 570</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>46mm dây composite</t>
+          <t>42.4mm</t>
         </is>
       </c>
     </row>
@@ -25122,11 +25122,11 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>229765302</v>
+        <v>6.907835202262853e+18</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>AMA Watch Q12B</t>
+          <t>Huawei Watch 5 46mm dây composite</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -25135,39 +25135,43 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>195000</v>
+        <v>9810000</v>
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/229765302_-3877597272443373168.jpg</t>
+          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3c/d3/4b/113da997583503fc0365000da880c475.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q12b-hang-nhap-khau-p229765302.html?spid=229765304</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>TGDD</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>Huawei</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Q12B</t>
-        </is>
-      </c>
-      <c r="L532" t="inlineStr"/>
+          <t>Watch 5</t>
+        </is>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>46mm dây composite</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -25176,11 +25180,11 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>212142932</v>
+        <v>229765302</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>AMA Watch D32</t>
+          <t>AMA Watch Q12B</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -25189,21 +25193,21 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>1244510</v>
+        <v>195000</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/212142932_4862266102186728546.jpg</t>
+          <t>Đồng_hồ_thông_minh/229765302_-3877597272443373168.jpg</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/08/d0/5c2503b74acf53d8eeff0a6684aaa108.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3c/d3/4b/113da997583503fc0365000da880c475.jpg</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-trai-gai-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-chong-nuoc-ip67-goi-video-call-dinh-vi-gps-wifi-ama-watch-d32-hang-nhap-khau-p212142932.html?spid=212142936</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q12b-hang-nhap-khau-p229765302.html?spid=229765304</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
@@ -25218,7 +25222,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>D32</t>
+          <t>Q12B</t>
         </is>
       </c>
       <c r="L533" t="inlineStr"/>
@@ -25230,11 +25234,11 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>198515846</v>
+        <v>212142932</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Wonlex KT18</t>
+          <t>AMA Watch D32</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -25243,21 +25247,21 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1833300</v>
+        <v>1244510</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/198515846_-1573833554464561456.png</t>
+          <t>Đồng_hồ_thông_minh/212142932_4862266102186728546.jpg</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/99/66/7f/752b916f89fc61763fcf18dc6ea76874.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/08/d0/5c2503b74acf53d8eeff0a6684aaa108.jpg</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-dinh-vi-kt18-chinh-hang-wonlex-p198515846.html?spid=198515848</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-trai-gai-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-chong-nuoc-ip67-goi-video-call-dinh-vi-gps-wifi-ama-watch-d32-hang-nhap-khau-p212142932.html?spid=212142936</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -25267,12 +25271,12 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Wonlex</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>KT18</t>
+          <t>D32</t>
         </is>
       </c>
       <c r="L534" t="inlineStr"/>
@@ -25284,11 +25288,11 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>196516091</v>
+        <v>198515846</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch5 SM-R900N 40mm</t>
+          <t>Wonlex KT18</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -25297,21 +25301,21 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>2890600</v>
+        <v>1833300</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/196516091_-110608113805442775.jpg</t>
+          <t>Đồng_hồ_thông_minh/198515846_-1573833554464561456.png</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9c/4b/3b/39c1ef7bf5f1cfb5ce79f44c744a73d5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/99/66/7f/752b916f89fc61763fcf18dc6ea76874.png</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-samsung-galaxy-watch5-40mm-sm-r900n-hang-chinh-hang-p196516091.html?spid=196516093</t>
+          <t>https://tiki.vn/dong-ho-dinh-vi-kt18-chinh-hang-wonlex-p198515846.html?spid=198515848</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -25321,19 +25325,15 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Wonlex</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 SM-R900N</t>
-        </is>
-      </c>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>40mm</t>
-        </is>
-      </c>
+          <t>KT18</t>
+        </is>
+      </c>
+      <c r="L535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -25342,11 +25342,11 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>192977208</v>
+        <v>196516091</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>AMA Watch Q16S</t>
+          <t>Samsung Galaxy Watch5 SM-R900N 40mm</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -25355,21 +25355,21 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>366000</v>
+        <v>2890600</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/192977208_-1295276845238255977.jpg</t>
+          <t>Đồng_hồ_thông_minh/196516091_-110608113805442775.jpg</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/85/2c/82/084299fa304692f7dbdc403ced19c368.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9c/4b/3b/39c1ef7bf5f1cfb5ce79f44c744a73d5.jpg</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-chong-nuoc-chuan-ip67-ama-watch-q16s-hang-chinh-hang-p192977208.html?spid=193710183</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-samsung-galaxy-watch5-40mm-sm-r900n-hang-chinh-hang-p196516091.html?spid=196516093</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -25379,15 +25379,19 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Q16S</t>
-        </is>
-      </c>
-      <c r="L536" t="inlineStr"/>
+          <t>Galaxy Watch5 SM-R900N</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>40mm</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -25396,11 +25400,11 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>112287571</v>
+        <v>192977208</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>AMA Watch Y92</t>
+          <t>AMA Watch Q16S</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -25409,21 +25413,21 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>591361</v>
+        <v>366000</v>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/112287571_-6014313050433431973.jpg</t>
+          <t>Đồng_hồ_thông_minh/192977208_-1295276845238255977.jpg</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/55/38/64/d6e65ca4c3c52cf8994c77c4af5ec993.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/85/2c/82/084299fa304692f7dbdc403ced19c368.jpg</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-lap-sim-doc-lap-nghe-goi-2-chieu-ama-watch-y92-chong-nuoc-dinh-vi-wifi-do-chinh-xac-cao-hang-nhap-khau-p112287571.html?spid=112287573</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-chong-nuoc-chuan-ip67-ama-watch-q16s-hang-chinh-hang-p192977208.html?spid=193710183</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -25438,7 +25442,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Y92</t>
+          <t>Q16S</t>
         </is>
       </c>
       <c r="L537" t="inlineStr"/>
@@ -25450,11 +25454,11 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>94304443</v>
+        <v>112287571</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>AMA Watch D06</t>
+          <t>AMA Watch Y92</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -25463,21 +25467,21 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1079804</v>
+        <v>591361</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/94304443_-1525890213333033887.jpg</t>
+          <t>Đồng_hồ_thông_minh/112287571_-6014313050433431973.jpg</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/d4/d2/f7eae7468d71bad8f3a2c606cc3fcd79.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/55/38/64/d6e65ca4c3c52cf8994c77c4af5ec993.jpg</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-ama-watch-nam-nu-chong-nuoc-goi-dien-thoai-xem-tin-nhan-theo-doi-suc-khoe-van-dong-thiet-ke-nho-gon-thoi-trang-hang-nhap-khau-p94304443.html?spid=94304447</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-lap-sim-doc-lap-nghe-goi-2-chieu-ama-watch-y92-chong-nuoc-dinh-vi-wifi-do-chinh-xac-cao-hang-nhap-khau-p112287571.html?spid=112287573</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -25492,7 +25496,7 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>D06</t>
+          <t>Y92</t>
         </is>
       </c>
       <c r="L538" t="inlineStr"/>
@@ -25504,11 +25508,11 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>74215680</v>
+        <v>94304443</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>AMA Watch S27</t>
+          <t>AMA Watch D06</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -25517,21 +25521,21 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>1471490</v>
+        <v>1079804</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/74215680_-5502139735237341598.png</t>
+          <t>Đồng_hồ_thông_minh/94304443_-1525890213333033887.jpg</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0f/b3/74/7155e36ba130c0b68d6bdd6a327aa582.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/d4/d2/f7eae7468d71bad8f3a2c606cc3fcd79.jpg</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-nu-ama-watch-s27-thoi-trang-ket-noi-bluetooth-theo-doi-suc-khoe-van-dong-man-hinh-tron-hang-chinh-hang-p74215680.html?spid=75434136</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-ama-watch-nam-nu-chong-nuoc-goi-dien-thoai-xem-tin-nhan-theo-doi-suc-khoe-van-dong-thiet-ke-nho-gon-thoi-trang-hang-nhap-khau-p94304443.html?spid=94304447</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -25546,7 +25550,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>D06</t>
         </is>
       </c>
       <c r="L539" t="inlineStr"/>
@@ -25558,11 +25562,11 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>5.366895306400635e+18</v>
+        <v>74215680</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Huawei Watch 5 46mm dây cao su</t>
+          <t>AMA Watch S27</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -25571,43 +25575,39 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>8830000</v>
+        <v>1471490</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
+          <t>Đồng_hồ_thông_minh/74215680_-5502139735237341598.png</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0f/b3/74/7155e36ba130c0b68d6bdd6a327aa582.png</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-nu-ama-watch-s27-thoi-trang-ket-noi-bluetooth-theo-doi-suc-khoe-van-dong-man-hinh-tron-hang-chinh-hang-p74215680.html?spid=75434136</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>TGDD</t>
+          <t>Tiki</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Huawei</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Watch 5</t>
-        </is>
-      </c>
-      <c r="L540" t="inlineStr">
-        <is>
-          <t>46mm dây cao su</t>
-        </is>
-      </c>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="L540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -25616,11 +25616,11 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1.676033394735769e+18</v>
+        <v>5.366895306400635e+18</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch8 40mm dây silicone</t>
+          <t>Huawei Watch 5 46mm dây cao su</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -25629,21 +25629,21 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>9990000</v>
+        <v>8830000</v>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
+          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -25653,17 +25653,17 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Huawei</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Galaxy Watch8</t>
+          <t>Watch 5</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>40mm dây silicone</t>
+          <t>46mm dây cao su</t>
         </is>
       </c>
     </row>
@@ -25674,11 +25674,11 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>6.907835202262853e+18</v>
+        <v>1.676033394735769e+18</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Huawei Watch 5 46mm dây composite</t>
+          <t>Samsung Galaxy Watch8 40mm dây silicone</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -25687,21 +25687,21 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>9810000</v>
+        <v>9990000</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
+          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -25711,17 +25711,17 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Huawei</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Watch 5</t>
+          <t>Galaxy Watch8</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>46mm dây composite</t>
+          <t>40mm dây silicone</t>
         </is>
       </c>
     </row>
@@ -25732,52 +25732,110 @@
         </is>
       </c>
       <c r="B543" t="n">
+        <v>6.907835202262853e+18</v>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Huawei Watch 5 46mm dây composite</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Đồng hồ thông minh</t>
+        </is>
+      </c>
+      <c r="E543" t="n">
+        <v>9810000</v>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>TGDD</t>
+        </is>
+      </c>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>Huawei</t>
+        </is>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>Watch 5</t>
+        </is>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>46mm dây composite</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>SW36</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
         <v>1.65783369162941e+18</v>
       </c>
-      <c r="C543" t="inlineStr">
+      <c r="C544" t="inlineStr">
         <is>
           <t>Garmin Venu X1 51.2mm dây nylon</t>
         </is>
       </c>
-      <c r="D543" t="inlineStr">
+      <c r="D544" t="inlineStr">
         <is>
           <t>Đồng hồ thông minh</t>
         </is>
       </c>
-      <c r="E543" t="n">
+      <c r="E544" t="n">
         <v>21090000</v>
       </c>
-      <c r="F543" t="inlineStr">
+      <c r="F544" t="inlineStr">
         <is>
           <t>Đồng_hồ_thông_minh/1657833691629409441_-3756484674081019100.jpg</t>
         </is>
       </c>
-      <c r="G543" t="inlineStr">
+      <c r="G544" t="inlineStr">
         <is>
           <t>https://cdn.tgdd.vn/Products/Images/7077/340846/garmin-venu-x1-reu-tb-600x600.jpg</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
+      <c r="H544" t="inlineStr">
         <is>
           <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-venu-x1-sapphire</t>
         </is>
       </c>
-      <c r="I543" t="inlineStr">
+      <c r="I544" t="inlineStr">
         <is>
           <t>TGDD</t>
         </is>
       </c>
-      <c r="J543" t="inlineStr">
+      <c r="J544" t="inlineStr">
         <is>
           <t>Garmin</t>
         </is>
       </c>
-      <c r="K543" t="inlineStr">
+      <c r="K544" t="inlineStr">
         <is>
           <t>Venu X1</t>
         </is>
       </c>
-      <c r="L543" t="inlineStr">
+      <c r="L544" t="inlineStr">
         <is>
           <t>51.2mm dây nylon</t>
         </is>

--- a/data_cleaned_2.xlsx
+++ b/data_cleaned_2.xlsx
@@ -9706,7 +9706,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>[DUNG LƯỢNG 30000MAH] SẠC DỰ PHÒNG MẶT GƯƠNG DUNG LƯỢNG 300000MAH - PIN SẠC DỰ PHÒNG 30000 MAH, HỖ TRỢ SẠC NHIỀU MÁY CÙNG LÚC, CÓ ĐÈN LED CHIẾU SÁNG THÔNG MINH</t>
+          <t>Mặt gương 30000 mah</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -9752,7 +9752,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>[FREESHIP TẶNG CÁP SẠC NHANH 39K] PIN DỰ PHÒNG LCD MẶT GƯƠNG DUNG LƯỢNG 30000MAH - SẠC DỰ PHÒNG CÓ ĐÈN LED HIỂN THỊ DUNG LƯỢNG PIN - HỖ TRỢ SẠC NHANH ]</t>
+          <t>Mặt gương LCD 30000 mah</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -9798,7 +9798,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>[SẠC MỌI DÒNG ĐIỆN THOẠI] PIN SẠC DỰ PHÒNG 20000MAH ĐI KÈM VỚI BỐN DÂY CÓ THỂ THÁO RỜI, VỚI ĐÈN LED, PIN LITHIUM-ION POLYMER, HỔ TRỢ SẠC NHANH, AN TOÀN TUYỆT ĐỐI</t>
+          <t>LITHIUM-ION POLYMER 20000 mah</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Lacepulse 丨 mini pin sạc dự phòng với bốn được xây dựng trong cáp, 20000mAh dung tích lớn đồ sạc di động</t>
+          <t>Lacepulse 20000 mah</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -9890,7 +9890,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Sạc Dự Phòng Từ Tính Không Dây Đa Năng 10000mAh WEKOME WP-47 - Hỗ Trợ Sạc Nhanh PD 20W, Sạc Không Dây Từ Tính Max 15W - Hàng Chính Hãng</t>
+          <t>WEKOME WP-47 10000 mah</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng Philips DLP6080WT 8000mAh</t>
+          <t>Philips DLP6080WT 8000mAh</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Xmobile 100W M3 tích hợp đèn Pin</t>
+          <t>Xmobile M3</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10028,7 +10028,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Xmobile 22.5W DX367 tích hợp Adapter sạc</t>
+          <t>Xmobile DX367</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -10074,7 +10074,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Xmobile 22.5W JP312 kèm Cáp Lightning và Type CMẫu mới</t>
+          <t>Xmobile JP312</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Xmobile 55W JP326</t>
+          <t>Xmobile JP326</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng Anker PowerCore 13000mAh - A1215021</t>
+          <t>Anker PowerCore 13000mAh</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pin sạc dự phòng ROCKSPACE Y30 10000mah sạc nhanh 22,5W tích hợp củ sạc, hàng chính hãng bảo hành 12 tháng </t>
+          <t>ROCKSPACE Y30 10000mah</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -10258,7 +10258,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Sạc Dự Phòng Xiaomi Power Bank 20000mAh (Integrated Cable) TH | Sạc Nhanh | Phù Hợp Đi Máy Bay | Hàng Chính Hãng</t>
+          <t>Xiaomi TH  20000mAh</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Sạc Dự Phòng trong suốt 30000mAh - sạc siêu nhanh, tích hợp 4 cáp, 2 cổng usb, sạc cùng lúc nhiều điện thoại - Hàng chính hãng</t>
+          <t>trong suốt 30000mAh</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng 10000mAh Type C 22.5W Xiaomi Lite - GiaPhucStore | Hàng Chính Hãng</t>
+          <t>Xiaomi Lite 10000mAh</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Pin Sạc dự phòng không dây nam châm 5-in-1 ROCK P50 10000mAh 20W tích hợp chân đế giữ điện thoại - Hàng chính hãng bảo hành 12 tháng</t>
+          <t>ROCK P50 10000mAh</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -10442,7 +10442,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t xml:space="preserve">[Mỹ] Sạc dự phòng Energizer QM10001AC Thông minh Sạc nam châm từ tính Dung lượng 10000mAh - Hàng chính hãng </t>
+          <t>Energizer QM10001AC 10000mah</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>[Mỹ] Sạc dự phòng Energizer QM10002PQ Sạc nam châm từ tính Dung lượng 10000mAh tích hợp chân đế xếp gọn - Hàng chính hãng</t>
+          <t>Energizer QM10002PQ 10000mah</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -10534,7 +10534,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Sạc dự phòng 9FIT Pro 20,000mAh /3.7V Li-Polymer - 9PP20K04B, hỗ trợ sạc nhanh - Hàng chính hãng</t>
+          <t>9FIT Pro 20000mAh</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -10580,7 +10580,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Sạc dự phòng Energizer 10,000mAh /3.7V Li-Polymer UE10050CCBK, công suất 15W đa cổng - Hàng chính hãng</t>
+          <t>Energizer 10000mAh</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -10626,7 +10626,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng MicroPack POWER STORE 10S 10000mAh - Hàng Chính Hãng</t>
+          <t>MicroPack POWER STORE 10S 10000mAh</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -10672,7 +10672,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Sạc dự phòng 50.000mAh trong suốt, có sạc nhanh PD 120W, kèm 4 cáp sạc, tích hợp đèn ngủ - FTAKY Hàng Nhập Khẩu</t>
+          <t>FTAKY 50000mAh</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Sạc Dự Phòng 50.000MAH Trong Suốt kèm cáp sạc nhanh 4 đầu, tích hợp 4 cáp sạc, làm đèn ngủ - FTAKY Hàng Nhập Khẩu</t>
+          <t>FTAKY 50000mAh</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Sạc dự phòng Energizer 30,000mAh /3.7V Li-Polymer UE30055PQBK, bảo hàng 24 tháng 1 đổi 1 - Hàng chính hãng</t>
+          <t>Energizer 30000mAh</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -10810,7 +10810,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Sạc dự phòng Energizer 20,000mAh/3.7V Li-Polymer UE20050C - Hàng chính hãng bảo hành 2 năm 1 đổi 1</t>
+          <t>Energizer 20000mAh</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -10856,7 +10856,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng Trong Suốt Dung Lượng 10000mAh Linrui LR016 Đèn LED 3 Chế Độ - Hàng Chính Hãng</t>
+          <t>Linrui LR016 10000mah</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -10902,7 +10902,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng Linrui LR010 Dung Lượng Chuẩn 20000mAh Kèm Cáp Sạc Sẵn, Màn Hình LED Hiển Thị Pin - Hàng Chính Hãng</t>
+          <t>Linrui LR010 20000mah</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -10948,7 +10948,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng 20000mAh Linrui LR009 Sạc Nhanh, Cổng Ra Type C - Hàng Chính Hãng</t>
+          <t>Linrui LR009 20000mah</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -10994,7 +10994,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Ugreen 130W PB721</t>
+          <t>Ugreen PB721</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -11040,7 +11040,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng Samsung EB-P4520X 20000 mAh 45W-hàng chính hãng</t>
+          <t>Samsung EB-P4520X 20000 mAh</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -11086,7 +11086,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Xmobile 22.5W SnapGo GS-M3 kèm Cáp Lightning và Type C</t>
+          <t>Xmobile SnapGo GS-M3</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -11132,7 +11132,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Baseus PicoGo 45W PPPG-1W45C kèm Cáp Type C</t>
+          <t>Baseus PicoGo PPPG-1W45C</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -11178,7 +11178,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Xmobile 22.5W YM-672</t>
+          <t>Xmobile YM-672</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Baseus Lipow 22.5W PPJP312 kèm Cáp Lightning và Type C</t>
+          <t>Baseus Lipow PPJP312</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -11270,7 +11270,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Xmobile 22.5W A16</t>
+          <t>Xmobile A16</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Xmobile 22.5W H19 kèm Cáp Lightning và Type C</t>
+          <t>Xmobile H19</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -11362,7 +11362,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Anker Zolo 165W A1695 kèm cáp dây rút Type C</t>
+          <t>Anker Zolo A1695</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -11408,7 +11408,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Baseus PicoGo 45W PPPG-1W45C kèm Cáp Type C</t>
+          <t>Baseus PicoGo PPPG-1W45C</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -11454,7 +11454,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Xmobile 22.5W SnapGo GS-M3 kèm Cáp Lightning và Type C</t>
+          <t>Xmobile SnapGo GS-M3</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Ugreen 130W PB721</t>
+          <t>Ugreen PB721</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Xmobile 100W M3 tích hợp đèn Pin</t>
+          <t>Xmobile M3</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -11592,7 +11592,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Xmobile 22.5W DX367 tích hợp Adapter sạc</t>
+          <t>Xmobile DX367</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Xmobile 22.5W JP312 kèm Cáp Lightning và Type CMẫu mới</t>
+          <t>Xmobile JP312</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -11684,7 +11684,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Xmobile 55W JP326</t>
+          <t>Xmobile JP326</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Xmobile 22.5W YM-672</t>
+          <t>Xmobile YM-672</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -11776,7 +11776,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Baseus Lipow 22.5W PPJP312 kèm Cáp Lightning và Type C</t>
+          <t>Baseus Lipow PPJP312</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -11822,7 +11822,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Xmobile 22.5W A16</t>
+          <t>Xmobile A16</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -11868,7 +11868,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Xmobile 22.5W H19 kèm Cáp Lightning và Type C</t>
+          <t>Xmobile H19</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -11914,7 +11914,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Anker Zolo 165W A1695 kèm cáp dây rút Type C</t>
+          <t>Anker Zolo A1695</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -11960,7 +11960,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Pin dự phòng sạc nhanh vỏ kim loại Baseus Adaman Metal Digital Display Quick Charge Power Bank (10.000mAh/20.000mAh, 22.5W, PD/QC3.0 Quick charge Power Bank)- Hàng chính hãng</t>
+          <t>Baseus Adaman Metal Digital 10000mAh 20000mAh</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -12006,7 +12006,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng Anker 323 1A1C 12W 10000mah USB-A và Type-C A1334 - Hàng Chính Hãng</t>
+          <t>Anker 323 1A1C 10000mah</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng 20000mAh RAVPower RP-PB1214 Sạc Nhanh 20W, Sạc Không Dây Nam Châm Tối Đa 15W, Tương Thích Mag.Safe iPhone - Hàng Chính Hãng</t>
+          <t>RAVPower RP-PB1214 20000 mah</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -12098,7 +12098,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pin Sạc Dự Phòng Không Dây Từ Tính Remax RPP-519 20000mAh Tích Hợp Kèm 2 Cáp Sạc Nhanh PD 22.5W - Hàng Chính Hãng Remax</t>
+          <t>Remax RPP-519 20000mAh</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -12144,7 +12144,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Sạc dự phòng Anker 737 PowerCore 1USB 2Type-C 140W PD3.1 24000mAh A1289 - Hàng chính hãng</t>
+          <t>Anker 737 24000mAh</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -12190,7 +12190,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Sạc dự phòng Anker 533 PowerCore 1USB 2Type-C 30W 10000mAh A1256 - Hàng chính hãng</t>
+          <t xml:space="preserve"> Anker 533 10000mAh</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -12236,7 +12236,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Sạc dự phòng Anker 323 PowerCore PIQ 1USB 1Type-C 12W 10000mAh A1334 - Hàng chính hãng</t>
+          <t xml:space="preserve"> Anker 323 PIQ 10000mah</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng Rockspace Y11 sạc nhanh 22.5w dung lượng 20000mAh có tích hợp kèm dây sạc - Hàng chính hãng bảo hành 12 tháng</t>
+          <t>Rockspace Y11 20000mah</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Sạc dự phòng Anker Nano Power Bank 1USB 1Type-C 30W 10000 mAh A1259 - Hàng chính hãng</t>
+          <t>Anker Nano 10000mah</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -12374,7 +12374,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng xiaomi 200000mah gen 4 22.5W model PB2022ZM - Hàng nhập khẩu</t>
+          <t>xiaomi gen 4 200000mah</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -12420,7 +12420,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng Năng Lượng Mặt Trời Linrui LR001 10000mAh Tích Hợp Cáp Sạc Sẵn - Hàng Chính Hãng</t>
+          <t>Linrui LR001 10000mAh</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -12466,7 +12466,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Sạc dự phòng Energizer PD65W 27,000mAh/3.7V Li-ion XP27001PD, hỗ trợ sạc cho Laptop, chống cháy nổ - Hàng chính hãng bảo hành 12 tháng</t>
+          <t>Energizer XP27001PD 27000mAh</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Sạc dự phòng Energizer 4,600mAh 3.6V Li-ion UE4600PQBK,Sạc nhanh PD 22.5W, bảo hành 24 tháng 1 đổi 1 - Hàng chính hãng</t>
+          <t>Energizer UE4600PQBK 4600mah</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -12558,7 +12558,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>[Mỹ] Sạc dự phòng Energizer QM5000 mini Sạc nam châm từ tính Dung lượng 5000mAh - Hàng chính hãng</t>
+          <t>Energizer QM5000 5000mah</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -12604,7 +12604,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng Laptop HubbFast LAP100 100W 26800mAh, Sạc Nhanh PD Type-C USB-A, Màn Hình LED, Đa Năng, Hàng chính hãng</t>
+          <t>HubbFast LAP100 268000mah</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -12650,7 +12650,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sạc Dự Phòng Xiaomi Power Bank 10000mAh 22.5W Lite TH | Sạc Nhanh | Sạc Cùng Lúc Nhiều Thiết Bị | Bảo Hành 12 Tháng | Hàng Chính Hãng </t>
+          <t>Xiaomi Lite TH 10000mah</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -12696,7 +12696,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng 20000mAh Type C PD QC 3.0 30W Anker A1384 kèm Cáp Type C - Hàng Chính Hãng</t>
+          <t>Anker A1384 20000mah</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -12742,7 +12742,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng Anker PowerCore 20100mAh - A1271</t>
+          <t>Anker A1271 20100mah</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -12788,7 +12788,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng LINRUI LR012 Dung Lượng 2600mAh Nhỏ Gọn - Hàng Chính Hãng</t>
+          <t>LINRUI LR012 2600mah</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -12834,7 +12834,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Sạc dự phòng ANKER PowerCore II 10000mAh - A1230</t>
+          <t>ANKER PowerCore II A1230 10000mah</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -12880,7 +12880,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng Hoco Sạc Nhanh J87A PD20W QC3.0 20000Mah 20W Hàng Nhập Khẩu</t>
+          <t>Hoco J87A 20000mah</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -12926,7 +12926,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Sạc dự phòng Energizer 20,000mAh UE20012PQ - Hàng chính hãng</t>
+          <t>Energizer UE20012PQ 20000mah</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -12972,7 +12972,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng Hoco J62 - Dung Lượng 30.000mAh - Có Đèn LED - Hàng chính hãng</t>
+          <t>Hoco J62 30000mah</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -13018,7 +13018,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng HOCO 2 Cổng Sạc, Chống Cháy Nổi, Có Đèn LED Hiển Thị Dung Lượng Pin - 12.000mAh - B35C – Màu Trắng - Tặng 1 Gía Đỡ Điện Thoại Mẫu Ngẫu Nhiên - Hàng Chính Hãng</t>
+          <t>HOCO B35C 12000mah</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Sạc dự phòng Energizer 20.000 mAh/3.7V Li-Polymer - UE20011PQ - Hàng chính hãng - Đen</t>
+          <t>Energizer UE20011PQ 20000mah</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -13110,7 +13110,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng Hoco J59A 20.000mAh - HÀNG CHÍNH HÃNG</t>
+          <t>Hoco J59A 20000mah</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -13156,7 +13156,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng 10000mAh Hoco J48 2 Cổng sạc - Hàng Chính Hãng</t>
+          <t>Hoco J48 10000mah</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -13202,7 +13202,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>(Hàng chính hãng) Pin sạc dự phòng Yoobao 99Wh 26800mAh thiết kế vỏ nhôm nguyên khối hỗ trợ sạc nhanh PD 45W, QC 3.0 cho điện thoại laptop, Macbook. Thích hợp cho các chuyến đi du lịch, công tác xa,....</t>
+          <t>Yoobao 26800mAh</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -13248,7 +13248,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng HOCO 10.000mAh-J48,HÀNG CHÍNH HÃNG</t>
+          <t>Hoco J48 10000mah</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng Hoco J68 10000 mah Dành cho điện thoại iPhone iP Huawei Samsung Oppo Realme - Hàng chính hãng</t>
+          <t>Hoco J68 10000mah</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -13340,7 +13340,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng 20000mAh Xiaomi PB200SZM 50W - Hàng Chính Hãng</t>
+          <t>Xiaomi PB200SZM 20000mah</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -13386,7 +13386,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Sạc dự phòng Xiaomi Mi 50W Power Bank 20000mAh BHR5121GL PB2050SZM - Hàng chính hãng</t>
+          <t>Xiaomi Mi BHR5121GL PB2050SZM 20000mAh</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Sạc Dự Phòng Đa Năng 20.000mAh WEKOME WP-335 - Tích Hợp 2 Cáp Sạc Nhanh TypeC &amp; iP - Hỗ Trợ Sạc Nhanh Lên Đên 22,5W - Hàng Chính Hãng</t>
+          <t>WEKOME WP-335 20000mah</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -13478,7 +13478,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Sạc dự phòng All-in-one dung lượng 15000mAh Remax RPP-276 - Hàng chính hãng</t>
+          <t>Remax RPP-276 15000mah</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -13524,7 +13524,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng Baseus Qpow Pro 10000mah 20000mah PD Sạc Nhanh Tích Hợp Dây Sạc IP / Type C Màn Hình LED - Hàng Chính Hãng</t>
+          <t>Baseus Qpow Pro 10000mah 20000mah</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng 20000mAh Công Suất Cao 65w Baseus Kèm Dây Sạc Nhanh Type C Cho IP, Laptop , Điện Thoại - Hàng Chính Hãng</t>
+          <t>Baseus 20000mah</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -13616,7 +13616,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng 10000mah 22.5W PB100DZM - Hàng nhập khẩu</t>
+          <t>PB100DZM 10000mah</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -13662,7 +13662,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Sạc dự phòng Anker PowerCore Select 10000mAh A1223 - Hàng chính hãng</t>
+          <t>Anker PowerCore Select A1223 10000mah</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Sạc dự phòng có chân đế từ tính không dây Anker 633 MagGO 10000mAh A1641 - Hàng chính hãng</t>
+          <t>Anker 633 MagGO A1641 10000mah</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -13754,7 +13754,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng BASEUS Qpow Digital Display 3A 10.000MAH kèm cable iPhone - Hàng chính hãng</t>
+          <t>BASEUS Qpow Digital Display 3A 10000mah</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -13800,7 +13800,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng Tích Hợp Cổng USB Type-C In/Out Hỗ Trợ Power Delivery PD Xiaomi Gen 3 20000mAh - Hàng Chính Hãng</t>
+          <t>Xiaomi Gen 3 20000mAh</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng MOPHIE Power Boost V2 5.200mAh chính hãng</t>
+          <t>MOPHIE Power Boost V2 5200mAh</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -13892,7 +13892,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Sạc dự phòng Aukey Basix Mini PD 20W QC3.0 10000mAh PB-N83S - Hàng chính hãng</t>
+          <t>Aukey Basix Mini PB-N83S 10000mah</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -13938,7 +13938,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng Xiaomi 20000Mah gen 3 PLM18ZM - Hàng nhập khẩu</t>
+          <t>Xiaomi gen 3 PLM18ZM 20000mah</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -13984,7 +13984,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Sạc dự phòng 20000mAh sạc nhanh không dây 15W Remax RPP-207 sạc nhanh 22.5W QC3.0 - Hàng chính hãng</t>
+          <t>Remax RPP-207 20000mah</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -14030,7 +14030,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng Baseus Bipow Digital Display Power Bank 20000mAh ( 15W/20W, USB*2+Type C , LED Display, 2 Way Fast charge ) - Hàng chính hãng</t>
+          <t>Baseus Bipow 20000mAh</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -14076,7 +14076,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng Hoco J73 Powerful 30000mAh 2 cổng input, 3 cổng output, đèn pin siêu sáng - Hàng chính hãng</t>
+          <t>Hoco J73 Powerful 30000mAh</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -14122,7 +14122,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Pin dự phòng sạc nhanh Baseus Adaman Metal Digital Display Quick Charge (22.5W QC3.0/ PD3.0/ SCP/ AFAFC Quick charge) - Hàng Chính Hãng</t>
+          <t xml:space="preserve"> Baseus Adaman Metal</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -14168,7 +14168,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng Hoco J75 Tresor 10000mAh 2 cổng Input/Output max 2A (Hàng chính hãng)</t>
+          <t>Hoco J75 Tresor 10000mAh</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -14214,7 +14214,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Sạc dự phòng không dây từ tính Remax RPP-65 10000mAh - Hàng chính hãng</t>
+          <t>Remax RPP-65 10000mAh</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -14260,7 +14260,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng Xiaomi 10000mAh 22.5W Pocket có kèm cáp sạc - Hàng Nhập Khẩu</t>
+          <t>Xiaomi Pocket 10000mah</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -14306,7 +14306,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng Rivacase VA2280, LCD (20000mAh) - Hàng Chính Hãng</t>
+          <t>Rivacase VA2280 20000mAh</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -14352,7 +14352,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Pin dự phòng PD 20W Rockspace P91 sạc nhanh 10000mAh Hàng chính hãng bảo hành 12 tháng</t>
+          <t>Rockspace P91 10000mAh</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -14398,7 +14398,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng Di Động WiWU WI-P016 10.000mAh - Hàng Chính Hãng</t>
+          <t>WiWU WI-P016 10.000mAh</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -14444,7 +14444,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng mini tích hợp dây sạc Rockspace Y11 sạc nhanh 22.5w dung lương 10000mAh - Hàng chính hãng bảo hành 12 tháng</t>
+          <t xml:space="preserve"> Rockspace Y11 10000mah</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -14490,7 +14490,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Sạc dự phòng Energizer 30,000mAh UE30016PQ, hỗ trợ sạc nhanh 20W đa nền tảng - Hàng chính hãng bảo hành 1 đổi 1 2 năm</t>
+          <t>Energizer UE30016PQ 30000mah</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Pin sạc dự phòng không dây kèm giá đỡ điện thoại Rockspace P20 SE sạc nhanh PD 20W 10000mAh - Hàng chính hãng bảo hành 12 tháng</t>
+          <t>Rockspace P20 SE 10000mah</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -14582,7 +14582,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng AUKEY Basix Mini PB-N83S 10000mAh - Sạc Nhanh Power Delivery 20W và Quick Charge 3.0 18W - Hàng Chính Hãng</t>
+          <t>AUKEY Basix Mini PB-N83S 10000mAh</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Pin Sạc Dự Phòng RAVPower 20000mAh Quick Charge 3.0 + PD 60W, In/Out Type-C, Sạc Được Macbook - RP-PB201 - Hàng Chính Hãng</t>
+          <t>RAVPower 20000mAh</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">

--- a/data_cleaned_2.xlsx
+++ b/data_cleaned_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L544"/>
+  <dimension ref="A1:L542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14674,7 +14674,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Tai Nghe Không Dây Lenovo Thinkplus EA110 - Thiết Kế Mini TWS, Âm Thanh Stereo HD, Chuẩn Chống Nước IPX7</t>
+          <t>Lenovo Thinkplus EA110</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -14720,7 +14720,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>tai nghe bluetooth M19 phiên bản mới có kèm sạc dự phòng</t>
+          <t>M19</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Tai nghe bluetooth M10 âm thanh trung thực chống ồn khánh nước</t>
+          <t>M10</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -14812,7 +14812,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Tai nghe Bluetooth S10 Pro, S10 Plus V5.2  kiêm Sạc dự phòng 2800mAh</t>
+          <t>S10 Pro - Plus V5.2</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -14858,7 +14858,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth Không Dây S10PRO Pin Cực Trâu Nghe Nhạc Cực Hay Chơi Game Cực Đã Tai Nghe Không Dây ,Tai Nghe Bluetooth 5.2 Bảo Hành 12 Tháng</t>
+          <t>S10 Pro</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -14904,7 +14904,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Tai nghe TWS Alpha Works AW-Curve 200</t>
+          <t>TWS Alpha Works AW-Curve 20</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -14950,7 +14950,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Tai nghe TWS AVA+ Buds Life Air 3</t>
+          <t>TWS AVA+ Buds Life Air 3</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Tai nghe Chụp Tai Gaming Asus ROG PELTA</t>
+          <t>Asus ROG PELTA</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -15042,7 +15042,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Tai nghe Bluetooth Chụp tai Sony WH1000XM6Mẫu mới</t>
+          <t>Sony WH1000XM6</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -15086,11 +15086,7 @@
       <c r="B319" t="n">
         <v>8.987935231364182e+18</v>
       </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>Tai nghe TWS Samsung Galaxy Buds3 Pro R630N</t>
-        </is>
-      </c>
+      <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -15132,11 +15128,7 @@
       <c r="B320" t="n">
         <v>6.108220378055852e+18</v>
       </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>Tai nghe TWS OPPO ENCO Buds 3 Pro ETEK1</t>
-        </is>
-      </c>
+      <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -15178,11 +15170,7 @@
       <c r="B321" t="n">
         <v>7.024225983195286e+17</v>
       </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>Tai nghe Chụp Tai Sony WH-CH520</t>
-        </is>
-      </c>
+      <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -15224,11 +15212,7 @@
       <c r="B322" t="n">
         <v>1.626912293464731e+17</v>
       </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>Tai nghe TWS AVA+ FreeGo W28</t>
-        </is>
-      </c>
+      <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -15270,11 +15254,7 @@
       <c r="B323" t="n">
         <v>8.987935231364182e+18</v>
       </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>Tai nghe TWS Samsung Galaxy Buds3 Pro R630N</t>
-        </is>
-      </c>
+      <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -15318,7 +15298,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Tai nghe TWS AVA+ Buds Life Air 3</t>
+          <t>TWS AVA+ Buds Life Air 3</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -15364,7 +15344,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Tai nghe Chụp Tai Gaming Asus ROG PELTA</t>
+          <t>Asus ROG PELTA</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -15408,11 +15388,7 @@
       <c r="B326" t="n">
         <v>1.626912293464731e+17</v>
       </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>Tai nghe TWS AVA+ FreeGo W28</t>
-        </is>
-      </c>
+      <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -15454,11 +15430,7 @@
       <c r="B327" t="n">
         <v>7.024225983195286e+17</v>
       </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>Tai nghe Chụp Tai Sony WH-CH520</t>
-        </is>
-      </c>
+      <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -15502,7 +15474,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Tai nghe TWS Alpha Works AW-Curve 200</t>
+          <t>TWS Alpha Works AW-Curve 20</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -15546,11 +15518,7 @@
       <c r="B329" t="n">
         <v>6.108220378055852e+18</v>
       </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>Tai nghe TWS OPPO ENCO Buds 3 Pro ETEK1</t>
-        </is>
-      </c>
+      <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -15594,7 +15562,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Tai nghe Bluetooth Chụp tai Sony WH1000XM6Mẫu mới</t>
+          <t>Sony WH1000XM6</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -15638,11 +15606,7 @@
       <c r="B331" t="n">
         <v>113569143</v>
       </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>Tai nghe bluetooth chụp tai Remax RB-620HB kiểu dáng on-ear - Hàng chính hãng</t>
-        </is>
-      </c>
+      <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -15684,11 +15648,7 @@
       <c r="B332" t="n">
         <v>274598403</v>
       </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth WiWU OWS O300 Chất Lượng Âm Thanh HF, Dùng Cho Hoạt Động Thể Thao - Hàng Chính Hãng</t>
-        </is>
-      </c>
+      <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -15730,11 +15690,7 @@
       <c r="B333" t="n">
         <v>274660336</v>
       </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>Tai nghe bluetooth không dây kẹp vành tai Rockspace X900 OWS Bluetooth Earphones Hàng chính hãng bảo hành 12 tháng</t>
-        </is>
-      </c>
+      <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -15776,11 +15732,7 @@
       <c r="B334" t="n">
         <v>274875247</v>
       </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>Tai nghe bluetooth thể thao RIBI X28 - Thiết kế đẹp mắt - Pin lâu - không gây đau tai - Phù hợp chạy bộ và đạp xe - Hàng Chính Hãng</t>
-        </is>
-      </c>
+      <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -15822,11 +15774,7 @@
       <c r="B335" t="n">
         <v>274966971</v>
       </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>Tai Nghe Không Dây Logitech ZONE 300 - Hàng Chính Hãng</t>
-        </is>
-      </c>
+      <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -15868,11 +15816,7 @@
       <c r="B336" t="n">
         <v>275260709</v>
       </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>Tai nghe bluetooth nhét tai Music cao cấp V4.1 - Khoảng Cách Kết Nối Lên Tới 10m - Thời Gian Đàm Thoại Lên Tới 3h - Hàng Chính Hãng</t>
-        </is>
-      </c>
+      <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -15914,11 +15858,7 @@
       <c r="B337" t="n">
         <v>275350728</v>
       </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>Tai nghe bluetooth V9 - Hàng nhập khẩu</t>
-        </is>
-      </c>
+      <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -15960,11 +15900,7 @@
       <c r="B338" t="n">
         <v>275924943</v>
       </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Chụp Tai , Headphone Không Dây Bluetooth Có Mic Đàm Thoại Tiện Lợi, Pin Cực Khỏe Bluetooth 5.1 Cao Cấp - Hàng Chính Hãng Besti</t>
-        </is>
-      </c>
+      <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16006,11 +15942,7 @@
       <c r="B339" t="n">
         <v>276061965</v>
       </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth True Wireless Havit TW931 - Hàng chính hãng</t>
-        </is>
-      </c>
+      <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16052,11 +15984,7 @@
       <c r="B340" t="n">
         <v>276182629</v>
       </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>Tai nghe bluetooth không dây nhét tai chống ồn chủ động ANC ROCKSPACE A5 Pro TWS có mic hàng chính hãng BH 12 tháng</t>
-        </is>
-      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16098,11 +16026,7 @@
       <c r="B341" t="n">
         <v>276191827</v>
       </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>Tai nghe bluetooth không dây nhét tai ROCKSPACE EB700 TWS có mic hàng chính hãng bảo hành 12 tháng</t>
-        </is>
-      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16144,11 +16068,7 @@
       <c r="B342" t="n">
         <v>276246546</v>
       </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth Xiaomi Redmi Buds 6 Play - GiaPhucStore | Hàng Chính Hãng</t>
-        </is>
-      </c>
+      <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16190,11 +16110,7 @@
       <c r="B343" t="n">
         <v>276349095</v>
       </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>Tai nghe True Wireless SoundPEATS Capsule 3 Pro+ Loa kép xMEMS LDAC Bluetooth 5.3 - Hàng Chính Hãng</t>
-        </is>
-      </c>
+      <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16236,11 +16152,7 @@
       <c r="B344" t="n">
         <v>276616795</v>
       </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth Energizer TWS, Tích hợp Micro, Kháng nước IPX4 - UB2000 - Hàng chính hãng</t>
-        </is>
-      </c>
+      <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16282,11 +16194,7 @@
       <c r="B345" t="n">
         <v>276640976</v>
       </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>Tai Nghe V8 Tai Nghe Âm Thanh Nổi Hifi Bluetooth Tai Nghe Mic Rảnh Tay Không Dây Có Nút Tai Nghe Móc Tai Giảm Tiếng Ồn - Hàng nhập khẩu</t>
-        </is>
-      </c>
+      <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16328,11 +16236,7 @@
       <c r="B346" t="n">
         <v>277346820</v>
       </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>Tai Nghe Nhét Tai Bluetooth Chống Nước Sony WI-C100 - hàng chính hãng</t>
-        </is>
-      </c>
+      <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16374,11 +16278,7 @@
       <c r="B347" t="n">
         <v>273930440</v>
       </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth nhét tai không dây TWS Rockspace Retro Mix Tape nghe nhạc lên đến 20h Hàng chính hãng có bảo hành</t>
-        </is>
-      </c>
+      <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16420,11 +16320,7 @@
       <c r="B348" t="n">
         <v>273574728</v>
       </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth nhét tai không dây TWS Rockspace Air Bubble nghe nhạc lên đến 20h hàng chính hãng bảo hành 12 tháng</t>
-        </is>
-      </c>
+      <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16466,11 +16362,7 @@
       <c r="B349" t="n">
         <v>273176468</v>
       </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth truyền âm thanh qua xương Shokz OPENCOMM2/OPENCOMM2 UC - Hàng Chính Hãng</t>
-        </is>
-      </c>
+      <c r="C349" t="inlineStr"/>
       <c r="D349" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16512,11 +16404,7 @@
       <c r="B350" t="n">
         <v>272984503</v>
       </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>Edifier X2s - Tai Nghe Nhét Tai Bluetooth, Chơi Game, Đàm Thoại, Chống Nước IP54, Sử Dụng 26 Giờ- Hàng chính hãng</t>
-        </is>
-      </c>
+      <c r="C350" t="inlineStr"/>
       <c r="D350" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16558,11 +16446,7 @@
       <c r="B351" t="n">
         <v>79887552</v>
       </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>Tai nghe không dây blueetooth LANITH cao cấp 5.0 TWS F9 – Tai nghe Bluetooth kiểu dáng hiện đại, thời thượng - Hàng nhập khẩu – TA0002</t>
-        </is>
-      </c>
+      <c r="C351" t="inlineStr"/>
       <c r="D351" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16604,11 +16488,7 @@
       <c r="B352" t="n">
         <v>85625741</v>
       </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Không Dây Lanith 5.0 TWS F9 - Tai Nghe Airpord Cao Cấp - Tai Nghe Bluetooth Nhét Tai Kiểu Dáng Độc Đáo, Nhỏ Gọn - Âm Thanh Mềm Mượt, Thoải Mái, Không Làm Nhức Tai - Hàng Nhập Khẩu - TAI000F9B</t>
-        </is>
-      </c>
+      <c r="C352" t="inlineStr"/>
       <c r="D352" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16650,11 +16530,7 @@
       <c r="B353" t="n">
         <v>90082542</v>
       </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>Tai nghe bluetooth Lanith F9 Pro 5.0 - Tai nghe nhét tai kết nối không dây phiên bản quốc tế - Âm bass êm và sâu, chip AIC chống gây chói tai - Thiết kế thời thượng, hiện đại - Hàng nhập khẩu - TAI0F9PRO</t>
-        </is>
-      </c>
+      <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16696,11 +16572,7 @@
       <c r="B354" t="n">
         <v>97057251</v>
       </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth Remax T9 (Đen),HÀNG CHÍNH HÃNG</t>
-        </is>
-      </c>
+      <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16742,11 +16614,7 @@
       <c r="B355" t="n">
         <v>103085972</v>
       </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth HoCo E36 chính hãng, không dây có mic</t>
-        </is>
-      </c>
+      <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16788,11 +16656,7 @@
       <c r="B356" t="n">
         <v>143937259</v>
       </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth True Wireless Havit TW959 - Hàng chính hãng</t>
-        </is>
-      </c>
+      <c r="C356" t="inlineStr"/>
       <c r="D356" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16834,11 +16698,7 @@
       <c r="B357" t="n">
         <v>148733004</v>
       </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth V5.0 Hoco E57 chất liệu cao cấp thời gian nghe gọi lâu ( 2 màu) - Hàng chính hãng</t>
-        </is>
-      </c>
+      <c r="C357" t="inlineStr"/>
       <c r="D357" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16880,11 +16740,7 @@
       <c r="B358" t="n">
         <v>277443862</v>
       </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>Tai Nghe Nhét Tai Bluetooth Chống Nước Sony WI-C100 - hàng chính hãng</t>
-        </is>
-      </c>
+      <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16926,11 +16782,7 @@
       <c r="B359" t="n">
         <v>194860764</v>
       </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Nhét Tai Không Dây FIRO A20 - Tai Nghe Bluetooth ENC Giảm Tiếng Ồn Thông Minh - Tai Nghe FIRO A20 Bluetooth 5.3 - Công Nghệ Kháng Nước IPX5 - Tai Nghe Không Dây FIRO A20 - Phù Hợp Với Tất Cả Dòng Máy - Hàng Chính Hãng</t>
-        </is>
-      </c>
+      <c r="C359" t="inlineStr"/>
       <c r="D359" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -16972,11 +16824,7 @@
       <c r="B360" t="n">
         <v>206231163</v>
       </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>Tai nghe bluetooth nhét tai V5.3 chính hãng chống ồn cao cấp dùng cho iPhone Samsung OPPO VIVO HUAWEI XIAOMI tai nghe không dây True Wireless - Hàng Chính Hãng PKCB</t>
-        </is>
-      </c>
+      <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -17018,11 +16866,7 @@
       <c r="B361" t="n">
         <v>208227148</v>
       </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Lenovo LP40 Pro Bluetooth 5.1 có chất lượng âm thanh tốt và tích hợp micro-HÀNG CHÍNH HÃNG</t>
-        </is>
-      </c>
+      <c r="C361" t="inlineStr"/>
       <c r="D361" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -17064,11 +16908,7 @@
       <c r="B362" t="n">
         <v>209163201</v>
       </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Nhét Tai Không Dây FIRO Fi5 Pro2 - Pin Dock Sạc 300mAh - Bluetooth 5.3 - Tai Nghe FIRO Fi5 Pro2 Điều Khiển Cảm Ứng Thông Minh - Công Nghệ Kháng Nước IPX5 - Tai Nghe Không Dây FIRO Fi5 Pro2 - Phù Hợp Với Tất Cả Dòng Máy - Hàng Chính Hãng</t>
-        </is>
-      </c>
+      <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -17110,11 +16950,7 @@
       <c r="B363" t="n">
         <v>215891406</v>
       </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth cao cấp OLAPLE êm tai, âm thanh sống động từng chi tiết - Hàng nhập khẩu</t>
-        </is>
-      </c>
+      <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -17156,11 +16992,7 @@
       <c r="B364" t="n">
         <v>248492611</v>
       </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Không Dây Nhét Tai Chống Ồn Cao Cấp V5.0 Chính Hãng Dùng Cho Iphone Samsung OPPO VIVO HUAWEI XIAOMI, Tai Nghe Không Dây - Hàng Chính Hãng VINBUY</t>
-        </is>
-      </c>
+      <c r="C364" t="inlineStr"/>
       <c r="D364" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -17202,11 +17034,7 @@
       <c r="B365" t="n">
         <v>262059424</v>
       </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>Tai nghe chụp tai Bluetooth Sony WH-CH520 - Hàng chính hãng</t>
-        </is>
-      </c>
+      <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr">
         <is>
           <t>Tai nghe</t>
@@ -17246,34 +17074,30 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>270105668</v>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>Núm Tai Nghe Samsung Buds2 Pro- R510. Hàng New - Hàng Chính Hãng Có Màng Lọc. Sẵn 2 Size</t>
-        </is>
-      </c>
+        <v>197708868</v>
+      </c>
+      <c r="C366" t="inlineStr"/>
       <c r="D366" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E366" t="n">
-        <v>15000</v>
+        <v>329000</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Tai_nghe/270105668_1089454925379448411.jpg</t>
+          <t>Tai_nghe/197708868_2774105875364329132.jpg</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f9/dc/6d/b623d3cba23dfe85f663c0840970b6b4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c2/7e/08/31582e60085e596c2e7205c725ef4588.jpg</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>https://tiki.vn/num-tai-nghe-samsung-buds2-pro-r510-hang-new-hang-chinh-hang-co-mang-loc-san-2-size-p270105668.html?spid=270105674</t>
+          <t>https://tiki.vn/tai-nghe-khong-day-baseus-bowie-wm02-true-wireless-earphones-bluetooth-v5-3-25h-su-dung-kich-thuoc-nho-gon-thoi-trang-app-control-hang-chinh-hang-p197708868.html?spid=271628708</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -17292,34 +17116,30 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>197708868</v>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>Tai Nghe Không Dây Baseus Bowie WM02 True Wireless Earphones (Bluetooth V5.3, 25h sử dụng, Kích thước nhỏ gọn, Thời Trang, APP Control)  Hàng Chính hãng</t>
-        </is>
-      </c>
+        <v>25452059</v>
+      </c>
+      <c r="C367" t="inlineStr"/>
       <c r="D367" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E367" t="n">
-        <v>329000</v>
+        <v>799480</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Tai_nghe/197708868_2774105875364329132.jpg</t>
+          <t>Tai_nghe/25452059_7090097136561420021.jpg</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c2/7e/08/31582e60085e596c2e7205c725ef4588.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/81/30/4d/cabb5aa066c806c71640d66bfc673e42.jpg</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-khong-day-baseus-bowie-wm02-true-wireless-earphones-bluetooth-v5-3-25h-su-dung-kich-thuoc-nho-gon-thoi-trang-app-control-hang-chinh-hang-p197708868.html?spid=271628708</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-ifrogz-sound-hub-tone-hang-chinh-hang-p25452059.html?spid=25929178</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -17338,34 +17158,30 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>25452059</v>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Nhét Tai iFrogz Sound Hub Tone</t>
-        </is>
-      </c>
+        <v>72928043</v>
+      </c>
+      <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E368" t="n">
-        <v>799480</v>
+        <v>118000</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Tai_nghe/25452059_7090097136561420021.jpg</t>
+          <t>Tai_nghe/72928043_7845121026712345355.jpg</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/81/30/4d/cabb5aa066c806c71640d66bfc673e42.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/25/52/08/497ae30ca6cfbb50e1e832e24cf23aee.jpg</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-ifrogz-sound-hub-tone-hang-chinh-hang-p25452059.html?spid=25929178</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-amoi-f9-kem-cu-sac-1a-va-cap-sac-cho-dock-sac-3500mah-hang-chinh-hang-p72928043.html?spid=72928044</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -17384,34 +17200,30 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>72928043</v>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Amoi F9 kèm Củ Sạc 1A và Cáp Sạc cho Dock Sạc 3500mAh- Hàng Chính Hãng</t>
-        </is>
-      </c>
+        <v>75551911</v>
+      </c>
+      <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E369" t="n">
-        <v>118000</v>
+        <v>79000</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Tai_nghe/72928043_7845121026712345355.jpg</t>
+          <t>Tai_nghe/75551911_5628991573294983298.JPG</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/25/52/08/497ae30ca6cfbb50e1e832e24cf23aee.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5e/32/87/5ff9e8c1bdd84e5d375fa54dbea4f747.JPG</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-amoi-f9-kem-cu-sac-1a-va-cap-sac-cho-dock-sac-3500mah-hang-chinh-hang-p72928043.html?spid=72928044</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-f9-v5-1-tai-nghe-khong-day-cam-ung-thong-minh-man-hinh-hien-thi-pin-sac-net-hang-nhap-khau-p75551911.html?spid=199691225</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -17430,34 +17242,30 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>75551911</v>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>Tai nghe bluetooth F9 V5.1, tai nghe không dây cảm ứng thông minh, màn hình hiển thị pin sắc nét- Hàng nhập khẩu</t>
-        </is>
-      </c>
+        <v>272359341</v>
+      </c>
+      <c r="C370" t="inlineStr"/>
       <c r="D370" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E370" t="n">
-        <v>79000</v>
+        <v>561254</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Tai_nghe/75551911_5628991573294983298.JPG</t>
+          <t>Tai_nghe/272359341_-8444888728451178582.jpg</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5e/32/87/5ff9e8c1bdd84e5d375fa54dbea4f747.JPG</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c3/e4/e4/10524344c6979432168d9d57013ecb70.jpg</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-f9-v5-1-tai-nghe-khong-day-cam-ung-thong-minh-man-hinh-hien-thi-pin-sac-net-hang-nhap-khau-p75551911.html?spid=199691225</t>
+          <t>https://tiki.vn/headphone-tai-nghe-bluetooth-chup-tai-khong-day-chong-on-chu-dong-anc-rockspace-o3-co-mic-nghe-nhac-15h-hang-chinh-hang-p272359341.html?spid=272359345</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -17476,34 +17284,30 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>272359341</v>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>Headphone Tai nghe bluetooth chụp tai không dây chống ồn chủ động ANC ROCKSPACE O3 có mic nghe nhạc 15h hàng chính hãng</t>
-        </is>
-      </c>
+        <v>272402620</v>
+      </c>
+      <c r="C371" t="inlineStr"/>
       <c r="D371" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E371" t="n">
-        <v>561254</v>
+        <v>505000</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Tai_nghe/272359341_-8444888728451178582.jpg</t>
+          <t>Tai_nghe/272402620_-83366956360049023.jpg</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c3/e4/e4/10524344c6979432168d9d57013ecb70.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c0/87/54/741cf7b7d36a5a4a6ba4dfc047a2bcd5.jpg</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>https://tiki.vn/headphone-tai-nghe-bluetooth-chup-tai-khong-day-chong-on-chu-dong-anc-rockspace-o3-co-mic-nghe-nhac-15h-hang-chinh-hang-p272359341.html?spid=272359345</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-anker-soundcore-r50i-a3949-hang-chinh-hang-p272402620.html?spid=272402622</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -17522,34 +17326,30 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>272402620</v>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth True Wireless Anker Soundcore R50i A3949 | Hàng Chính Hãng</t>
-        </is>
-      </c>
+        <v>273095636</v>
+      </c>
+      <c r="C372" t="inlineStr"/>
       <c r="D372" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E372" t="n">
-        <v>505000</v>
+        <v>1460000</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Tai_nghe/272402620_-83366956360049023.jpg</t>
+          <t>Tai_nghe/273095636_-6403006603727708906.png</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c0/87/54/741cf7b7d36a5a4a6ba4dfc047a2bcd5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fa/69/11/5194d789a33735630c2f0f3b3c7ab4a3.png</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-anker-soundcore-r50i-a3949-hang-chinh-hang-p272402620.html?spid=272402622</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-truewireless-jbl-wave-beam-hang-chinh-hang-p273095636.html?spid=273095641</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -17568,34 +17368,30 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>273095636</v>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth Truewireless JBL Wave Beam - Hàng Chính Hãng</t>
-        </is>
-      </c>
+        <v>273150134</v>
+      </c>
+      <c r="C373" t="inlineStr"/>
       <c r="D373" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E373" t="n">
-        <v>1460000</v>
+        <v>5160000</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Tai_nghe/273095636_-6403006603727708906.png</t>
+          <t>Tai_nghe/273150134_-8518420061642527969.jpg</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fa/69/11/5194d789a33735630c2f0f3b3c7ab4a3.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f4/e8/06/fee9f50df8614f204710c23f4b3e4c10.jpg</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-truewireless-jbl-wave-beam-hang-chinh-hang-p273095636.html?spid=273095641</t>
+          <t>https://tiki.vn/apple-airpods-pro-2-usb-c-mtjv3zp-a-p273150134.html?spid=273150135</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -17614,34 +17410,30 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>273150134</v>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth Apple AirPods Pro 2 USB-C - MTJV3ZP/A</t>
-        </is>
-      </c>
+        <v>273457735</v>
+      </c>
+      <c r="C374" t="inlineStr"/>
       <c r="D374" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E374" t="n">
-        <v>5160000</v>
+        <v>267900</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Tai_nghe/273150134_-8518420061642527969.jpg</t>
+          <t>Tai_nghe/273457735_3230843552093963701.jpg</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f4/e8/06/fee9f50df8614f204710c23f4b3e4c10.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3c/a0/03/f69146084d6b7a1be36b64a224d2a351.jpg</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-airpods-pro-2-usb-c-mtjv3zp-a-p273150134.html?spid=273150135</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-lenovo-xt80-the-thao-chong-on-chu-dong-anc-am-thanh-noi-hang-chinh-hang-p273457735.html?spid=273457736</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -17660,34 +17452,30 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>273457735</v>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Lenovo XT80 Thể Thao , Chống Ồn Chủ Động ANC , Âm Thanh Nổi - Hàng Chính Hãng</t>
-        </is>
-      </c>
+        <v>273472564</v>
+      </c>
+      <c r="C375" t="inlineStr"/>
       <c r="D375" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E375" t="n">
-        <v>267900</v>
+        <v>169000</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Tai_nghe/273457735_3230843552093963701.jpg</t>
+          <t>Tai_nghe/273472564_-8391592007587278200.jpg</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3c/a0/03/f69146084d6b7a1be36b64a224d2a351.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2a/ab/10/214f18b264d4b6e83c9f706635592393.jpg</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-lenovo-xt80-the-thao-chong-on-chu-dong-anc-am-thanh-noi-hang-chinh-hang-p273457735.html?spid=273457736</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-ribi-g60-hang-chinh-hang-p273472564.html?spid=273501972</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -17706,34 +17494,30 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>273472564</v>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth RiBi G60 - Âm thanh cực hay - Pin trâu đến 8h - Sạc nhanh Type - C - Mẫu mã cực đẹp -  Hàng chính hãng</t>
-        </is>
-      </c>
+        <v>272030678</v>
+      </c>
+      <c r="C376" t="inlineStr"/>
       <c r="D376" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E376" t="n">
-        <v>169000</v>
+        <v>281060</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Tai_nghe/273472564_-8391592007587278200.jpg</t>
+          <t>Tai_nghe/272030678_7989047454580419190.jpg</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2a/ab/10/214f18b264d4b6e83c9f706635592393.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e2/88/1d/de9c2274ef6f780e6a9ad1869ee14f59.jpg</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-ribi-g60-hang-chinh-hang-p273472564.html?spid=273501972</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-cao-cap-hoco-eq2-5-3-pin-7h-am-thanh-song-dong-bass-cang-hang-chinh-hang-p272030678.html?spid=272030682</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -17752,34 +17536,30 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>274371516</v>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>Đệm thay thế tai nghe Headphone Tai nghe bluetooth chụp tai Rockspace O2 - Hàng chính hãng</t>
-        </is>
-      </c>
+        <v>276117054</v>
+      </c>
+      <c r="C377" t="inlineStr"/>
       <c r="D377" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E377" t="n">
-        <v>48000</v>
+        <v>3060000</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Tai_nghe/274371516_6594525994314616914.jpg</t>
+          <t>Tai_nghe/276117054_5749646272907867967.jpg</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3a/57/6f/93874c0d8bcb311580627a147a99ab14.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/54/a5/26/0d683eea627278ac4fd5bda56fe99e3f.jpg</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dem-thay-the-tai-nghe-headphone-tai-nghe-bluetooth-chup-tai-rockspace-o2-mau-kaki-p274371516.html?spid=274371524</t>
+          <t>https://tiki.vn/airpods-4-p276117054.html?spid=276117486</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -17798,34 +17578,30 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>272030678</v>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Cao Cấp EQ2 5.3 Pin 7h Âm Thanh Sống Động Bass căng - Hàng Chính Hãng</t>
-        </is>
-      </c>
+        <v>276515204</v>
+      </c>
+      <c r="C378" t="inlineStr"/>
       <c r="D378" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E378" t="n">
-        <v>281060</v>
+        <v>99000</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Tai_nghe/272030678_7989047454580419190.jpg</t>
+          <t>Tai_nghe/276515204_-4153954620768803106.jpg</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e2/88/1d/de9c2274ef6f780e6a9ad1869ee14f59.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/05/37/96/242c7b9ec08c8ee7d2300c456143d815.jpg</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-cao-cap-hoco-eq2-5-3-pin-7h-am-thanh-song-dong-bass-cang-hang-chinh-hang-p272030678.html?spid=272030682</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-ribi-x55-sieu-mong-nam-gon-trong-tai-khong-gay-dau-tai-invisible-wearing-hang-chinh-hang-p276515204.html?spid=276515210</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -17844,34 +17620,30 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>276117054</v>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth Apple AirPods 4</t>
-        </is>
-      </c>
+        <v>276656535</v>
+      </c>
+      <c r="C379" t="inlineStr"/>
       <c r="D379" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E379" t="n">
-        <v>3060000</v>
+        <v>455000</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Tai_nghe/276117054_5749646272907867967.jpg</t>
+          <t>Tai_nghe/276656535_-1126999805771172952.jpg</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/54/a5/26/0d683eea627278ac4fd5bda56fe99e3f.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/74/53/b1/8619a892d641e67e53c9487b835937f3.jpg</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>https://tiki.vn/airpods-4-p276117054.html?spid=276117486</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-xiaomi-redmi-buds-6-active-hang-chinh-hang-p276656535.html?spid=276656550</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -17890,34 +17662,30 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>276515204</v>
-      </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>Tai nghe bluetooth nhét tai RiBi X55 - Siêu mỏng - Nằm gọn trong tai - Không gây đau tai - Invisible Wearing - Hàng chính hãng</t>
-        </is>
-      </c>
+        <v>276747182</v>
+      </c>
+      <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E380" t="n">
-        <v>99000</v>
+        <v>460000</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Tai_nghe/276515204_-4153954620768803106.jpg</t>
+          <t>Tai_nghe/276747182_7937826031621684463.jpg</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/05/37/96/242c7b9ec08c8ee7d2300c456143d815.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/44/17/b0/25aa41fa2a3654ace168551abec4ce2a.jpg</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-ribi-x55-sieu-mong-nam-gon-trong-tai-khong-gay-dau-tai-invisible-wearing-hang-chinh-hang-p276515204.html?spid=276515210</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-anker-soundcore-r50i-nc-a3959-hang-chinh-hang-p276747182.html?spid=277911989</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -17936,34 +17704,30 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>276656535</v>
-      </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Xiaomi Redmi Buds 6 Active - Hàng Chính Hãng</t>
-        </is>
-      </c>
+        <v>276976267</v>
+      </c>
+      <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E381" t="n">
-        <v>455000</v>
+        <v>1420000</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Tai_nghe/276656535_-1126999805771172952.jpg</t>
+          <t>Tai_nghe/276976267_9039733077927620343.png</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/74/53/b1/8619a892d641e67e53c9487b835937f3.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/77/52/1d/d538c3367e2784aafee5ff290fd63c35.png</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-xiaomi-redmi-buds-6-active-hang-chinh-hang-p276656535.html?spid=276656550</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-samsung-galaxy-buds-fe-r400n-hang-chinh-hang-p276976267.html?spid=276976269</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -17982,34 +17746,30 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>276747182</v>
-      </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth True Wireless Anker Soundcore R50i NC A3959 - Hàng chính hãng</t>
-        </is>
-      </c>
+        <v>277273194</v>
+      </c>
+      <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E382" t="n">
-        <v>460000</v>
+        <v>308602</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Tai_nghe/276747182_7937826031621684463.jpg</t>
+          <t>Tai_nghe/277273194_-350891460092170113.jpg</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/44/17/b0/25aa41fa2a3654ace168551abec4ce2a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/41/a7/05/6121396f2843c502bf3322f5189fe7af.jpg</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-anker-soundcore-r50i-nc-a3959-hang-chinh-hang-p276747182.html?spid=277911989</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-v5-4-hoco-ew72-chong-on-am-thanh-song-dong-man-hinh-led-hien-thi-cam-ung-da-chuc-nang-hang-chinh-hang-p277273194.html?spid=277273195</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -18028,34 +17788,30 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>276976267</v>
-      </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth True Wireless Samsung Galaxy Buds FE R400N - Hàng chính hãng</t>
-        </is>
-      </c>
+        <v>277346806</v>
+      </c>
+      <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1420000</v>
+        <v>549000</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Tai_nghe/276976267_9039733077927620343.png</t>
+          <t>Tai_nghe/277346806_2228083889650829576.jpg</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/77/52/1d/d538c3367e2784aafee5ff290fd63c35.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c7/f1/98/f5aa7c69b4dd837ce51cd5ce6ab0cd58.jpg</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-samsung-galaxy-buds-fe-r400n-hang-chinh-hang-p276976267.html?spid=276976269</t>
+          <t>https://tiki.vn/tai-nghe-nhet-tai-bluetooth-chong-nuoc-sony-wi-c100-dsee-pin-25-gio-khong-the-tot-hon-p277346806.html?spid=277346807</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -18074,34 +17830,30 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>277273194</v>
-      </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth V5.4 Ho.co EW72 Chống ồn, Âm thanh sống động, màn hình LED hiển thị cảm ứng đa chức năng - Hàng chính hãng</t>
-        </is>
-      </c>
+        <v>277555163</v>
+      </c>
+      <c r="C384" t="inlineStr"/>
       <c r="D384" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E384" t="n">
-        <v>308602</v>
+        <v>470000</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Tai_nghe/277273194_-350891460092170113.jpg</t>
+          <t>Tai_nghe/277555163_1389017102010247412.jpg</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/41/a7/05/6121396f2843c502bf3322f5189fe7af.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2d/02/d3/ca3a8ead4e8de9c3e047004a5e478edb.jpg</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-v5-4-hoco-ew72-chong-on-am-thanh-song-dong-man-hinh-led-hien-thi-cam-ung-da-chuc-nang-hang-chinh-hang-p277273194.html?spid=277273195</t>
+          <t>https://tiki.vn/tai-nghe-khong-day-tws-qcy-ailybuds-lite-hang-chinh-hang-p277555163.html?spid=277555167</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -18120,34 +17872,30 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>277346806</v>
-      </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>Tai Nghe Nhét Tai Bluetooth Chống Nước Sony WI-C100 - hàng chính hãng</t>
-        </is>
-      </c>
+        <v>276295284</v>
+      </c>
+      <c r="C385" t="inlineStr"/>
       <c r="D385" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E385" t="n">
-        <v>549000</v>
+        <v>263200</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Tai_nghe/277346806_2228083889650829576.jpg</t>
+          <t>Tai_nghe/276295284_-5671195383608321877.jpg</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c7/f1/98/f5aa7c69b4dd837ce51cd5ce6ab0cd58.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a4/5c/d9/a6ee4ecd682e842c51481f68452cc52e.jpg</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-nhet-tai-bluetooth-chong-nuoc-sony-wi-c100-dsee-pin-25-gio-khong-the-tot-hon-p277346806.html?spid=277346807</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-xiaomi-redmi-buds-6-play-hang-chinh-hang-p276295284.html?spid=277506670</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -18166,34 +17914,30 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>277555163</v>
-      </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>Tai Nghe Không Dây TWS QCY Ailybuds Lite - Hàng Chính Hãng</t>
-        </is>
-      </c>
+        <v>57759987</v>
+      </c>
+      <c r="C386" t="inlineStr"/>
       <c r="D386" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E386" t="n">
-        <v>470000</v>
+        <v>92000</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Tai_nghe/277555163_1389017102010247412.jpg</t>
+          <t>Tai_nghe/57759987_-39886761255251464.png</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2d/02/d3/ca3a8ead4e8de9c3e047004a5e478edb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/27/8f/98/45f7ac91869e926918fa019712493e89.png</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-khong-day-tws-qcy-ailybuds-lite-hang-chinh-hang-p277555163.html?spid=277555167</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-neckband-hang-chinh-hang-p57759987.html?spid=278113967</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -18212,34 +17956,30 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>276295284</v>
-      </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Xiaomi Redmi Buds 6 Play - Hàng Chính Hãng</t>
-        </is>
-      </c>
+        <v>271995193</v>
+      </c>
+      <c r="C387" t="inlineStr"/>
       <c r="D387" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E387" t="n">
-        <v>263200</v>
+        <v>294220</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Tai_nghe/276295284_-5671195383608321877.jpg</t>
+          <t>Tai_nghe/271995193_-7619960979271064552.jpg</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a4/5c/d9/a6ee4ecd682e842c51481f68452cc52e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/83/e3/59/8648c100c98b926735d43f8aa66a153b.jpg</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-xiaomi-redmi-buds-6-play-hang-chinh-hang-p276295284.html?spid=277506670</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-khong-day-cao-cap-hoco-eq1-pin-7h-am-thanh-song-dong-bass-chac-cam-ung-co-mic-den-led-sang-trong-hang-chinh-hang-p271995193.html?spid=271995197</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -18258,34 +17998,30 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>57759987</v>
-      </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>Tai nghe bluetooth nhét tai Neckband -hàng chính hãng</t>
-        </is>
-      </c>
+        <v>270922218</v>
+      </c>
+      <c r="C388" t="inlineStr"/>
       <c r="D388" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E388" t="n">
-        <v>92000</v>
+        <v>1532600</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Tai_nghe/57759987_-39886761255251464.png</t>
+          <t>Tai_nghe/270922218_-6650914721951340579.jpg</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/27/8f/98/45f7ac91869e926918fa019712493e89.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ce/7b/bc/53c5288964145a24b2702690c1e23af4.jpg</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-neckband-hang-chinh-hang-p57759987.html?spid=278113967</t>
+          <t>https://tiki.vn/tai-nghe-chup-tai-bluetooth-havit-h655bt-hang-chinh-hang-p270922218.html?spid=270922222</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -18304,34 +18040,30 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>271995193</v>
-      </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Không Dây Cao Cấp EQ1 Pin 7H Âm Thanh Sống Động Bass Chắc Cảm Ứng, Có Mic Đèn Led Sang Trọng - Hàng Chính Hãng</t>
-        </is>
-      </c>
+        <v>89692612</v>
+      </c>
+      <c r="C389" t="inlineStr"/>
       <c r="D389" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E389" t="n">
-        <v>294220</v>
+        <v>88000</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Tai_nghe/271995193_-7619960979271064552.jpg</t>
+          <t>Tai_nghe/89692612_-3414548072875297740.png</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/83/e3/59/8648c100c98b926735d43f8aa66a153b.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/bd/47/340720ef390b359ba340bc80f7bb5dfb.png</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-khong-day-cao-cap-hoco-eq1-pin-7h-am-thanh-song-dong-bass-chac-cam-ung-co-mic-den-led-sang-trong-hang-chinh-hang-p271995193.html?spid=271995197</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-5-0-khong-day-bluetooth-chong-nuoc-tai-nghe-am-thanh-noi-tws-hang-chinh-hang-pkcb-p89692612.html?spid=278113799</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -18350,34 +18082,30 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>270922218</v>
-      </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>Tai nghe chụp tai Bluetooth Havit H655BT - Hàng chính hãng</t>
-        </is>
-      </c>
+        <v>105513634</v>
+      </c>
+      <c r="C390" t="inlineStr"/>
       <c r="D390" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E390" t="n">
-        <v>1532600</v>
+        <v>88000</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Tai_nghe/270922218_-6650914721951340579.jpg</t>
+          <t>Tai_nghe/105513634_-6060479007190834679.png</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ce/7b/bc/53c5288964145a24b2702690c1e23af4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bd/f2/4c/a84b5172d2e594938de0ef56ff83abd1.png</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-chup-tai-bluetooth-havit-h655bt-hang-chinh-hang-p270922218.html?spid=270922222</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-tai-nghe-cam-ung-khong-day-wireless-headset-hang-chinh-hang-pkcb-p105513634.html?spid=278114086</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -18396,34 +18124,30 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>89692612</v>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth 5.0 không dây Bluetooth chống nước Tai nghe âm thanh nổi TWS - Hàng Chính Hãng PKCB</t>
-        </is>
-      </c>
+        <v>113568856</v>
+      </c>
+      <c r="C391" t="inlineStr"/>
       <c r="D391" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E391" t="n">
-        <v>88000</v>
+        <v>560000</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Tai_nghe/89692612_-3414548072875297740.png</t>
+          <t>Tai_nghe/113568856_2837292448913857088.jpg</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/bd/47/340720ef390b359ba340bc80f7bb5dfb.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/cc/2d/db/7e2fbc1d0d405891e411d98716a8bdc5.jpg</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-5-0-khong-day-bluetooth-chong-nuoc-tai-nghe-am-thanh-noi-tws-hang-chinh-hang-pkcb-p89692612.html?spid=278113799</t>
+          <t>https://tiki.vn/tai-nghe-chup-tai-khong-day-remax-rb-660hb-hang-chinh-hang-p113568856.html?spid=113568857</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -18442,34 +18166,30 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>105513634</v>
-      </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Tai Nghe Cảm Ứng Không Dây Wireless Headset - Hàng Chính Hãng PKCB</t>
-        </is>
-      </c>
+        <v>118191706</v>
+      </c>
+      <c r="C392" t="inlineStr"/>
       <c r="D392" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E392" t="n">
-        <v>88000</v>
+        <v>79000</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Tai_nghe/105513634_-6060479007190834679.png</t>
+          <t>Tai_nghe/118191706_1754391395901474330.JPG</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bd/f2/4c/a84b5172d2e594938de0ef56ff83abd1.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/09/26/b0/0b7be4c5a0f70bf6bf9fd4b1590aca7f.JPG</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-tai-nghe-cam-ung-khong-day-wireless-headset-hang-chinh-hang-pkcb-p105513634.html?spid=278114086</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-f9-pro-thuong-hieu-pagini-phien-ban-cap-nhat-2021-thoi-gian-su-dung-len-toi-4h-tai-nghe-khong-day-mang-lai-su-tien-loi-cho-nguoi-su-dung-am-thanh-tram-am-p118191706.html?spid=197536474</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -18488,34 +18208,30 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>113568856</v>
-      </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>Tai nghe chụp tai không dây Remax RB-660HB - Hàng chính hãng</t>
-        </is>
-      </c>
+        <v>135284107</v>
+      </c>
+      <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E393" t="n">
-        <v>560000</v>
+        <v>404160</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Tai_nghe/113568856_2837292448913857088.jpg</t>
+          <t>Tai_nghe/135284107_2755285831031949350.jpg</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/cc/2d/db/7e2fbc1d0d405891e411d98716a8bdc5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/be/ab/99/89c893772221c397f8c2f0225c3e6de6.jpg</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-chup-tai-khong-day-remax-rb-660hb-hang-chinh-hang-p113568856.html?spid=113568857</t>
+          <t>https://tiki.vn/headphone-tai-nghe-chup-tai-bluetooth-rockspace-o2-ket-noi-khong-day-co-mic-nghe-nhac-lien-tuc-15h-hang-chinh-hang-p135284107.html?spid=135284115</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -18534,34 +18250,30 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>118191706</v>
-      </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>Tai nghe bluetooth F9 Pro thương hiệu PAGINI phiên bản cập nhật 2021 – Thời gian sử dụng lên tới 4h - Tai nghe không dây mang lại sự tiện lợi cho người sử dụng – Âm thanh trầm ấm - Hàng nhập khẩu</t>
-        </is>
-      </c>
+        <v>142127420</v>
+      </c>
+      <c r="C394" t="inlineStr"/>
       <c r="D394" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E394" t="n">
-        <v>79000</v>
+        <v>1512230</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Tai_nghe/118191706_1754391395901474330.JPG</t>
+          <t>Tai_nghe/142127420_-6838900751770311123.png</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/09/26/b0/0b7be4c5a0f70bf6bf9fd4b1590aca7f.JPG</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/dd/3d/5e/bad705906f922b15e8f6f8b8cd94b914.png</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-f9-pro-thuong-hieu-pagini-phien-ban-cap-nhat-2021-thoi-gian-su-dung-len-toi-4h-tai-nghe-khong-day-mang-lai-su-tien-loi-cho-nguoi-su-dung-am-thanh-tram-am-p118191706.html?spid=197536474</t>
+          <t>https://tiki.vn/tai-nghe-game-khong-day-bluetooth-va-lighspeed-logitech-g435-mic-ao-tich-hop-nhe-tuong-thich-pc-dien-thoai-ps4-ps5-dolby-atmo-hang-chinh-hang-p142127420.html?spid=200804210</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -18580,34 +18292,30 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>135284107</v>
-      </c>
-      <c r="C395" t="inlineStr">
-        <is>
-          <t>Headphone Tai Nghe Chụp Tai bluetooth Rockspace O2 kết nối không dây có mic nghe nhạc liên tục 15h - Hàng chính hãng bảo hành 12 tháng</t>
-        </is>
-      </c>
+        <v>174000599</v>
+      </c>
+      <c r="C395" t="inlineStr"/>
       <c r="D395" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E395" t="n">
-        <v>404160</v>
+        <v>293938</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Tai_nghe/135284107_2755285831031949350.jpg</t>
+          <t>Tai_nghe/174000599_4465854392382125251.png</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/be/ab/99/89c893772221c397f8c2f0225c3e6de6.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/33/58/61/9e498bb0826998730133fffa6fdfb187.png</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>https://tiki.vn/headphone-tai-nghe-chup-tai-bluetooth-rockspace-o2-ket-noi-khong-day-co-mic-nghe-nhac-lien-tuc-15h-hang-chinh-hang-p135284107.html?spid=135284115</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-havit-tw967-bt-5-1-thiet-ke-cong-thai-hoc-driver-10mm-nghe-nhac-den-5h-hang-chinh-hang-p174000599.html?spid=195961776</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -18626,34 +18334,30 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>142127420</v>
-      </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>Tai nghe game không dây Bluetooth và Lighspeed Logitech G435 – Mic ảo tích hợp, nhẹ, tương thích PC, Điện thoại, PS4, PS5 - Màu</t>
-        </is>
-      </c>
+        <v>271820472</v>
+      </c>
+      <c r="C396" t="inlineStr"/>
       <c r="D396" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1512230</v>
+        <v>495000</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Tai_nghe/142127420_-6838900751770311123.png</t>
+          <t>Tai_nghe/271820472_-4652634848370407440.jpg</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/dd/3d/5e/bad705906f922b15e8f6f8b8cd94b914.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0b/5f/e3/0fb0b37a6de208bb533d57bb4748da34.jpg</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-game-khong-day-bluetooth-va-lighspeed-logitech-g435-mic-ao-tich-hop-nhe-tuong-thich-pc-dien-thoai-ps4-ps5-dolby-atmo-hang-chinh-hang-p142127420.html?spid=200804210</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-anker-soundcore-r50i-a3949-hang-chinh-hang-p271820472.html?spid=271820474</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -18672,34 +18376,30 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>174000599</v>
-      </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth True Wireless Havit TW967 BT 5.1, Thiết Kế Công Thái Học, Driver 10mm, Nghe Nhạc Đến 5H - Hàng Chính Hãng</t>
-        </is>
-      </c>
+        <v>185409732</v>
+      </c>
+      <c r="C397" t="inlineStr"/>
       <c r="D397" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E397" t="n">
-        <v>293938</v>
+        <v>156000</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Tai_nghe/174000599_4465854392382125251.png</t>
+          <t>Tai_nghe/185409732_6831952730684126950.jpe</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/33/58/61/9e498bb0826998730133fffa6fdfb187.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/37/fd/f0/d6a4ab56c2c3d979b5932b1ef4d5cd49.jpeg</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-havit-tw967-bt-5-1-thiet-ke-cong-thai-hoc-driver-10mm-nghe-nhac-den-5h-hang-chinh-hang-p174000599.html?spid=195961776</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-lenovo-livepods-lp40-tws-hang-chinh-hang-p185409732.html?spid=185409733</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -18718,34 +18418,30 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>271820472</v>
-      </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth True Wireless Anker Soundcore R50i A3949 - Hàng chính hãng</t>
-        </is>
-      </c>
+        <v>197587166</v>
+      </c>
+      <c r="C398" t="inlineStr"/>
       <c r="D398" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E398" t="n">
-        <v>495000</v>
+        <v>669000</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Tai_nghe/271820472_-4652634848370407440.jpg</t>
+          <t>Tai_nghe/197587166_-8636858975129588848.jpg</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0b/5f/e3/0fb0b37a6de208bb533d57bb4748da34.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/51/cf/a7/923f9e1472b0f1b56c65ba5487016a9f.jpg</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-anker-soundcore-r50i-a3949-hang-chinh-hang-p271820472.html?spid=271820474</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-khong-day-firo-a15-tai-nghe-true-wireless-earbuds-firo-a15-bluetooth-v5-1-pin-dock-sac-380mah-thoi-gian-su-dung-5h-cam-ung-thong-minh-am-thanh-stereo-am-bass-cuc-chat-phu-hop-voi-tat-ca-dong-may-hang-chinh-hang-p197587166.html?spid=197587168</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -18764,34 +18460,30 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>185409732</v>
-      </c>
-      <c r="C399" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Lenovo Livepods LP40 TWS Hàng Chính Hãng</t>
-        </is>
-      </c>
+        <v>197665885</v>
+      </c>
+      <c r="C399" t="inlineStr"/>
       <c r="D399" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E399" t="n">
-        <v>156000</v>
+        <v>2960000</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Tai_nghe/185409732_6831952730684126950.jpe</t>
+          <t>Tai_nghe/197665885_-3267719887387344440.jpg</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/37/fd/f0/d6a4ab56c2c3d979b5932b1ef4d5cd49.jpeg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b5/13/fe/24bc74f069eabac01cc51582be6ca607.jpg</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-lenovo-livepods-lp40-tws-hang-chinh-hang-p185409732.html?spid=185409733</t>
+          <t>https://tiki.vn/apple-airpods-3-2022-sac-lightning-mpny3-p197665885.html?spid=197665886</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -18810,34 +18502,30 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>197587166</v>
-      </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth Không Dây FIRO A18 - Tai Nghe FIRO A18 Bluetooth V5.3 - Điều Khiển Cảm Ứng Thông Minh - Công Nghệ Kháng Nước IPX5 - Tai Nghe Bluetooth Giảm Tiếng Ồn FIRO A18 - Phù Hợp Với Tất Cả Dòng Máy - Hàng Chính Hãng</t>
-        </is>
-      </c>
+        <v>206254285</v>
+      </c>
+      <c r="C400" t="inlineStr"/>
       <c r="D400" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E400" t="n">
-        <v>669000</v>
+        <v>274480</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Tai_nghe/197587166_-8636858975129588848.jpg</t>
+          <t>Tai_nghe/206254285_-2830762758499271789.png</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/51/cf/a7/923f9e1472b0f1b56c65ba5487016a9f.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/14/67/c0/957d1dc449a345942c12466a96071f19.png</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-khong-day-firo-a15-tai-nghe-true-wireless-earbuds-firo-a15-bluetooth-v5-1-pin-dock-sac-380mah-thoi-gian-su-dung-5h-cam-ung-thong-minh-am-thanh-stereo-am-bass-cuc-chat-phu-hop-voi-tat-ca-dong-may-hang-chinh-hang-p197587166.html?spid=197587168</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-khong-day-true-wireless-earbuds-chong-on-anc-am-thanh-cuc-chat-dieu-khien-cam-ung-thiet-ke-dep-de-deo-de-dung-nghe-hay-nut-dem-cao-su-em-ai-sac-type-c-dung-cho-iphone-samsung-oppo-vivo-huawei-xiaomi-hang-chinh-hang-p206254285.html?spid=278114062</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -18856,34 +18544,30 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>197665885</v>
-      </c>
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth Apple AirPods 3 cổng Lightning - MPNY3</t>
-        </is>
-      </c>
+        <v>207552873</v>
+      </c>
+      <c r="C401" t="inlineStr"/>
       <c r="D401" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E401" t="n">
-        <v>2960000</v>
+        <v>329000</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Tai_nghe/197665885_-3267719887387344440.jpg</t>
+          <t>Tai_nghe/207552873_-5675806802542233678.jpg</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b5/13/fe/24bc74f069eabac01cc51582be6ca607.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/38/bb/77/05b5a802d424f3e22899260f363963a5.jpg</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-airpods-3-2022-sac-lightning-mpny3-p197665885.html?spid=197665886</t>
+          <t>https://tiki.vn/tai-nghe-khong-day-tws-havit-tw947-bluetooth-5-3-do-tre-cuc-thap-thoi-gian-nghe-32-gio-hang-chinh-hang-p207552873.html?spid=207552875</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -18902,34 +18586,30 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>206254285</v>
-      </c>
-      <c r="C402" t="inlineStr">
-        <is>
-          <t>Tai nghe Bluetooth nhét tai không dây True Wireless Earbuds chống ồn ANC, âm thanh cực chất , điều khiển cảm ứng, thiết kế đẹp, dễ đeo, dễ dùng, nghe hay, nút đệm cao su êm ái, sạc type C, dùng cho iPhone, điện thoại, máy tính bảng -Hàng Chính Hãng</t>
-        </is>
-      </c>
+        <v>209386109</v>
+      </c>
+      <c r="C402" t="inlineStr"/>
       <c r="D402" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E402" t="n">
-        <v>274480</v>
+        <v>365000</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Tai_nghe/206254285_-2830762758499271789.png</t>
+          <t>Tai_nghe/209386109_-3232814786421157931.jpg</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/14/67/c0/957d1dc449a345942c12466a96071f19.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/69/a5/4f/20dc048dafd9b39a81d571e0ab897910.jpg</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-khong-day-true-wireless-earbuds-chong-on-anc-am-thanh-cuc-chat-dieu-khien-cam-ung-thiet-ke-dep-de-deo-de-dung-nghe-hay-nut-dem-cao-su-em-ai-sac-type-c-dung-cho-iphone-samsung-oppo-vivo-huawei-xiaomi-hang-chinh-hang-p206254285.html?spid=278114062</t>
+          <t>https://tiki.vn/tai-nghe-true-wireless-firo-a7-chong-on-chu-dong-anc-tai-nghe-bluetooth-nhet-tai-khong-day-cong-nghe-khang-nuoc-ipx5-cam-ung-thong-minh-thoi-gian-nghe-nhac-18-gio-tuong-thich-voi-tat-ca-dong-may-hang-chinh-hang-p209386109.html?spid=274578942</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -18948,34 +18628,30 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>207552873</v>
-      </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>Tai Nghe Không Dây TWS HAVIT TW947 Bluetooth 5.3, Độ Trễ Cực Thấp, Thời Gian Nghe 32 Giờ - Hàng Chính Hãng</t>
-        </is>
-      </c>
+        <v>248761700</v>
+      </c>
+      <c r="C403" t="inlineStr"/>
       <c r="D403" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E403" t="n">
-        <v>329000</v>
+        <v>679680</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Tai_nghe/207552873_-5675806802542233678.jpg</t>
+          <t>Tai_nghe/248761700_-7028269750745470921.jpg</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/38/bb/77/05b5a802d424f3e22899260f363963a5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/67/d1/12/b0d36ab9ee644ba73c598d3a688ad24f.jpg</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-khong-day-tws-havit-tw947-bluetooth-5-3-do-tre-cuc-thap-thoi-gian-nghe-32-gio-hang-chinh-hang-p207552873.html?spid=207552875</t>
+          <t>https://tiki.vn/tai-nghe-khong-day-rock-retro-style-true-wireless-stereo-bluetooth-rockspace-nghe-nhac-lien-tuc-12h-hang-chinh-hang-p248761700.html?spid=275938498</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -18994,34 +18670,30 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>209386109</v>
-      </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth FIRO Fi5 Pro2 - Tai Nghe Không Dây FIRO Công Nghệ Bluetooth V5.3 - Kháng Nước IPX5 - Điều Khiển Cảm Ứng Thông Minh - Âm Bass Cực Hay - Chống Ồn Cực Tốt - Tai Nghe FIRO Fi5 Pro2 Tương Thích Với Tất Cả Dòng Máy - Hàng Chính Hãng</t>
-        </is>
-      </c>
+        <v>262784708</v>
+      </c>
+      <c r="C404" t="inlineStr"/>
       <c r="D404" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E404" t="n">
-        <v>365000</v>
+        <v>3083630</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Tai_nghe/209386109_-3232814786421157931.jpg</t>
+          <t>Tai_nghe/262784708_2658362289291082472.png</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/69/a5/4f/20dc048dafd9b39a81d571e0ab897910.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a3/ce/3b/15bbbd64978cda29e316823a4a154aa6.png</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-true-wireless-firo-a7-chong-on-chu-dong-anc-tai-nghe-bluetooth-nhet-tai-khong-day-cong-nghe-khang-nuoc-ipx5-cam-ung-thong-minh-thoi-gian-nghe-nhac-18-gio-tuong-thich-voi-tat-ca-dong-may-hang-chinh-hang-p209386109.html?spid=274578942</t>
+          <t>https://tiki.vn/hang-chinh-hang-tai-nghe-mu-bao-hiem-mo-to-phuot-scs-bluetooth-helmet-intercom-scs-s3-p262784708.html?spid=253094667</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -19040,34 +18712,30 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>248761700</v>
-      </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>Tai nghe bluetooth Rock Retro nghe nhạc liên tục 12h - Hàng chính hãng bảo hành 1 năm</t>
-        </is>
-      </c>
+        <v>191684818</v>
+      </c>
+      <c r="C405" t="inlineStr"/>
       <c r="D405" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E405" t="n">
-        <v>679680</v>
+        <v>89000</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Tai_nghe/248761700_-7028269750745470921.jpg</t>
+          <t>Tai_nghe/191684818_-4788642630113522791.jpg</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/67/d1/12/b0d36ab9ee644ba73c598d3a688ad24f.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/70/e3/7e/90a3362c9f851c25598b02a276176819.jpg</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-khong-day-rock-retro-style-true-wireless-stereo-bluetooth-rockspace-nghe-nhac-lien-tuc-12h-hang-chinh-hang-p248761700.html?spid=275938498</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-amoi-f9-5-0-cam-ung-van-tay-nang-cap-dock-sac-co-led-bao-pin-kep-hang-nhap-khau-p191684818.html?spid=210637817</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -19086,34 +18754,30 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>262784708</v>
-      </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>HÀNG CHÍNH HÃNG - Tai Nghe SCS S3 Dành Cho Mũ Bảo Hiểm Tích Hợp Intercom</t>
-        </is>
-      </c>
+        <v>37724209</v>
+      </c>
+      <c r="C406" t="inlineStr"/>
       <c r="D406" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E406" t="n">
-        <v>3083630</v>
+        <v>2440000</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Tai_nghe/262784708_2658362289291082472.png</t>
+          <t>Tai_nghe/37724209_3748272445213425246.jpg</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a3/ce/3b/15bbbd64978cda29e316823a4a154aa6.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/97/e5/9a/c0dc70ddcf1e264336ae788e834d9371.jpg</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>https://tiki.vn/hang-chinh-hang-tai-nghe-mu-bao-hiem-mo-to-phuot-scs-bluetooth-helmet-intercom-scs-s3-p262784708.html?spid=253094667</t>
+          <t>https://tiki.vn/tai-nghe-nhet-tai-bluetooth-co-micro-focal-sphear-wireless-hang-chinh-hang-p37724209.html?spid=37724217</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -19132,34 +18796,30 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>191684818</v>
-      </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>Tai Nghe Bluetooth True Wireless AMOI F9 Cảm Ứng Vân Tay, Nâng Cấp Dock Sạc có Led Báo Pin Kép - Hàng Nhập Khẩu</t>
-        </is>
-      </c>
+        <v>72950015</v>
+      </c>
+      <c r="C407" t="inlineStr"/>
       <c r="D407" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E407" t="n">
-        <v>89000</v>
+        <v>193030</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Tai_nghe/191684818_-4788642630113522791.jpg</t>
+          <t>Tai_nghe/72950015_4286050563977377915.jpg</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/70/e3/7e/90a3362c9f851c25598b02a276176819.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6f/aa/3b/f77b2175b377fdda921075f0a8989b05.jpg</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-amoi-f9-5-0-cam-ung-van-tay-nang-cap-dock-sac-co-led-bao-pin-kep-hang-nhap-khau-p191684818.html?spid=210637817</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-the-thao-cao-cap-olaple-hoco-es51-hang-nhap-khau-p72950015.html?spid=72950017</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -19178,34 +18838,30 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>37724209</v>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>Tai Nghe Nhét Tai Bluetooth Có Micro Focal Sphear Wireless - Màu</t>
-        </is>
-      </c>
+        <v>29238111</v>
+      </c>
+      <c r="C408" t="inlineStr"/>
       <c r="D408" t="inlineStr">
         <is>
           <t>Tai nghe</t>
         </is>
       </c>
       <c r="E408" t="n">
-        <v>2440000</v>
+        <v>262260</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Tai_nghe/37724209_3748272445213425246.jpg</t>
+          <t>Tai_nghe/29238111_-3053073173671124813.png</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/97/e5/9a/c0dc70ddcf1e264336ae788e834d9371.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/49/43/74/446a5b2bafe82da09f00e11ce103d3c9.png</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-nhet-tai-bluetooth-co-micro-focal-sphear-wireless-hang-chinh-hang-p37724209.html?spid=37724217</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-taotronics-tt-bh053-hang-chinh-hang-p29238111.html?spid=58864454</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -19220,38 +18876,38 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>HP100</t>
+          <t>SP01</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>72950015</v>
+        <v>274638659</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth Thể Thao Cao Cấp OLAPLE Hoco ES51 - Hàng nhập khẩu</t>
+          <t>Điện Thoại Xiaomi Redmi Note 13 Pro 5G 8GB/128GB Snapdragon 7s Gen 2 , Màn OLED 120Hz, Rom Tiếng việt - Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Tai nghe</t>
+          <t>Điện thoại</t>
         </is>
       </c>
       <c r="E409" t="n">
-        <v>193030</v>
+        <v>4699000</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Tai_nghe/72950015_4286050563977377915.jpg</t>
+          <t>Điện_thoại/274638659_3225330524156043396.jpg</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6f/aa/3b/f77b2175b377fdda921075f0a8989b05.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e2/46/d7/6c4179b0a95c74d323e44d2bb1c5bef5.jpg</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-the-thao-cao-cap-olaple-hoco-es51-hang-nhap-khau-p72950015.html?spid=72950017</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-13-pro-5g-8gb-128gb-snapdragon-7s-gen-2-man-oled-120hz-rom-tieng-viet-hang-nhap-khau-p274638659.html?spid=274638661</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -19266,38 +18922,38 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>HP101</t>
+          <t>SP02</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>29238111</v>
+        <v>277007015</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth True Wireless TaoTronics SoundLiberty 53 (TT-BH053) - Hàng Chính Hãng</t>
+          <t>Điện thoại Xiaomi Redmi Note 14 6GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Tai nghe</t>
+          <t>Điện thoại</t>
         </is>
       </c>
       <c r="E410" t="n">
-        <v>262260</v>
+        <v>3820000</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>Tai_nghe/29238111_-3053073173671124813.png</t>
+          <t>Điện_thoại/277007015_-3083964707546014259.png</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/49/43/74/446a5b2bafe82da09f00e11ce103d3c9.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0b/fb/e0/8b6b96db507c4d58a84c021a2f10bd34.png</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-taotronics-tt-bh053-hang-chinh-hang-p29238111.html?spid=58864454</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-6gb-128gb-hang-chinh-hang-p277007015.html?spid=277007021</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -19312,15 +18968,15 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SP01</t>
+          <t>SP03</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>274638659</v>
+        <v>276944892</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi Note 13 Pro 5G 8GB/128GB Snapdragon 7s Gen 2 , Màn OLED 120Hz, Rom Tiếng việt - Hàng nhập khẩu</t>
+          <t>Điện Thoại Samsung Galaxy A06 4GB/64GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -19329,21 +18985,21 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>4699000</v>
+        <v>2249000</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Điện_thoại/274638659_3225330524156043396.jpg</t>
+          <t>Điện_thoại/276944892_-3623620621584885021.jpg</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e2/46/d7/6c4179b0a95c74d323e44d2bb1c5bef5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e6/77/8d/695ccf826070451961cb58f5afa5da57.jpg</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-13-pro-5g-8gb-128gb-snapdragon-7s-gen-2-man-oled-120hz-rom-tieng-viet-hang-nhap-khau-p274638659.html?spid=274638661</t>
+          <t>https://tiki.vn/dien-thoai-samsung-a06-4gb-64gb-hang-chinh-hang-p276944892.html?spid=276944894</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -19358,15 +19014,15 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SP02</t>
+          <t>SP04</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>277007015</v>
+        <v>276639232</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Điện thoại Xiaomi Redmi Note 14 6GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A16 5G 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -19375,21 +19031,21 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>3820000</v>
+        <v>4909000</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Điện_thoại/277007015_-3083964707546014259.png</t>
+          <t>Điện_thoại/276639232_-1887214321304284960.jpg</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0b/fb/e0/8b6b96db507c4d58a84c021a2f10bd34.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ba/fa/f2/518ce45e3aaccf3523b32321b7710d9a.jpg</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-6gb-128gb-hang-chinh-hang-p277007015.html?spid=277007021</t>
+          <t>https://tiki.vn/dien-thoai-samsung-a16-5g-8gb-128gb-hang-chinh-hang-p276639232.html?spid=276639234</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -19404,15 +19060,15 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SP03</t>
+          <t>SP05</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>276944892</v>
+        <v>276515327</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A06 4GB/64GB - Hàng Chính Hãng</t>
+          <t>Điện thoại POCO C75 (6GB/128GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -19421,21 +19077,21 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>2249000</v>
+        <v>2290000</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Điện_thoại/276944892_-3623620621584885021.jpg</t>
+          <t>Điện_thoại/276515327_-2544560399187856366.png</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e6/77/8d/695ccf826070451961cb58f5afa5da57.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/86/e1/1afc6036aa30fd8d02a7e9d67714913b.png</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-a06-4gb-64gb-hang-chinh-hang-p276944892.html?spid=276944894</t>
+          <t>https://tiki.vn/dien-thoai-poco-c75-hang-chinh-hang-p276515327.html?spid=276521609</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -19450,15 +19106,15 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SP04</t>
+          <t>SP06</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>276639232</v>
+        <v>276281988</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A16 5G 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện thoại Samsung Galaxy A06 - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -19467,21 +19123,21 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>4909000</v>
+        <v>2589000</v>
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Điện_thoại/276639232_-1887214321304284960.jpg</t>
+          <t>Điện_thoại/276281988_4372521273119987847.jpg</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ba/fa/f2/518ce45e3aaccf3523b32321b7710d9a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/cd/09/f1/5fb538ee1448930cb5f64ae3db698cdf.jpg</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-a16-5g-8gb-128gb-hang-chinh-hang-p276639232.html?spid=276639234</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-hang-chinh-hang-p276281988.html?spid=276281996</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -19496,15 +19152,15 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SP05</t>
+          <t>SP07</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>276515327</v>
+        <v>276250848</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Điện thoại POCO C75 (6GB/128GB) - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A06 (4GB/128GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -19513,21 +19169,21 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>2290000</v>
+        <v>2588000</v>
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Điện_thoại/276515327_-2544560399187856366.png</t>
+          <t>Điện_thoại/276250848_-4512315810971093122.jpg</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/86/e1/1afc6036aa30fd8d02a7e9d67714913b.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4c/69/3a/e68e0c7ca78f9d3c1f289028f9f4d8b6.jpg</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-poco-c75-hang-chinh-hang-p276515327.html?spid=276521609</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-4gb-128gb-hang-chinh-hang-p276250848.html?spid=276251224</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -19542,15 +19198,15 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SP06</t>
+          <t>SP08</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>276281988</v>
+        <v>276166741</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A06 - Hàng chính hãng</t>
+          <t>Điện thoại Tecno SPARK GO 1 ( 4GB - 64GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -19559,21 +19215,21 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>2589000</v>
+        <v>1890000</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Điện_thoại/276281988_4372521273119987847.jpg</t>
+          <t>Điện_thoại/276166741_5780688114825588685.png</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/cd/09/f1/5fb538ee1448930cb5f64ae3db698cdf.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/11/b6/a8/9edc4408b426d432785ffe76eacafbb6.png</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-hang-chinh-hang-p276281988.html?spid=276281996</t>
+          <t>https://tiki.vn/tecno-spark-go-1-4gb-64gb-hang-chinh-hang-p276166741.html?spid=276166858</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -19588,15 +19244,15 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SP07</t>
+          <t>SP09</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>276250848</v>
+        <v>277014407</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A06 (4GB/128GB) - Hàng Chính Hãng</t>
+          <t>Điện thoại ZTE Blade A34 (4GB/64GB) Màn hình 6.6", Pin 5000mAh - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -19605,21 +19261,21 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>2588000</v>
+        <v>1699000</v>
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>Điện_thoại/276250848_-4512315810971093122.jpg</t>
+          <t>Điện_thoại/277014407_-2056168291688215302.jpg</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4c/69/3a/e68e0c7ca78f9d3c1f289028f9f4d8b6.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8f/3d/d4/265222415e48466431578e5d50528ab8.jpg</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-4gb-128gb-hang-chinh-hang-p276250848.html?spid=276251224</t>
+          <t>https://tiki.vn/dien-thoai-zte-blade-a34-4gb-64gb-man-hinh-6-6-pin-5000mah-hang-chinh-hang-p277014407.html?spid=277026884</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -19634,15 +19290,15 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SP08</t>
+          <t>SP10</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>276166741</v>
+        <v>276110349</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Điện thoại Tecno SPARK GO 1 ( 4GB - 64GB) - Hàng Chính Hãng</t>
+          <t>Apple iPhone 16 - Xanh Lưu Ly - 128GB</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -19651,21 +19307,21 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1890000</v>
+        <v>18990000</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>Điện_thoại/276166741_5780688114825588685.png</t>
+          <t>Điện_thoại/276110349_-3958063674310120593.jpg</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/11/b6/a8/9edc4408b426d432785ffe76eacafbb6.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/08/c4/e4/7f1e1531606703edb5055af6f0578e24.jpg</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tecno-spark-go-1-4gb-64gb-hang-chinh-hang-p276166741.html?spid=276166858</t>
+          <t>https://tiki.vn/apple-iphone-16-p276110349.html?spid=276110355</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -19680,15 +19336,15 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SP09</t>
+          <t>SP11</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>277014407</v>
+        <v>276110023</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Điện thoại ZTE Blade A34 (4GB/64GB) Màn hình 6.6", Pin 5000mAh - Hàng chính hãng</t>
+          <t>Apple iPhone 16 Pro</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -19697,21 +19353,21 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>1699000</v>
+        <v>24650000</v>
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>Điện_thoại/277014407_-2056168291688215302.jpg</t>
+          <t>Điện_thoại/276110023_6680530745717721673.jpg</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8f/3d/d4/265222415e48466431578e5d50528ab8.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/30/f1/ec/bbde43f59e7724c4c474bb81f388f98e.jpg</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-zte-blade-a34-4gb-64gb-man-hinh-6-6-pin-5000mah-hang-chinh-hang-p277014407.html?spid=277026884</t>
+          <t>https://tiki.vn/apple-iphone-16-pro-p276110023.html?spid=276110025</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -19726,15 +19382,15 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SP10</t>
+          <t>SP12</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>276110349</v>
+        <v>276109904</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 - Xanh Lưu Ly - 128GB</t>
+          <t>Apple iPhone 16 Pro Max</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -19743,21 +19399,21 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18990000</v>
+        <v>30250000</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>Điện_thoại/276110349_-3958063674310120593.jpg</t>
+          <t>Điện_thoại/276109904_5484973740973936481.jpg</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/08/c4/e4/7f1e1531606703edb5055af6f0578e24.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/be/d9/31/f9a8136c56b3a63ae3ecd46a14d3edae.jpg</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-16-p276110349.html?spid=276110355</t>
+          <t>https://tiki.vn/apple-iphone-16-pro-max-p276109904.html?spid=276109950</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -19772,15 +19428,15 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SP11</t>
+          <t>SP13</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>276110023</v>
+        <v>275716541</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Pro</t>
+          <t>Điện thoại Realme C61 (4GB/128GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -19789,21 +19445,21 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24650000</v>
+        <v>2490000</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>Điện_thoại/276110023_6680530745717721673.jpg</t>
+          <t>Điện_thoại/275716541_-7535209091573923695.png</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/30/f1/ec/bbde43f59e7724c4c474bb81f388f98e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8a/24/b2/d6e6dc51c2c1b900768cb8a4ad4417e3.png</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-16-pro-p276110023.html?spid=276110025</t>
+          <t>https://tiki.vn/dien-thoai-realme-c61-4gb-128gb-hang-chinh-hang-p275716541.html?spid=275717178</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -19818,15 +19474,15 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SP12</t>
+          <t>SP14</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>276109904</v>
+        <v>273947792</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Pro Max</t>
+          <t>Điện thoại AI Samsung Galaxy S24 Ultra 12GB/512GB, Camera 200MP Zoom 100x, S Pen- Tím- Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -19835,21 +19491,21 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30250000</v>
+        <v>27988000</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>Điện_thoại/276109904_5484973740973936481.jpg</t>
+          <t>Điện_thoại/273947792_-8336705136108851035.png</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/be/d9/31/f9a8136c56b3a63ae3ecd46a14d3edae.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a3/29/b3/5889b2b81f52c5c75438c7d01edf19c7.png</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-16-pro-max-p276109904.html?spid=276109950</t>
+          <t>https://tiki.vn/dien-thoai-ai-samsung-galaxy-s24-ultra-camera-200mp-zoom-100x-s-pen-vang-hang-chinh-hang-p273947792.html?spid=273947995</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -19864,15 +19520,15 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SP13</t>
+          <t>SP15</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>275716541</v>
+        <v>271967379</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Điện thoại Realme C61 (4GB/128GB) - Hàng Chính Hãng</t>
+          <t>iPhone 15 Plus</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -19881,21 +19537,21 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>2490000</v>
+        <v>18790000</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>Điện_thoại/275716541_-7535209091573923695.png</t>
+          <t>Điện_thoại/271967379_-5942944688220167873.png</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8a/24/b2/d6e6dc51c2c1b900768cb8a4ad4417e3.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/6c/9e/a45bc5d76cec3c11c5f8cbcdf9e27929.png</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-realme-c61-4gb-128gb-hang-chinh-hang-p275716541.html?spid=275717178</t>
+          <t>https://tiki.vn/apple-iphone-15-plus-p271967379.html?spid=271967576</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -19910,15 +19566,15 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SP14</t>
+          <t>SP16</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>273947792</v>
+        <v>276062770</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Điện thoại AI Samsung Galaxy S24 Ultra 12GB/512GB, Camera 200MP Zoom 100x, S Pen- Tím- Hàng Chính Hãng</t>
+          <t>Điện Thoại Xiaomi Redmi 14C 4GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -19927,21 +19583,21 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27988000</v>
+        <v>2549000</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Điện_thoại/273947792_-8336705136108851035.png</t>
+          <t>Điện_thoại/276062770_-4945223102646920693.jpg</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a3/29/b3/5889b2b81f52c5c75438c7d01edf19c7.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bd/34/3f/8365843a7d8ee076c466438fe09fd60a.jpg</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-ai-samsung-galaxy-s24-ultra-camera-200mp-zoom-100x-s-pen-vang-hang-chinh-hang-p273947792.html?spid=273947995</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-14c-4gb-128gb-hang-chinh-hang-p276062770.html?spid=276062772</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -19956,15 +19612,15 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SP15</t>
+          <t>SP17</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>271967379</v>
+        <v>271966786</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>iPhone 15 Plus</t>
+          <t>iPhone 15</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -19973,21 +19629,21 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>18790000</v>
+        <v>15350000</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Điện_thoại/271967379_-5942944688220167873.png</t>
+          <t>Điện_thoại/271966786_-5012854201287983987.png</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/6c/9e/a45bc5d76cec3c11c5f8cbcdf9e27929.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/eb/49/51/51c9ad1675f2b88999ca0689cdf207d7.png</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-15-plus-p271967379.html?spid=271967576</t>
+          <t>https://tiki.vn/apple-iphone-15-p271966786.html?spid=271966796</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -20002,15 +19658,15 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SP16</t>
+          <t>SP18</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>276062770</v>
+        <v>276110276</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi 14C 4GB/128GB - Hàng Chính Hãng</t>
+          <t>Apple iPhone 16 Plus</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -20019,21 +19675,21 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>2549000</v>
+        <v>21990000</v>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Điện_thoại/276062770_-4945223102646920693.jpg</t>
+          <t>Điện_thoại/276110276_-7642886130629329643.jpg</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bd/34/3f/8365843a7d8ee076c466438fe09fd60a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/40/c6/1e/d269dcf382b2dcab177c84954deca104.jpg</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-14c-4gb-128gb-hang-chinh-hang-p276062770.html?spid=276062772</t>
+          <t>https://tiki.vn/apple-iphone-16-plus-p276110276.html?spid=276110278</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -20048,15 +19704,15 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SP17</t>
+          <t>SP19</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>271966786</v>
+        <v>277068413</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>iPhone 15</t>
+          <t>Điện thoại Samsung Galaxy S25 Ultra, Điện thoại AI, Tìm kiếm thông minh, Video camera đêm Nightography, S Pen đa nhiệm - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -20065,21 +19721,21 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>15350000</v>
+        <v>27888000</v>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Điện_thoại/271966786_-5012854201287983987.png</t>
+          <t>Điện_thoại/277068413_-6868437893227286014.jpg</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/eb/49/51/51c9ad1675f2b88999ca0689cdf207d7.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/4a/e4/51a2c2a0ea673bba98f35b163738c272.jpg</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-15-p271966786.html?spid=271966796</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s25-ultra-dien-thoai-ai-tim-kiem-thong-minh-video-camera-dem-nightography-s-pen-da-nhiem-hang-chinh-hang-p277068413.html?spid=277068431</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -20094,15 +19750,15 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SP18</t>
+          <t>SP20</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>276110276</v>
+        <v>277164932</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus</t>
+          <t>Ốp Lưng Samsung Galaxy S25 Trong Suốt - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -20111,21 +19767,21 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>21990000</v>
+        <v>590000</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Điện_thoại/276110276_-7642886130629329643.jpg</t>
+          <t>Điện_thoại/277164932_-6140898237503711553.png</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/40/c6/1e/d269dcf382b2dcab177c84954deca104.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bd/df/bf/e2f54e2a64684557e20728cc54c7b2c7.png</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-16-plus-p276110276.html?spid=276110278</t>
+          <t>https://tiki.vn/op-lung-samsung-galaxy-s25-clear-cover-hang-chinh-hang-p277164932.html?spid=277164933</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -20140,15 +19796,15 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SP19</t>
+          <t>SP21</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>277068413</v>
+        <v>270975124</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy S25 Ultra, Điện thoại AI, Tìm kiếm thông minh, Video camera đêm Nightography, S Pen đa nhiệm - Hàng Chính Hãng</t>
+          <t>Điện Thoại Oppo A58 6GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -20157,21 +19813,21 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>27888000</v>
+        <v>3890000</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Điện_thoại/277068413_-6868437893227286014.jpg</t>
+          <t>Điện_thoại/270975124_-309765323840032163.jpg</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/4a/e4/51a2c2a0ea673bba98f35b163738c272.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/91/e7/7e/24461c4d1f848b11eaa4ff444f1ec5f9.jpg</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s25-ultra-dien-thoai-ai-tim-kiem-thong-minh-video-camera-dem-nightography-s-pen-da-nhiem-hang-chinh-hang-p277068413.html?spid=277068431</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-hang-chinh-hang-p270975124.html?spid=270975155</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -20186,15 +19842,15 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>SP20</t>
+          <t>SP22</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>277164932</v>
+        <v>274639765</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Ốp Lưng Samsung Galaxy S25 Trong Suốt - Hàng chính hãng</t>
+          <t>Điện thoại OPPO A2M 5G 6GB/128GB , Dimensity 6020 , Màn 90Hz , Rom tiếng việt - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -20203,21 +19859,21 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>590000</v>
+        <v>3690000</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Điện_thoại/277164932_-6140898237503711553.png</t>
+          <t>Điện_thoại/274639765_3210691727438972339.jpg</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bd/df/bf/e2f54e2a64684557e20728cc54c7b2c7.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/63/bd/3f/fb7658b0316f4a930d29dbd22bbd22fa.jpg</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>https://tiki.vn/op-lung-samsung-galaxy-s25-clear-cover-hang-chinh-hang-p277164932.html?spid=277164933</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a2m-5g-6gb-128gb-dimensity-6020-man-90hz-rom-tieng-viet-hang-chinh-hang-p274639765.html?spid=274639776</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -20232,15 +19888,15 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SP21</t>
+          <t>SP23</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>270975124</v>
+        <v>275621214</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Điện Thoại Oppo A58 6GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Oppo Reno12 F 5G 8GB/256GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -20249,21 +19905,21 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>3890000</v>
+        <v>7189000</v>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Điện_thoại/270975124_-309765323840032163.jpg</t>
+          <t>Điện_thoại/275621214_8216499062423966283.jpg</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/91/e7/7e/24461c4d1f848b11eaa4ff444f1ec5f9.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/31/f4/e9/1d476864a7aae89ee1eb47851b274f3a.jpg</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-hang-chinh-hang-p270975124.html?spid=270975155</t>
+          <t>https://tiki.vn/dien-thoai-oppo-reno12-f-5g-8gb-256gb-hang-chinh-hang-p275621214.html?spid=275621216</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -20278,15 +19934,15 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SP22</t>
+          <t>SP24</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>274639765</v>
+        <v>278098703</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Điện thoại OPPO A2M 5G 6GB/128GB , Dimensity 6020 , Màn 90Hz , Rom tiếng việt - Hàng chính hãng</t>
+          <t>Điện thoại POCO C75 (8GB/256GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -20295,21 +19951,21 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>3690000</v>
+        <v>2790000</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Điện_thoại/274639765_3210691727438972339.jpg</t>
+          <t>Điện_thoại/278098703_2095942361632154034.png</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/63/bd/3f/fb7658b0316f4a930d29dbd22bbd22fa.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/bb/19/92488d2e751c6a1c5cc83cdaebfbb047.png</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a2m-5g-6gb-128gb-dimensity-6020-man-90hz-rom-tieng-viet-hang-chinh-hang-p274639765.html?spid=274639776</t>
+          <t>https://tiki.vn/dien-thoai-poco-c75-8gb-256gb-hang-chinh-hang-dk-p278098703.html?spid=278098705</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -20324,15 +19980,15 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SP23</t>
+          <t>SP25</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>275621214</v>
+        <v>278000720</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Điện Thoại Oppo Reno12 F 5G 8GB/256GB - Hàng Chính Hãng</t>
+          <t>Điện thoại HONOR X5b Plus 4GB/128GB - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -20341,21 +19997,21 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>7189000</v>
+        <v>1950000</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Điện_thoại/275621214_8216499062423966283.jpg</t>
+          <t>Điện_thoại/278000720_-2224713159010548791.jpg</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/31/f4/e9/1d476864a7aae89ee1eb47851b274f3a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a4/06/5a/d2b6b8308c9c3969477a3b1166b94189.jpg</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-reno12-f-5g-8gb-256gb-hang-chinh-hang-p275621214.html?spid=275621216</t>
+          <t>https://tiki.vn/dien-thoai-honor-x5b-plus-4gb-128gb-hang-chinh-hang-p278000720.html?spid=278000724</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -20370,15 +20026,15 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SP24</t>
+          <t>SP26</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>278098703</v>
+        <v>277930460</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Điện thoại POCO C75 (8GB/256GB) - Hàng Chính Hãng</t>
+          <t>Điện thoại Vivo Y19s (4GB/128GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -20387,21 +20043,21 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2790000</v>
+        <v>3090000</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Điện_thoại/278098703_2095942361632154034.png</t>
+          <t>Điện_thoại/277930460_-6338273362158553919.jpg</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/bb/19/92488d2e751c6a1c5cc83cdaebfbb047.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/45/0f/6e/9c8c5e75c511a4a877a3ec9da27f389e.jpg</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-poco-c75-8gb-256gb-hang-chinh-hang-dk-p278098703.html?spid=278098705</t>
+          <t>https://tiki.vn/dien-thoai-vivo-y19s-4gb-128gb-hang-chinh-hang-p277930460.html?spid=277930462</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -20416,15 +20072,15 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>SP25</t>
+          <t>SP27</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>278000720</v>
+        <v>277930407</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Điện thoại HONOR X5b Plus 4GB/128GB - Hàng chính hãng</t>
+          <t>Điện thoại Tecno Spark GO 1 (3GB/64GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -20433,21 +20089,21 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>1950000</v>
+        <v>1690000</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>Điện_thoại/278000720_-2224713159010548791.jpg</t>
+          <t>Điện_thoại/277930407_2543557764007806590.png</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a4/06/5a/d2b6b8308c9c3969477a3b1166b94189.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3e/c0/33/8b84b5235168b3659a9220325840d2b8.png</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-honor-x5b-plus-4gb-128gb-hang-chinh-hang-p278000720.html?spid=278000724</t>
+          <t>https://tiki.vn/dien-thoai-tecno-spark-go-1-3gb-64gb-hang-chinh-hang-p277930407.html?spid=277930411</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -20462,15 +20118,15 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SP26</t>
+          <t>SP28</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>277930460</v>
+        <v>277811118</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Điện thoại Vivo Y19s (4GB/128GB) - Hàng Chính Hãng</t>
+          <t>Điện Thoại Xiaomi Redmi Note 14 5G 8GB/256GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -20479,21 +20135,21 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3090000</v>
+        <v>6239000</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Điện_thoại/277930460_-6338273362158553919.jpg</t>
+          <t>Điện_thoại/277811118_-6314576363397787676.jpg</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/45/0f/6e/9c8c5e75c511a4a877a3ec9da27f389e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e8/04/c7/1cb4903ad84f0219e59b3f91ac7c6849.jpg</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-vivo-y19s-4gb-128gb-hang-chinh-hang-p277930460.html?spid=277930462</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-5g-8gb-256gb-hang-chinh-hang-p277811118.html?spid=277811124</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -20508,15 +20164,15 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SP27</t>
+          <t>SP29</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>277930407</v>
+        <v>277777809</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Điện thoại Tecno Spark GO 1 (3GB/64GB) - Hàng Chính Hãng</t>
+          <t>Điện thoại Samsung Galaxy A26 5G (8/128GB), Mặt lưng kính, AI-Circle to Search, Camera HDR chụp đêm sáng rõ - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -20525,21 +20181,21 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>1690000</v>
+        <v>5688000</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Điện_thoại/277930407_2543557764007806590.png</t>
+          <t>Điện_thoại/277777809_6292688563876651964.jpg</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3e/c0/33/8b84b5235168b3659a9220325840d2b8.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/11/c0/90/7ed78d65848ac95cac6cf6c03b6edcd0.jpg</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-tecno-spark-go-1-3gb-64gb-hang-chinh-hang-p277930407.html?spid=277930411</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a26-5g-8-128gb-mat-lung-kinh-ai-circle-to-search-camera-hdr-chup-dem-sang-ro-hang-chinh-hang-p277777809.html?spid=277777811</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -20554,15 +20210,15 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SP28</t>
+          <t>SP30</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>277811118</v>
+        <v>277737595</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi Note 14 5G 8GB/256GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A06 5G 4GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -20571,21 +20227,21 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>6239000</v>
+        <v>2709000</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Điện_thoại/277811118_-6314576363397787676.jpg</t>
+          <t>Điện_thoại/277737595_-1516870157022234043.jpg</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e8/04/c7/1cb4903ad84f0219e59b3f91ac7c6849.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f4/96/f1/ab24f9ef9a2fc5b61cb282e0564272e2.jpg</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-5g-8gb-256gb-hang-chinh-hang-p277811118.html?spid=277811124</t>
+          <t>https://tiki.vn/dien-thoai-samsung-a06-5g-4gb-128gb-hang-chinh-hang-p277737595.html?spid=277737597</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -20600,15 +20256,15 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SP29</t>
+          <t>SP31</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>277777809</v>
+        <v>277574339</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A26 5G (8/128GB), Mặt lưng kính, AI-Circle to Search, Camera HDR chụp đêm sáng rõ - Hàng chính hãng</t>
+          <t>Củ Sạc Samsung Không Kèm Cáp 25W - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -20617,21 +20273,21 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>5688000</v>
+        <v>160000</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>Điện_thoại/277777809_6292688563876651964.jpg</t>
+          <t>Điện_thoại/277574339_4168450081129120799.png</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/11/c0/90/7ed78d65848ac95cac6cf6c03b6edcd0.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/28/e4/7f/d1f6c5467529914727d0d213b507a0c6.png</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a26-5g-8-128gb-mat-lung-kinh-ai-circle-to-search-camera-hdr-chup-dem-sang-ro-hang-chinh-hang-p277777809.html?spid=277777811</t>
+          <t>https://tiki.vn/cu-sac-samsung-khong-kem-cap-25w-hang-chinh-hang-p277574339.html?spid=277574341</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -20646,15 +20302,15 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>SP30</t>
+          <t>SP32</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>277737595</v>
+        <v>277512620</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A06 5G 4GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A36 5G 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -20663,21 +20319,21 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>2709000</v>
+        <v>6785000</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Điện_thoại/277737595_-1516870157022234043.jpg</t>
+          <t>Điện_thoại/277512620_-3455081119234036915.jpg</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f4/96/f1/ab24f9ef9a2fc5b61cb282e0564272e2.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1d/33/6b/a090d6f8da2d6a4b0e2fb94b37169ff4.jpg</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-a06-5g-4gb-128gb-hang-chinh-hang-p277737595.html?spid=277737597</t>
+          <t>https://tiki.vn/dien-thoai-samsung-a36-5g-8gb-128gb-hang-chinh-hang-p277512620.html?spid=277512626</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -20692,15 +20348,15 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>SP31</t>
+          <t>SP33</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>277574339</v>
+        <v>277512611</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Củ Sạc Samsung Không Kèm Cáp 25W - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A56 5G 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -20709,21 +20365,21 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>160000</v>
+        <v>8329000</v>
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>Điện_thoại/277574339_4168450081129120799.png</t>
+          <t>Điện_thoại/277512611_6050057470735137919.jpg</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/28/e4/7f/d1f6c5467529914727d0d213b507a0c6.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5c/a1/f4/62101cca7d04b88a1d3ff68c4182451e.jpg</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>https://tiki.vn/cu-sac-samsung-khong-kem-cap-25w-hang-chinh-hang-p277574339.html?spid=277574341</t>
+          <t>https://tiki.vn/dien-thoai-samsung-a56-5g-8gb-128gb-hang-chinh-hang-p277512611.html?spid=277512619</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -20738,15 +20394,15 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>SP32</t>
+          <t>SP34</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>277512620</v>
+        <v>277466537</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A36 5G 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A36 5G - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -20755,21 +20411,21 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>6785000</v>
+        <v>6288000</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Điện_thoại/277512620_-3455081119234036915.jpg</t>
+          <t>Điện_thoại/277466537_-833065400853307519.jpg</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1d/33/6b/a090d6f8da2d6a4b0e2fb94b37169ff4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c4/b3/ca/ffd538cdf6793fb4262a805d07751dde.jpg</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-a36-5g-8gb-128gb-hang-chinh-hang-p277512620.html?spid=277512626</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a36-5g-hang-chinh-hang-p277466537.html?spid=277466543</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -20784,15 +20440,15 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>SP33</t>
+          <t>SP35</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>277512611</v>
+        <v>277465334</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A56 5G 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A56 5G - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -20801,21 +20457,21 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>8329000</v>
+        <v>9810000</v>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Điện_thoại/277512611_6050057470735137919.jpg</t>
+          <t>Điện_thoại/277465334_2245915190680208683.jpg</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5c/a1/f4/62101cca7d04b88a1d3ff68c4182451e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/87/75/32/87ff301dd7ffd7517e0f5f254ee7fa2c.jpg</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-a56-5g-8gb-128gb-hang-chinh-hang-p277512611.html?spid=277512619</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a56-5g-hang-chinh-hang-p277465334.html?spid=277465338</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -20830,15 +20486,15 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>SP34</t>
+          <t>SP36</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>277466537</v>
+        <v>277360579</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A36 5G - Hàng Chính Hãng</t>
+          <t>Điện Thoại Xiaomi Redmi 13 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -20847,21 +20503,21 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>6288000</v>
+        <v>3249000</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Điện_thoại/277466537_-833065400853307519.jpg</t>
+          <t>Điện_thoại/277360579_2995085421986651456.jpg</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c4/b3/ca/ffd538cdf6793fb4262a805d07751dde.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/24/4a/2f/11d371022ec1e410bfbf7d8f95af10e7.jpg</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a36-5g-hang-chinh-hang-p277466537.html?spid=277466543</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-13-8gb-128gb-hang-chinh-hang-p277360579.html?spid=277360587</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -20876,15 +20532,15 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SP35</t>
+          <t>SP37</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>277465334</v>
+        <v>277311630</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A56 5G - Hàng Chính Hãng</t>
+          <t>Điện Thoại Xiaomi Redmi 14C 6GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -20893,21 +20549,21 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>9810000</v>
+        <v>2749000</v>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>Điện_thoại/277465334_2245915190680208683.jpg</t>
+          <t>Điện_thoại/277311630_1554041356025802944.jpg</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/87/75/32/87ff301dd7ffd7517e0f5f254ee7fa2c.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/11/d6/07/6373abc3dbeb9029bfcb43b26791ed17.jpg</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a56-5g-hang-chinh-hang-p277465334.html?spid=277465338</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-14c-6gb-128gb-hang-chinh-hang-p277311630.html?spid=277311634</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -20922,15 +20578,15 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SP36</t>
+          <t>SP38</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>277360579</v>
+        <v>277175913</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi 13 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Xiaomi Redmi Note 14 6GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -20939,21 +20595,21 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>3249000</v>
+        <v>4169000</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>Điện_thoại/277360579_2995085421986651456.jpg</t>
+          <t>Điện_thoại/277175913_2582971559822553376.jpg</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/24/4a/2f/11d371022ec1e410bfbf7d8f95af10e7.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/10/ab/85/a4099a15951fa60cdcbe24ac461725ae.jpg</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-13-8gb-128gb-hang-chinh-hang-p277360579.html?spid=277360587</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-6gb-128gb-hang-chinh-hang-p277175913.html?spid=277175917</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -20968,15 +20624,15 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SP37</t>
+          <t>SP39</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>277311630</v>
+        <v>274544634</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi 14C 6GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện thoại Redmi Note 12R 5G 6/128GB Snapdragon 4 Gen 2, Rom Quốc tế có sẳn Tiếng việt - Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -20985,21 +20641,21 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>2749000</v>
+        <v>3099000</v>
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>Điện_thoại/277311630_1554041356025802944.jpg</t>
+          <t>Điện_thoại/274544634_-7563919643112932462.jpg</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/11/d6/07/6373abc3dbeb9029bfcb43b26791ed17.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/b8/49/e2fc95922f52f6b546b3159e2e64454d.jpg</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-14c-6gb-128gb-hang-chinh-hang-p277311630.html?spid=277311634</t>
+          <t>https://tiki.vn/dien-thoai-redmi-note-12r-5g-6-128gb-snapdragon-4-gen-2-rom-quoc-te-co-san-tieng-viet-hang-nhap-khau-p274544634.html?spid=274544644</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -21014,15 +20670,15 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SP38</t>
+          <t>SP40</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>277175913</v>
+        <v>277164948</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi Note 14 6GB/128GB - Hàng Chính Hãng</t>
+          <t>Ốp Lưng Samsung Galaxy S25 Ultra Trong Suốt - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -21031,21 +20687,21 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>4169000</v>
+        <v>590000</v>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>Điện_thoại/277175913_2582971559822553376.jpg</t>
+          <t>Điện_thoại/277164948_-3426117122409300748.png</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/10/ab/85/a4099a15951fa60cdcbe24ac461725ae.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ff/dd/02/3a595bf99cc761d4c3805c9cc354a495.png</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-6gb-128gb-hang-chinh-hang-p277175913.html?spid=277175917</t>
+          <t>https://tiki.vn/op-lung-samsung-galaxy-s25-ultra-clear-cover-hang-chinh-hang-p277164948.html?spid=277164949</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -21060,15 +20716,15 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>SP39</t>
+          <t>SP41</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>274544634</v>
+        <v>230155305</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Điện thoại Redmi Note 12R 5G 6/128GB Snapdragon 4 Gen 2, Rom Quốc tế có sẳn Tiếng việt - Hàng nhập khẩu</t>
+          <t>Điện thoại Xiaomi Redmi Note 10 JE 5G 4GB/64GB - Màn 90HZ - Chống Nước IP68 - Hàng Nhập Khẩu - Bản quốc tế</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -21077,21 +20733,21 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>3099000</v>
+        <v>2429000</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Điện_thoại/274544634_-7563919643112932462.jpg</t>
+          <t>Điện_thoại/230155305_6564052180904688856.jpg</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/b8/49/e2fc95922f52f6b546b3159e2e64454d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a9/5b/c9/d83c2f42fd59ea8fbb1c10a4b9ccc787.jpg</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-redmi-note-12r-5g-6-128gb-snapdragon-4-gen-2-rom-quoc-te-co-san-tieng-viet-hang-nhap-khau-p274544634.html?spid=274544644</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-10-je-5g-4gb-64gb-man-90hz-chong-nuoc-ip68-hang-nhap-khau-ban-quoc-te-p230155305.html?spid=230155311</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -21106,15 +20762,15 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>SP40</t>
+          <t>SP42</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>277164948</v>
+        <v>197214029</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Ốp Lưng Samsung Galaxy S25 Ultra Trong Suốt - Hàng chính hãng</t>
+          <t>Apple iPhone 14</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -21123,21 +20779,21 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>590000</v>
+        <v>16990000</v>
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>Điện_thoại/277164948_-3426117122409300748.png</t>
+          <t>Điện_thoại/197214029_1361306994441302056.png</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ff/dd/02/3a595bf99cc761d4c3805c9cc354a495.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3b/95/ec/5b2c7ec0e09565f399a0a184bd71696b.png</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>https://tiki.vn/op-lung-samsung-galaxy-s25-ultra-clear-cover-hang-chinh-hang-p277164948.html?spid=277164949</t>
+          <t>https://tiki.vn/apple-iphone-14-p197214029.html?spid=197214033</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -21152,15 +20808,15 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SP41</t>
+          <t>SP43</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>230155305</v>
+        <v>277484785</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Điện thoại Xiaomi Redmi Note 10 JE 5G 4GB/64GB - Màn 90HZ - Chống Nước IP68 - Hàng Nhập Khẩu - Bản quốc tế</t>
+          <t>Điện thoại Samsung Galaxy S25 Ultra (12GB/256GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -21169,21 +20825,21 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>2429000</v>
+        <v>27699000</v>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Điện_thoại/230155305_6564052180904688856.jpg</t>
+          <t>Điện_thoại/277484785_-2357336864701693236.jpg</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a9/5b/c9/d83c2f42fd59ea8fbb1c10a4b9ccc787.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7e/76/8a/f7550914e96b1e367764a58eba124a11.jpg</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-10-je-5g-4gb-64gb-man-90hz-chong-nuoc-ip68-hang-nhap-khau-ban-quoc-te-p230155305.html?spid=230155311</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s25-ultra-12gb-256gb-hang-chinh-hang-p277484785.html?spid=277489458</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -21198,15 +20854,15 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SP42</t>
+          <t>SP44</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>197214029</v>
+        <v>277437876</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Apple iPhone 14</t>
+          <t>Điện Thoại Samsung Galaxy M15 5G 4GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -21215,21 +20871,21 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>16990000</v>
+        <v>3549000</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>Điện_thoại/197214029_1361306994441302056.png</t>
+          <t>Điện_thoại/277437876_-4573622082594541447.jpg</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3b/95/ec/5b2c7ec0e09565f399a0a184bd71696b.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/58/6b/8f/6cd6ccd3bb67b775b2163a50f7a6f43e.jpg</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-14-p197214029.html?spid=197214033</t>
+          <t>https://tiki.vn/dien-thoai-samsung-m15-5g-4gb-128gb-hang-chinh-hang-p277437876.html?spid=277437880</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -21244,15 +20900,15 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SP43</t>
+          <t>SP45</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>277484785</v>
+        <v>277409699</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy S25 Ultra (12GB/256GB) - Hàng chính hãng</t>
+          <t>Apple iPhone 16e</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -21261,21 +20917,21 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27699000</v>
+        <v>16490000</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>Điện_thoại/277484785_-2357336864701693236.jpg</t>
+          <t>Điện_thoại/277409699_2215018554022499707.jpg</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7e/76/8a/f7550914e96b1e367764a58eba124a11.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5e/7b/e4/a1b03a24fdf349a63fb539dd8953db20.jpg</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s25-ultra-12gb-256gb-hang-chinh-hang-p277484785.html?spid=277489458</t>
+          <t>https://tiki.vn/apple-iphone-16e-p277409699.html?spid=277409703</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -21290,15 +20946,15 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SP44</t>
+          <t>SP46</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>277437876</v>
+        <v>277357126</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy M15 5G 4GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Realme Note 50 4GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -21307,21 +20963,21 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>3549000</v>
+        <v>2479000</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>Điện_thoại/277437876_-4573622082594541447.jpg</t>
+          <t>Điện_thoại/277357126_-1177242207960780557.jpg</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/58/6b/8f/6cd6ccd3bb67b775b2163a50f7a6f43e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/47/58/f3/6d41bd4c0b787fcd2dda8c6abf4fadda.jpg</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-m15-5g-4gb-128gb-hang-chinh-hang-p277437876.html?spid=277437880</t>
+          <t>https://tiki.vn/dien-thoai-realme-note-50-4gb-128gb-hang-chinh-hang-p277357126.html?spid=277357128</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -21336,15 +20992,15 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>SP45</t>
+          <t>SP47</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>277409699</v>
+        <v>277356193</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e</t>
+          <t>Điện thoại Xiaomi Redmi Note 14 Pro+ 5G (8GB/256GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -21353,21 +21009,21 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>16490000</v>
+        <v>10890000</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>Điện_thoại/277409699_2215018554022499707.jpg</t>
+          <t>Điện_thoại/277356193_8764464791798468438.jpg</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5e/7b/e4/a1b03a24fdf349a63fb539dd8953db20.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/29/10/17ea04e162b7f63bf7bc178b7597bb21.jpg</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-16e-p277409699.html?spid=277409703</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-pro-5g-8gb-256gb-hang-chinh-hang-p277356193.html?spid=277356199</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -21382,15 +21038,15 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>SP46</t>
+          <t>SP48</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>277357126</v>
+        <v>277356031</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Điện Thoại Realme Note 50 4GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện thoại Xiaomi Redmi A3 - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -21399,21 +21055,21 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>2479000</v>
+        <v>3260000</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>Điện_thoại/277357126_-1177242207960780557.jpg</t>
+          <t>Điện_thoại/277356031_-7108833509603896327.jpg</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/47/58/f3/6d41bd4c0b787fcd2dda8c6abf4fadda.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fd/51/c7/5b4bbd5c49c30191e0e9242110fd7560.jpg</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-realme-note-50-4gb-128gb-hang-chinh-hang-p277357126.html?spid=277357128</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-a3-hang-chinh-hang-p277356031.html?spid=277356043</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -21428,15 +21084,15 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>SP47</t>
+          <t>SP49</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>277356193</v>
+        <v>277175955</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Điện thoại Xiaomi Redmi Note 14 Pro+ 5G (8GB/256GB) - Hàng chính hãng</t>
+          <t>Điện Thoại Xiaomi Redmi A3 3GB/64GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -21445,21 +21101,21 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>10890000</v>
+        <v>1869000</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>Điện_thoại/277356193_8764464791798468438.jpg</t>
+          <t>Điện_thoại/277175955_5246317412032706357.jpg</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/29/10/17ea04e162b7f63bf7bc178b7597bb21.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/c2/a9/d47791500dc8a1c938439bcce17dbcc1.jpg</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-pro-5g-8gb-256gb-hang-chinh-hang-p277356193.html?spid=277356199</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-a3-3gb-64gb-hang-chinh-hang-p277175955.html?spid=277175959</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -21474,15 +21130,15 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SP48</t>
+          <t>SP50</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>277356031</v>
+        <v>277065642</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Điện thoại Xiaomi Redmi A3 - Hàng chính hãng</t>
+          <t>Điện thoại Samsung Galaxy S25+, Điện thoại AI, Tìm kiếm thông minh, Video camera đêm Nightography, Chip Snapdragon - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -21491,21 +21147,21 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>3260000</v>
+        <v>22288000</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>Điện_thoại/277356031_-7108833509603896327.jpg</t>
+          <t>Điện_thoại/277065642_3821004800938297060.jpg</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fd/51/c7/5b4bbd5c49c30191e0e9242110fd7560.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ee/ce/14/379a72e23f651d6e35f223147be4b160.jpg</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-a3-hang-chinh-hang-p277356031.html?spid=277356043</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s25-dien-thoai-ai-tim-kiem-thong-minh-video-camera-dem-nightography-chip-snapdragon-hang-chinh-hang-p277065642.html?spid=277165202</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -21520,15 +21176,15 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>SP49</t>
+          <t>SP51</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>277175955</v>
+        <v>277041250</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi A3 3GB/64GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Xiaomi 14T Pro 5G 12GB/512GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -21537,21 +21193,21 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>1869000</v>
+        <v>14469000</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>Điện_thoại/277175955_5246317412032706357.jpg</t>
+          <t>Điện_thoại/277041250_-1629377351641137638.jpg</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/c2/a9/d47791500dc8a1c938439bcce17dbcc1.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/04/b4/a7/056fe2c67be56d2f7a8d61016f86529d.jpg</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-a3-3gb-64gb-hang-chinh-hang-p277175955.html?spid=277175959</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-14t-pro-5g-12gb-512gb-hang-chinh-hang-p277041250.html?spid=277041252</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -21566,15 +21222,15 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>SP50</t>
+          <t>SP52</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>277065642</v>
+        <v>277039291</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy S25+, Điện thoại AI, Tìm kiếm thông minh, Video camera đêm Nightography, Chip Snapdragon - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A55 5G - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -21583,21 +21239,21 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>22288000</v>
+        <v>8790000</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>Điện_thoại/277065642_3821004800938297060.jpg</t>
+          <t>Điện_thoại/277039291_-5852155187377922569.jpg</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ee/ce/14/379a72e23f651d6e35f223147be4b160.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bc/95/c5/75b609314a8dfe8b7ece83c446bc47ce.jpg</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s25-dien-thoai-ai-tim-kiem-thong-minh-video-camera-dem-nightography-chip-snapdragon-hang-chinh-hang-p277065642.html?spid=277165202</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a55-5g-hang-chinh-hang-p277039291.html?spid=277039343</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -21612,15 +21268,15 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>SP51</t>
+          <t>SP53</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>277041250</v>
+        <v>277030799</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi 14T Pro 5G 12GB/512GB - Hàng Chính Hãng</t>
+          <t>Điện thoại Realme Note 50 , Màn 90HZ (3GB/64GB) Rom quốc tế - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -21629,21 +21285,21 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>14469000</v>
+        <v>1999000</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>Điện_thoại/277041250_-1629377351641137638.jpg</t>
+          <t>Điện_thoại/277030799_8523303724427479375.jpg</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/04/b4/a7/056fe2c67be56d2f7a8d61016f86529d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/41/cd/bb/1602f9d78df7386eb039261a9a8ea17d.jpg</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-14t-pro-5g-12gb-512gb-hang-chinh-hang-p277041250.html?spid=277041252</t>
+          <t>https://tiki.vn/dien-thoai-realme-note-50-3gb-64gb-rom-quoc-te-hang-nhap-khau-nhat-p277030799.html?spid=277030804</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -21658,15 +21314,15 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>SP52</t>
+          <t>SP54</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>277039291</v>
+        <v>276925932</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A55 5G - Hàng Chính Hãng</t>
+          <t>Điện thoại Samsung Galaxy A16 LTE - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -21675,21 +21331,21 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>8790000</v>
+        <v>5040000</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>Điện_thoại/277039291_-5852155187377922569.jpg</t>
+          <t>Điện_thoại/276925932_1885944941898296195.jpg</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bc/95/c5/75b609314a8dfe8b7ece83c446bc47ce.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fb/78/0c/f88ea8836a305f29cfe7f21a0f4029f2.jpg</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a55-5g-hang-chinh-hang-p277039291.html?spid=277039343</t>
+          <t>https://tiki.vn/samsung-galaxy-a16-lte-hang-chinh-hang-p276925932.html?spid=276925934</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -21704,15 +21360,15 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SP53</t>
+          <t>SP55</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>277030799</v>
+        <v>276802409</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Điện thoại Realme Note 50 , Màn 90HZ (3GB/64GB) Rom quốc tế - Hàng chính hãng</t>
+          <t>Điện thoại Samsung Galaxy A16 5G - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -21721,21 +21377,21 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>1999000</v>
+        <v>6040000</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>Điện_thoại/277030799_8523303724427479375.jpg</t>
+          <t>Điện_thoại/276802409_-3476749863622680961.jpg</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/41/cd/bb/1602f9d78df7386eb039261a9a8ea17d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/99/98/0c/82ec73f0993068fd307c7cc101e401a0.jpg</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-realme-note-50-3gb-64gb-rom-quoc-te-hang-nhap-khau-nhat-p277030799.html?spid=277030804</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a16-5g-hang-chinh-hang-p276802409.html?spid=276802415</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -21750,15 +21406,15 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SP54</t>
+          <t>SP56</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>276925932</v>
+        <v>276489194</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A16 LTE - Hàng chính hãng</t>
+          <t>Điện thoại Samsung Galaxy S24 FE - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -21767,21 +21423,21 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5040000</v>
+        <v>16840000</v>
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>Điện_thoại/276925932_1885944941898296195.jpg</t>
+          <t>Điện_thoại/276489194_6003036611231772753.jpg</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fb/78/0c/f88ea8836a305f29cfe7f21a0f4029f2.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/b1/87/9da32235b3a0d50ad5e2b3c5bb6a4a13.jpg</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>https://tiki.vn/samsung-galaxy-a16-lte-hang-chinh-hang-p276925932.html?spid=276925934</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s24-fe-hang-chinh-hang-p276489194.html?spid=276489196</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -21796,15 +21452,15 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SP55</t>
+          <t>SP57</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>276802409</v>
+        <v>276410628</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A16 5G - Hàng chính hãng</t>
+          <t>Điện thoại Realme V60 (6GB/128GB) 5G , Chíp Dimensity 6300, Rom tiếng việt - Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -21813,21 +21469,21 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>6040000</v>
+        <v>2799000</v>
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>Điện_thoại/276802409_-3476749863622680961.jpg</t>
+          <t>Điện_thoại/276410628_-3745500410798508486.jpg</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/99/98/0c/82ec73f0993068fd307c7cc101e401a0.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/23/cc/4d/4e8dc54b550ca5438b8f3b4d5e786f7e.jpg</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a16-5g-hang-chinh-hang-p276802409.html?spid=276802415</t>
+          <t>https://tiki.vn/dien-thoai-realme-v60-6gb-128gb-5g-chip-dimensity-6300-rom-tieng-viet-hang-nhap-khau-p276410628.html?spid=276410632</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -21842,15 +21498,15 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SP56</t>
+          <t>SP58</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>276489194</v>
+        <v>274099409</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy S24 FE - Hàng chính hãng</t>
+          <t>Điện Thoại Xiaomi Redmi Note 13 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -21859,21 +21515,21 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>16840000</v>
+        <v>5290000</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>Điện_thoại/276489194_6003036611231772753.jpg</t>
+          <t>Điện_thoại/274099409_585864838979963625.jpg</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/b1/87/9da32235b3a0d50ad5e2b3c5bb6a4a13.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/18/b3/f0/74c414846443736e38c8de31180c3c13.jpg</t>
         </is>
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s24-fe-hang-chinh-hang-p276489194.html?spid=276489196</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-13-8gb-128gb-hang-chinh-hang-p274099409.html?spid=274099417</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -21888,15 +21544,15 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SP57</t>
+          <t>SP59</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>276410628</v>
+        <v>276099688</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Điện thoại Realme V60 (6GB/128GB) 5G , Chíp Dimensity 6300, Rom tiếng việt - Hàng nhập khẩu</t>
+          <t>Xiaomi Redmi Note 12 5G 8GB/128GB ,Màn AMOLED 120Hz , Snapdragon 4 Gen 1 ,Sạc 33W ,Rom tiếng việt - Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -21905,21 +21561,21 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>2799000</v>
+        <v>3169000</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Điện_thoại/276410628_-3745500410798508486.jpg</t>
+          <t>Điện_thoại/276099688_-6861216057858147615.jpg</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/23/cc/4d/4e8dc54b550ca5438b8f3b4d5e786f7e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/12/2c/19/97df92d945f6fceb046d6f363a8bedb0.jpg</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-realme-v60-6gb-128gb-5g-chip-dimensity-6300-rom-tieng-viet-hang-nhap-khau-p276410628.html?spid=276410632</t>
+          <t>https://tiki.vn/xiaomi-redmi-note-12-5g-8gb-128gb-man-amoled-120hz-snapdragon-4-gen-1-sac-33w-rom-tieng-viet-hang-nhap-khau-p276099688.html?spid=276099694</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -21934,15 +21590,15 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SP58</t>
+          <t>SP60</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>274099409</v>
+        <v>277490201</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi Note 13 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện thoại Samsung Galaxy A36 5G (8GB/128GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -21951,21 +21607,21 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>5290000</v>
+        <v>6940000</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>Điện_thoại/274099409_585864838979963625.jpg</t>
+          <t>Điện_thoại/277490201_-8165882317269512128.jpg</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/18/b3/f0/74c414846443736e38c8de31180c3c13.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/52/15/e45e133fe9a563b67cb15e0c2c3e81dc.jpg</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-13-8gb-128gb-hang-chinh-hang-p274099409.html?spid=274099417</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a36-5g-hang-chinh-hang-p277490201.html?spid=277490203</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -21980,15 +21636,15 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SP59</t>
+          <t>SP61</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>276099688</v>
+        <v>277607297</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 12 5G 8GB/128GB ,Màn AMOLED 120Hz , Snapdragon 4 Gen 1 ,Sạc 33W ,Rom tiếng việt - Hàng nhập khẩu</t>
+          <t>Điện thoại Smartphone Vivo Y19s siêu bền - RAM 4GB ROM 128GB - Màu đen và xanh - 5500mAh - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -21997,21 +21653,21 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>3169000</v>
+        <v>3050000</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>Điện_thoại/276099688_-6861216057858147615.jpg</t>
+          <t>Điện_thoại/277607297_8033637895853753306.jpg</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/12/2c/19/97df92d945f6fceb046d6f363a8bedb0.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/2c/ac/16c0f54cb6034936f9dcd799344bcb5a.jpg</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>https://tiki.vn/xiaomi-redmi-note-12-5g-8gb-128gb-man-amoled-120hz-snapdragon-4-gen-1-sac-33w-rom-tieng-viet-hang-nhap-khau-p276099688.html?spid=276099694</t>
+          <t>https://tiki.vn/vivo-y19s-4gb-128gb-p277607297.html?spid=277608199</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -22026,15 +21682,15 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>SP60</t>
+          <t>SP62</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>277490201</v>
+        <v>277646748</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A36 5G (8GB/128GB) - Hàng chính hãng</t>
+          <t>Điện thoại Samsung Galaxy A06 5G (4GB/64GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -22043,21 +21699,21 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>6940000</v>
+        <v>2589000</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>Điện_thoại/277490201_-8165882317269512128.jpg</t>
+          <t>Điện_thoại/277646748_-5765580608469246987.jpg</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/52/15/e45e133fe9a563b67cb15e0c2c3e81dc.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0c/36/0b/88f7befba91e4d4ef67740f7b3661a67.jpg</t>
         </is>
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a36-5g-hang-chinh-hang-p277490201.html?spid=277490203</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-5g-4gb-64gb-hang-chinh-hang-p277646748.html?spid=277646755</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -22072,15 +21728,15 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>SP61</t>
+          <t>SP63</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>277607297</v>
+        <v>277651890</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Điện thoại Smartphone Vivo Y19s siêu bền - RAM 4GB ROM 128GB - Màu đen và xanh - 5500mAh - Hàng chính hãng</t>
+          <t>Điện thoại Samsung Galaxy A06 5G (4GB/128GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -22089,21 +21745,21 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>3050000</v>
+        <v>3960000</v>
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Điện_thoại/277607297_8033637895853753306.jpg</t>
+          <t>Điện_thoại/277651890_8796742862942557158.jpg</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/2c/ac/16c0f54cb6034936f9dcd799344bcb5a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e6/df/a4/f7a98db54c7805793d54bc7b939eeb45.jpg</t>
         </is>
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>https://tiki.vn/vivo-y19s-4gb-128gb-p277607297.html?spid=277608199</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-5g-4gb-128gb-hang-chinh-hang-p277651890.html?spid=277651926</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -22118,15 +21774,15 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SP62</t>
+          <t>SP64</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>277646748</v>
+        <v>184059211</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A06 5G (4GB/64GB) - Hàng chính hãng</t>
+          <t>Apple iPhone 13</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -22135,21 +21791,21 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>2589000</v>
+        <v>11350000</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Điện_thoại/277646748_-5765580608469246987.jpg</t>
+          <t>Điện_thoại/184059211_4466980470923147465.jpg</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0c/36/0b/88f7befba91e4d4ef67740f7b3661a67.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b7/ba/88/66059a54a3a139d45841d412379b1fe4.jpg</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-5g-4gb-64gb-hang-chinh-hang-p277646748.html?spid=277646755</t>
+          <t>https://tiki.vn/apple-iphone-13-hang-chinh-hang-p184059211.html?spid=123547399</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -22164,15 +21820,15 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SP63</t>
+          <t>SP65</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>277651890</v>
+        <v>278219968</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A06 5G (4GB/128GB) - Hàng chính hãng</t>
+          <t>Điện thoại OPPO A3 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -22181,21 +21837,21 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>3960000</v>
+        <v>4490000</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>Điện_thoại/277651890_8796742862942557158.jpg</t>
+          <t>Điện_thoại/278219968_7841565248598451399.jpg</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e6/df/a4/f7a98db54c7805793d54bc7b939eeb45.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/06/86/b4/83714e05899252ed2497c12553219ae0.jpg</t>
         </is>
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-5g-4gb-128gb-hang-chinh-hang-p277651890.html?spid=277651926</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a3-6gb-128gb-hang-chinh-hang-p278219968.html?spid=278219978</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -22210,15 +21866,15 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SP64</t>
+          <t>SP66</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>184059211</v>
+        <v>278219887</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Apple iPhone 13</t>
+          <t>Điện thoại OPPO Reno13 F 5G 12GB/512GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -22227,21 +21883,21 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>11350000</v>
+        <v>9490000</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>Điện_thoại/184059211_4466980470923147465.jpg</t>
+          <t>Điện_thoại/278219887_-8737455034292819104.png</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b7/ba/88/66059a54a3a139d45841d412379b1fe4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/4f/a6/5f33c000cfa27c67cd9204cbd32b65b9.png</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-13-hang-chinh-hang-p184059211.html?spid=123547399</t>
+          <t>https://tiki.vn/dien-thoai-oppo-reno13-f-5g-12gb-512gb-hang-chinh-hang-p278219887.html?spid=278219891</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -22256,15 +21912,15 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SP65</t>
+          <t>SP67</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>278219968</v>
+        <v>277944334</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Điện thoại OPPO A3 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A06 5G 4GB/64GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -22273,21 +21929,21 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>4490000</v>
+        <v>2469000</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>Điện_thoại/278219968_7841565248598451399.jpg</t>
+          <t>Điện_thoại/277944334_1335517115303232633.jpg</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/06/86/b4/83714e05899252ed2497c12553219ae0.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a5/a0/34/8d34647a6f97612e08a6869a6a7729ab.jpg</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a3-6gb-128gb-hang-chinh-hang-p278219968.html?spid=278219978</t>
+          <t>https://tiki.vn/dien-thoai-samsung-a06-5g-4gb-64gb-hang-chinh-hang-p277944334.html?spid=277944336</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -22302,15 +21958,15 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SP66</t>
+          <t>SP68</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>278219887</v>
+        <v>277738691</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Điện thoại OPPO Reno13 F 5G 12GB/512GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Oppo A58 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -22319,21 +21975,21 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>9490000</v>
+        <v>3979000</v>
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>Điện_thoại/278219887_-8737455034292819104.png</t>
+          <t>Điện_thoại/277738691_6705091868434760416.jpg</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/4f/a6/5f33c000cfa27c67cd9204cbd32b65b9.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2e/5c/33/6857f633bba8589fbcf4c81c48a989c3.jpg</t>
         </is>
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-reno13-f-5g-12gb-512gb-hang-chinh-hang-p278219887.html?spid=278219891</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a58-8gb-128gb-hang-chinh-hang-p277738691.html?spid=277738695</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -22348,15 +22004,15 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SP67</t>
+          <t>SP69</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>277944334</v>
+        <v>277737629</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A06 5G 4GB/64GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Xiaomi Redmi 13 6GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -22365,21 +22021,21 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>2469000</v>
+        <v>2929000</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>Điện_thoại/277944334_1335517115303232633.jpg</t>
+          <t>Điện_thoại/277737629_4572391812162864588.jpg</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a5/a0/34/8d34647a6f97612e08a6869a6a7729ab.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/67/24/2d/17d53a9ca3b08d40d39bff3b6fb979cb.jpg</t>
         </is>
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-a06-5g-4gb-64gb-hang-chinh-hang-p277944334.html?spid=277944336</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-13-6gb-128gb-hang-chinh-hang-p277737629.html?spid=277737631</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -22394,15 +22050,15 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SP68</t>
+          <t>SP70</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>277738691</v>
+        <v>277707642</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Điện Thoại Oppo A58 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện thoại Samsung Galaxy A26 5G (8GB/128GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -22411,21 +22067,21 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>3979000</v>
+        <v>6940000</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>Điện_thoại/277738691_6705091868434760416.jpg</t>
+          <t>Điện_thoại/277707642_-5964949713972667503.jpg</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2e/5c/33/6857f633bba8589fbcf4c81c48a989c3.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/61/f7/fb/63445f959fb5036ba2504f7e1b91eecf.jpg</t>
         </is>
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a58-8gb-128gb-hang-chinh-hang-p277738691.html?spid=277738695</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a26-5g-8gb-128gb-hang-chinh-hang-p277707642.html?spid=277707647</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -22440,15 +22096,15 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SP69</t>
+          <t>SP71</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>277737629</v>
+        <v>277704510</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi 13 6GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A26 5G 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -22457,21 +22113,21 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>2929000</v>
+        <v>5648000</v>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>Điện_thoại/277737629_4572391812162864588.jpg</t>
+          <t>Điện_thoại/277704510_578577759014990984.jpg</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/67/24/2d/17d53a9ca3b08d40d39bff3b6fb979cb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a7/fe/de/bc4d3269a46128e7c9c9ecb3f0e4c213.jpg</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-13-6gb-128gb-hang-chinh-hang-p277737629.html?spid=277737631</t>
+          <t>https://tiki.vn/dien-thoai-samsung-a26-5g-8gb-128gb-hang-chinh-hang-p277704510.html?spid=277704512</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -22486,15 +22142,15 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SP70</t>
+          <t>SP72</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>277707642</v>
+        <v>203661802</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A26 5G (8GB/128GB) - Hàng chính hãng</t>
+          <t>Adapter Sạc Anker 313 / 311 Charger Gen 2 30W 1 Cổng Type-C A2639  - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -22503,21 +22159,21 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>6940000</v>
+        <v>150000</v>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>Điện_thoại/277707642_-5964949713972667503.jpg</t>
+          <t>Điện_thoại/203661802_550020572151958015.jpg</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/61/f7/fb/63445f959fb5036ba2504f7e1b91eecf.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ee/5e/ee/4ca7e4185f6f62d15437bef4b7dd552e.jpg</t>
         </is>
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a26-5g-8gb-128gb-hang-chinh-hang-p277707642.html?spid=277707647</t>
+          <t>https://tiki.vn/adapter-sac-anker-313-311-charger-gen-2-30w-1-cong-type-c-a2639-gift-cho-iphone-14-hang-chinh-hang-p203661802.html?spid=203661892</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -22532,15 +22188,15 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SP71</t>
+          <t>SP73</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>277704510</v>
+        <v>273440662</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A26 5G 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện thoại Xiaomi Redmi 12 (4GB/128GB) , Helio G88 , Màn 90HZ - Hàng nhập khẩu nhật</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -22549,21 +22205,21 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>5648000</v>
+        <v>2899000</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>Điện_thoại/277704510_578577759014990984.jpg</t>
+          <t>Điện_thoại/273440662_-1013418525042892863.jpg</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a7/fe/de/bc4d3269a46128e7c9c9ecb3f0e4c213.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6b/9c/fb/c698fabbab7db626d01ed069ce3d35a7.jpg</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-a26-5g-8gb-128gb-hang-chinh-hang-p277704510.html?spid=277704512</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-12-4gb-128gb-helio-g88-man-90hz-hang-chinh-hang-p273440662.html?spid=273440665</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -22578,15 +22234,15 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>SP72</t>
+          <t>SP74</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>203661802</v>
+        <v>273252926</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Adapter Sạc Anker 313 / 311 Charger Gen 2 30W 1 Cổng Type-C A2639  - Hàng Chính Hãng</t>
+          <t>Điện Thoại Oppo A18 (4GB/128GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -22595,21 +22251,21 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>150000</v>
+        <v>3990000</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>Điện_thoại/203661802_550020572151958015.jpg</t>
+          <t>Điện_thoại/273252926_-1915311473750114957.jpg</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ee/5e/ee/4ca7e4185f6f62d15437bef4b7dd552e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/af/0a/56/73f61616002a510fec2c85905d3fbc9a.jpg</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>https://tiki.vn/adapter-sac-anker-313-311-charger-gen-2-30w-1-cong-type-c-a2639-gift-cho-iphone-14-hang-chinh-hang-p203661802.html?spid=203661892</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a18-4gb-128gb-hang-chinh-hang-p273252926.html?spid=273356373</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -22624,15 +22280,15 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SP73</t>
+          <t>SP75</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>273440662</v>
+        <v>1.374621976915401e+18</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Điện thoại Xiaomi Redmi 12 (4GB/128GB) , Helio G88 , Màn 90HZ - Hàng nhập khẩu nhật</t>
+          <t>Masstel S9 6GB/256GB</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -22641,26 +22297,26 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>2899000</v>
+        <v>2940000</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>Điện_thoại/273440662_-1013418525042892863.jpg</t>
+          <t>Điện_thoại/1374621976915401329_-4892783058906505733.jpg</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6b/9c/fb/c698fabbab7db626d01ed069ce3d35a7.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/336409/masstel-s9-gold-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-12-4gb-128gb-helio-g88-man-90hz-hang-chinh-hang-p273440662.html?spid=273440665</t>
+          <t>https://www.thegioididong.com/dtdd/masstel-s9</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>TGDD</t>
         </is>
       </c>
       <c r="J483" t="inlineStr"/>
@@ -22670,15 +22326,15 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>SP74</t>
+          <t>SP76</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>273252926</v>
+        <v>1.48996638235539e+18</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Điện Thoại Oppo A18 (4GB/128GB) - Hàng Chính Hãng</t>
+          <t>realme 14T 5G 8GB/256GB</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -22687,26 +22343,26 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>3990000</v>
+        <v>8140000</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>Điện_thoại/273252926_-1915311473750114957.jpg</t>
+          <t>Điện_thoại/1489966382355390066_6480578644834263255.jpg</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/af/0a/56/73f61616002a510fec2c85905d3fbc9a.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/336619/realme-14t-5g-black-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a18-4gb-128gb-hang-chinh-hang-p273252926.html?spid=273356373</t>
+          <t>https://www.thegioididong.com/dtdd/realme-14t-5g-8gb</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>TGDD</t>
         </is>
       </c>
       <c r="J484" t="inlineStr"/>
@@ -22716,15 +22372,15 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SP75</t>
+          <t>SP77</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1.374621976915401e+18</v>
+        <v>1.028589462754631e+18</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Masstel S9 6GB/256GB</t>
+          <t>vivo V50 Lite 5G 8GB/256GB</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -22733,21 +22389,21 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>2940000</v>
+        <v>9810000</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Điện_thoại/1374621976915401329_-4892783058906505733.jpg</t>
+          <t>Điện_thoại/1028589462754630505_-6628099219537170117.jpg</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/336409/masstel-s9-gold-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/336408/vivo-v50-lite-gold-5g-thumbai-600x600.jpg</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/masstel-s9</t>
+          <t>https://www.thegioididong.com/dtdd/vivo-v50-lite-5g</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -22762,15 +22418,15 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SP76</t>
+          <t>SP78</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1.48996638235539e+18</v>
+        <v>8.31667457016748e+18</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>realme 14T 5G 8GB/256GB</t>
+          <t>vivo Y39 5G 8GB/128GB</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -22779,21 +22435,21 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8140000</v>
+        <v>7360000</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Điện_thoại/1489966382355390066_6480578644834263255.jpg</t>
+          <t>Điện_thoại/8316674570167480249_-6523305011076759174.jpg</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/336619/realme-14t-5g-black-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/339180/vivo-y39-tim-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/realme-14t-5g-8gb</t>
+          <t>https://www.thegioididong.com/dtdd/vivo-y39-5g</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -22808,15 +22464,15 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>SP77</t>
+          <t>SP79</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1.028589462754631e+18</v>
+        <v>5.694069305027419e+18</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>vivo V50 Lite 5G 8GB/256GB</t>
+          <t>iPhone 16 128GB</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -22825,21 +22481,21 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>9810000</v>
+        <v>19090000</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Điện_thoại/1028589462754630505_-6628099219537170117.jpg</t>
+          <t>Điện_thoại/5694069305027419505_-5030398807857658316.png</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/336408/vivo-v50-lite-gold-5g-thumbai-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/329135/iphone-16-blue-600x600.png</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/vivo-v50-lite-5g</t>
+          <t>https://www.thegioididong.com/dtdd/iphone-16?utm_flashsale=1</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -22854,15 +22510,15 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>SP78</t>
+          <t>SP80</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>8.31667457016748e+18</v>
+        <v>6.91719678576279e+18</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>vivo Y39 5G 8GB/128GB</t>
+          <t>OPPO Reno14 5G 12GB/512GB</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -22871,21 +22527,21 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>7360000</v>
+        <v>16690000</v>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Điện_thoại/8316674570167480249_-6523305011076759174.jpg</t>
+          <t>Điện_thoại/6917196785762790445_3707069294462226038.jpg</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/339180/vivo-y39-tim-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/339174/oppo-reno14-5g-green-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/vivo-y39-5g</t>
+          <t>https://www.thegioididong.com/dtdd/oppo-reno14-5g-512gb</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -22900,15 +22556,15 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>SP79</t>
+          <t>SP81</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>5.694069305027419e+18</v>
+        <v>1.406664115091273e+18</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>iPhone 16 128GB</t>
+          <t>iPhone 16 Pro 128GB</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -22917,21 +22573,21 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>19090000</v>
+        <v>25090000</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Điện_thoại/5694069305027419505_-5030398807857658316.png</t>
+          <t>Điện_thoại/1406664115091272891_8516638511617661970.png</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/329135/iphone-16-blue-600x600.png</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/329143/iphone-16-pro-titan-sa-mac.png</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/iphone-16?utm_flashsale=1</t>
+          <t>https://www.thegioididong.com/dtdd/iphone-16-pro</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -22946,15 +22602,15 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>SP80</t>
+          <t>SP82</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>6.91719678576279e+18</v>
+        <v>9.124292983604042e+18</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>OPPO Reno14 5G 12GB/512GB</t>
+          <t>realme Note 70 4GB/64GBMẫu mới</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -22963,21 +22619,21 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>16690000</v>
+        <v>3090000</v>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>Điện_thoại/6917196785762790445_3707069294462226038.jpg</t>
+          <t>Điện_thoại/9124292983604041560_-3709624913179203087.jpg</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/339174/oppo-reno14-5g-green-thumb-600x600.jpg</t>
+          <t>https://cdnv2.tgdd.vn/mwg-static/tgdd/Products/Images/42/340260/realme-note-70-4gb-64gb-160725-095001-095-600x600.jpg</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/oppo-reno14-5g-512gb</t>
+          <t>https://www.thegioididong.com/dtdd/realme-note-70-4gb-64gb</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -22992,15 +22648,15 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>SP81</t>
+          <t>SP83</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1.406664115091273e+18</v>
+        <v>4.40898092522554e+18</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>iPhone 16 Pro 128GB</t>
+          <t>Xiaomi Redmi Note 14 Pro 8GB/256GB</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -23009,21 +22665,21 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>25090000</v>
+        <v>7850000</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>Điện_thoại/1406664115091272891_8516638511617661970.png</t>
+          <t>Điện_thoại/4408980925225540339_4719962018704798163.jpg</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/329143/iphone-16-pro-titan-sa-mac.png</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/320730/xiaomi-redmi-note-14-pro-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/iphone-16-pro</t>
+          <t>https://www.thegioididong.com/dtdd/xiaomi-redmi-note-14-pro</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -23038,15 +22694,15 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>SP82</t>
+          <t>SP84</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>9.124292983604042e+18</v>
+        <v>5.694069305027419e+18</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>realme Note 70 4GB/64GBMẫu mới</t>
+          <t>iPhone 16 128GB</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -23055,21 +22711,21 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>3090000</v>
+        <v>19090000</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>Điện_thoại/9124292983604041560_-3709624913179203087.jpg</t>
+          <t>Điện_thoại/5694069305027419505_-5030398807857658316.png</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>https://cdnv2.tgdd.vn/mwg-static/tgdd/Products/Images/42/340260/realme-note-70-4gb-64gb-160725-095001-095-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/329135/iphone-16-blue-600x600.png</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/realme-note-70-4gb-64gb</t>
+          <t>https://www.thegioididong.com/dtdd/iphone-16?utm_flashsale=1</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -23084,15 +22740,15 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SP83</t>
+          <t>SP85</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>4.40898092522554e+18</v>
+        <v>1.374621976915401e+18</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 14 Pro 8GB/256GB</t>
+          <t>Masstel S9 6GB/256GB</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -23101,21 +22757,21 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>7850000</v>
+        <v>2940000</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>Điện_thoại/4408980925225540339_4719962018704798163.jpg</t>
+          <t>Điện_thoại/1374621976915401329_-4892783058906505733.jpg</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/320730/xiaomi-redmi-note-14-pro-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/336409/masstel-s9-gold-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/xiaomi-redmi-note-14-pro</t>
+          <t>https://www.thegioididong.com/dtdd/masstel-s9</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -23130,15 +22786,15 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SP84</t>
+          <t>SP86</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>5.694069305027419e+18</v>
+        <v>1.48996638235539e+18</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>iPhone 16 128GB</t>
+          <t>realme 14T 5G 8GB/256GB</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -23147,21 +22803,21 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>19090000</v>
+        <v>8140000</v>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>Điện_thoại/5694069305027419505_-5030398807857658316.png</t>
+          <t>Điện_thoại/1489966382355390066_6480578644834263255.jpg</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/329135/iphone-16-blue-600x600.png</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/336619/realme-14t-5g-black-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/iphone-16?utm_flashsale=1</t>
+          <t>https://www.thegioididong.com/dtdd/realme-14t-5g-8gb</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -23176,15 +22832,15 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>SP85</t>
+          <t>SP87</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>1.374621976915401e+18</v>
+        <v>1.028589462754631e+18</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Masstel S9 6GB/256GB</t>
+          <t>vivo V50 Lite 5G 8GB/256GB</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -23193,21 +22849,21 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>2940000</v>
+        <v>9810000</v>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>Điện_thoại/1374621976915401329_-4892783058906505733.jpg</t>
+          <t>Điện_thoại/1028589462754630505_-6628099219537170117.jpg</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/336409/masstel-s9-gold-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/336408/vivo-v50-lite-gold-5g-thumbai-600x600.jpg</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/masstel-s9</t>
+          <t>https://www.thegioididong.com/dtdd/vivo-v50-lite-5g</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -23222,15 +22878,15 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>SP86</t>
+          <t>SP88</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1.48996638235539e+18</v>
+        <v>8.31667457016748e+18</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>realme 14T 5G 8GB/256GB</t>
+          <t>vivo Y39 5G 8GB/128GB</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -23239,21 +22895,21 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>8140000</v>
+        <v>7360000</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>Điện_thoại/1489966382355390066_6480578644834263255.jpg</t>
+          <t>Điện_thoại/8316674570167480249_-6523305011076759174.jpg</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/336619/realme-14t-5g-black-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/339180/vivo-y39-tim-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/realme-14t-5g-8gb</t>
+          <t>https://www.thegioididong.com/dtdd/vivo-y39-5g</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -23268,15 +22924,15 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>SP87</t>
+          <t>SP89</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1.028589462754631e+18</v>
+        <v>4.40898092522554e+18</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>vivo V50 Lite 5G 8GB/256GB</t>
+          <t>Xiaomi Redmi Note 14 Pro 8GB/256GB</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -23285,21 +22941,21 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>9810000</v>
+        <v>7850000</v>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>Điện_thoại/1028589462754630505_-6628099219537170117.jpg</t>
+          <t>Điện_thoại/4408980925225540339_4719962018704798163.jpg</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/336408/vivo-v50-lite-gold-5g-thumbai-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/320730/xiaomi-redmi-note-14-pro-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/vivo-v50-lite-5g</t>
+          <t>https://www.thegioididong.com/dtdd/xiaomi-redmi-note-14-pro</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -23314,15 +22970,15 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>SP88</t>
+          <t>SP90</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>8.31667457016748e+18</v>
+        <v>6.91719678576279e+18</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>vivo Y39 5G 8GB/128GB</t>
+          <t>OPPO Reno14 5G 12GB/512GB</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -23331,21 +22987,21 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>7360000</v>
+        <v>16690000</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>Điện_thoại/8316674570167480249_-6523305011076759174.jpg</t>
+          <t>Điện_thoại/6917196785762790445_3707069294462226038.jpg</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/339180/vivo-y39-tim-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/339174/oppo-reno14-5g-green-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/vivo-y39-5g</t>
+          <t>https://www.thegioididong.com/dtdd/oppo-reno14-5g-512gb</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -23360,15 +23016,15 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>SP89</t>
+          <t>SP91</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>4.40898092522554e+18</v>
+        <v>1.406664115091273e+18</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 14 Pro 8GB/256GB</t>
+          <t>iPhone 16 Pro 128GB</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -23377,21 +23033,21 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>7850000</v>
+        <v>25090000</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>Điện_thoại/4408980925225540339_4719962018704798163.jpg</t>
+          <t>Điện_thoại/1406664115091272891_8516638511617661970.png</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/320730/xiaomi-redmi-note-14-pro-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/329143/iphone-16-pro-titan-sa-mac.png</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/xiaomi-redmi-note-14-pro</t>
+          <t>https://www.thegioididong.com/dtdd/iphone-16-pro</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -23406,15 +23062,15 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SP90</t>
+          <t>SP92</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>6.91719678576279e+18</v>
+        <v>9.124292983604042e+18</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>OPPO Reno14 5G 12GB/512GB</t>
+          <t>realme Note 70 4GB/64GBMẫu mới</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -23423,21 +23079,21 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>16690000</v>
+        <v>3090000</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>Điện_thoại/6917196785762790445_3707069294462226038.jpg</t>
+          <t>Điện_thoại/9124292983604041560_-3709624913179203087.jpg</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/339174/oppo-reno14-5g-green-thumb-600x600.jpg</t>
+          <t>https://cdnv2.tgdd.vn/mwg-static/tgdd/Products/Images/42/340260/realme-note-70-4gb-64gb-160725-095001-095-600x600.jpg</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/oppo-reno14-5g-512gb</t>
+          <t>https://www.thegioididong.com/dtdd/realme-note-70-4gb-64gb</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -23452,15 +23108,15 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>SP91</t>
+          <t>SP93</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1.406664115091273e+18</v>
+        <v>273258825</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>iPhone 16 Pro 128GB</t>
+          <t>Điện thoại Samsung Galaxy A05s (4GB/128GB) - Đã kích hoạt bảo hành điện tử - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -23469,26 +23125,26 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25090000</v>
+        <v>3625000</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>Điện_thoại/1406664115091272891_8516638511617661970.png</t>
+          <t>Điện_thoại/273258825_-1174226127386122732.jpg</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/329143/iphone-16-pro-titan-sa-mac.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/44/a2/f8/768771540cb86d9b1a7be98e9ab8d025.jpg</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/iphone-16-pro</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a05s-4gb-128gb-da-kich-hoat-bao-hanh-dien-tu-hang-chinh-hang-p273258825.html?spid=273550760</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>TGDD</t>
+          <t>Tiki</t>
         </is>
       </c>
       <c r="J501" t="inlineStr"/>
@@ -23498,15 +23154,15 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>SP92</t>
+          <t>SP94</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>9.124292983604042e+18</v>
+        <v>278237932</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>realme Note 70 4GB/64GBMẫu mới</t>
+          <t>Điện thoại Xiaomi Redmi 14C - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -23515,26 +23171,26 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>3090000</v>
+        <v>2410000</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>Điện_thoại/9124292983604041560_-3709624913179203087.jpg</t>
+          <t>Điện_thoại/278237932_-975695080881447204.jpg</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>https://cdnv2.tgdd.vn/mwg-static/tgdd/Products/Images/42/340260/realme-note-70-4gb-64gb-160725-095001-095-600x600.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0f/17/8d/a6bf2619bcaaf1be283640600ad927e3.jpg</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/realme-note-70-4gb-64gb</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-14c-hang-chinh-hang-p278237932.html?spid=278237941</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>TGDD</t>
+          <t>Tiki</t>
         </is>
       </c>
       <c r="J502" t="inlineStr"/>
@@ -23544,15 +23200,15 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SP93</t>
+          <t>SP95</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>273258825</v>
+        <v>272273680</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A05s (4GB/128GB) - Đã kích hoạt bảo hành điện tử - Hàng chính hãng</t>
+          <t>Điện thoại Samsung Galaxy A05s (4GB/128GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -23565,17 +23221,17 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>Điện_thoại/273258825_-1174226127386122732.jpg</t>
+          <t>Điện_thoại/272273680_3158926263406317588.jpg</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/44/a2/f8/768771540cb86d9b1a7be98e9ab8d025.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/37/10/2d/b0fb37e82d325ca354cd72c5fa7570be.jpg</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a05s-4gb-128gb-da-kich-hoat-bao-hanh-dien-tu-hang-chinh-hang-p273258825.html?spid=273550760</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a05s-4gb-128gb-hang-chinh-hang-p272273680.html?spid=273550658</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -23590,15 +23246,15 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>SP94</t>
+          <t>SP96</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>278237932</v>
+        <v>271954384</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Điện thoại Xiaomi Redmi 14C - Hàng chính hãng</t>
+          <t>Điện thoại OPPO A58 6GB/128GB , Sạc nhanh 33W - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -23607,21 +23263,21 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>2410000</v>
+        <v>4990000</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>Điện_thoại/278237932_-975695080881447204.jpg</t>
+          <t>Điện_thoại/271954384_-602644343613936311.jpg</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0f/17/8d/a6bf2619bcaaf1be283640600ad927e3.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8c/80/88/c83c3f2fe6281a892666b5d3b3a0b963.jpg</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-14c-hang-chinh-hang-p278237932.html?spid=278237941</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-sac-nhanh-33w-hang-chinh-hang-p271954384.html?spid=271954388</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -23636,15 +23292,15 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SP95</t>
+          <t>SP97</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>272273680</v>
+        <v>271235147</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A05s (4GB/128GB) - Hàng chính hãng</t>
+          <t>Điện thoại Oppo A58 (6GB/128GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -23653,21 +23309,21 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>3625000</v>
+        <v>3769000</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>Điện_thoại/272273680_3158926263406317588.jpg</t>
+          <t>Điện_thoại/271235147_-1906447749772517761.jpg</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/37/10/2d/b0fb37e82d325ca354cd72c5fa7570be.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d9/2d/f1/b81a25a252eedd3cb283e93549851b32.jpg</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a05s-4gb-128gb-hang-chinh-hang-p272273680.html?spid=273550658</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-hang-chinh-hang-p271235147.html?spid=271235149</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -23682,15 +23338,15 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>SP96</t>
+          <t>SP98</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>271954384</v>
+        <v>271128271</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Điện thoại OPPO A58 6GB/128GB , Sạc nhanh 33W - Hàng Chính Hãng</t>
+          <t>Điện Thoại Oppo A58 6GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -23699,21 +23355,21 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>4990000</v>
+        <v>3699000</v>
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>Điện_thoại/271954384_-602644343613936311.jpg</t>
+          <t>Điện_thoại/271128271_-6190250183295484495.jpg</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8c/80/88/c83c3f2fe6281a892666b5d3b3a0b963.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ce/82/d3/9bb25806d67aeb8ff3d583bcce9442e6.jpg</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-sac-nhanh-33w-hang-chinh-hang-p271954384.html?spid=271954388</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-hang-chinh-hang-p271128271.html?spid=271128275</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -23728,84 +23384,96 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>SP97</t>
+          <t>SW01</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>271235147</v>
+        <v>2.393612431018261e+17</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Điện thoại Oppo A58 (6GB/128GB) - Hàng chính hãng</t>
+          <t>Samsung Galaxy Watch 6 2023 dây thép</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Điện thoại</t>
+          <t>Đồng hồ thông minh</t>
         </is>
       </c>
       <c r="E507" t="n">
-        <v>3769000</v>
+        <v>796868</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>Điện_thoại/271235147_-1906447749772517761.jpg</t>
+          <t>Đồng_hồ_thông_minh/239361243101826085_9199338627928130607.avi</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d9/2d/f1/b81a25a252eedd3cb283e93549851b32.jpg</t>
+          <t>https://img.lazcdn.com/g/p/dd15cd3a788bf146d858e79fb05dd32a.png_200x200q80.avif</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-hang-chinh-hang-p271235147.html?spid=271235149</t>
+          <t>https://www.lazada.vn/products/pdp-i3013676188.html</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Tiki</t>
-        </is>
-      </c>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+          <t>Lazada</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>Galaxy Watch 6 2023</t>
+        </is>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>dây thép</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SP98</t>
+          <t>SW02</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>271128271</v>
+        <v>154835064</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Điện Thoại Oppo A58 6GB/128GB - Hàng Chính Hãng</t>
+          <t>AMA Watch Q15</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Điện thoại</t>
+          <t>Đồng hồ thông minh</t>
         </is>
       </c>
       <c r="E508" t="n">
-        <v>3699000</v>
+        <v>371000</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>Điện_thoại/271128271_-6190250183295484495.jpg</t>
+          <t>Đồng_hồ_thông_minh/154835064_7967125795428827099.jpg</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ce/82/d3/9bb25806d67aeb8ff3d583bcce9442e6.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4f/a0/c2/c978a931be8bc02a10e4d7058ea72210.jpg</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-hang-chinh-hang-p271128271.html?spid=271128275</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q15-lap-sim-nghe-goi-2-chieu-3-mau-xanh-hong-den-hang-chinh-hang-p154835064.html?spid=154835066</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -23813,22 +23481,30 @@
           <t>Tiki</t>
         </is>
       </c>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>AMA</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
       <c r="L508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SW01</t>
+          <t>SW03</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>2.393612431018261e+17</v>
+        <v>149797747</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch 6 2023 dây thép</t>
+          <t>AMA Q12S</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -23837,56 +23513,52 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>796868</v>
+        <v>562000</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/239361243101826085_9199338627928130607.avi</t>
+          <t>Đồng_hồ_thông_minh/149797747_4683621684182599073.jpg</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>https://img.lazcdn.com/g/p/dd15cd3a788bf146d858e79fb05dd32a.png_200x200q80.avif</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6e/b8/a5/a8820ac9fb55d23011ea48b6e69e74fb.jpg</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>https://www.lazada.vn/products/pdp-i3013676188.html</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-q12s-model-2021-hang-nhap-khau-p149797747.html?spid=151619450</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Lazada</t>
+          <t>Tiki</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Galaxy Watch 6 2023</t>
-        </is>
-      </c>
-      <c r="L509" t="inlineStr">
-        <is>
-          <t>dây thép</t>
-        </is>
-      </c>
+          <t>Q12S</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>SW02</t>
+          <t>SW04</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>154835064</v>
+        <v>207270188</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>AMA Watch Q15</t>
+          <t>AMA Watch FA91S</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -23895,21 +23567,21 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>371000</v>
+        <v>1523870</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/154835064_7967125795428827099.jpg</t>
+          <t>Đồng_hồ_thông_minh/207270188_-6100385475971697174.jpg</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4f/a0/c2/c978a931be8bc02a10e4d7058ea72210.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4e/e3/0f/11c0588e2feb3dc5043b96a6adbba6eb.jpg</t>
         </is>
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q15-lap-sim-nghe-goi-2-chieu-3-mau-xanh-hong-den-hang-chinh-hang-p154835064.html?spid=154835066</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-hoc-sinh-sinh-vien-dinh-vi-wifi-goi-dien-thoai-video-call-ama-watch-fa91-hang-nhap-khau-p207270188.html?spid=208054739</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -23924,7 +23596,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>FA91S</t>
         </is>
       </c>
       <c r="L510" t="inlineStr"/>
@@ -23932,15 +23604,15 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>SW03</t>
+          <t>SW05</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>149797747</v>
+        <v>276295047</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>AMA Q12S</t>
+          <t>Xiaomi Redmi Watch 5 Active</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -23949,21 +23621,21 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>562000</v>
+        <v>715000</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/149797747_4683621684182599073.jpg</t>
+          <t>Đồng_hồ_thông_minh/276295047_4908797466075377767.jpg</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6e/b8/a5/a8820ac9fb55d23011ea48b6e69e74fb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4a/62/9d/b83f4513fcfbfdbc3e35989eb2080281.jpg</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-q12s-model-2021-hang-nhap-khau-p149797747.html?spid=151619450</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-xiaomi-redmi-watch-5-active-midnight-black-hang-chinh-hang-p276295047.html?spid=276295049</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -23973,12 +23645,12 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Q12S</t>
+          <t>Redmi Watch 5 Active</t>
         </is>
       </c>
       <c r="L511" t="inlineStr"/>
@@ -23986,15 +23658,15 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>SW04</t>
+          <t>SW06</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>207270188</v>
+        <v>276130067</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>AMA Watch FA91S</t>
+          <t>Xiaomi Mi Band 10</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -24003,21 +23675,21 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1523870</v>
+        <v>1033050</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/207270188_-6100385475971697174.jpg</t>
+          <t>Đồng_hồ_thông_minh/276130067_-7228020809596367073.jpg</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4e/e3/0f/11c0588e2feb3dc5043b96a6adbba6eb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/80/f6/73/f8a7c3a0a56618abfe4652893c30b05d.jpg</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-hoc-sinh-sinh-vien-dinh-vi-wifi-goi-dien-thoai-video-call-ama-watch-fa91-hang-nhap-khau-p207270188.html?spid=208054739</t>
+          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-mi-band-9-ban-quoc-te-hang-chinh-hang-p276130067.html?spid=276130069</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -24027,12 +23699,12 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>FA91S</t>
+          <t>Mi Band 10</t>
         </is>
       </c>
       <c r="L512" t="inlineStr"/>
@@ -24040,15 +23712,15 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>SW05</t>
+          <t>SW07</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>276295047</v>
+        <v>275281412</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Watch 5 Active</t>
+          <t>MAI DUY Y85S</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -24057,21 +23729,21 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>715000</v>
+        <v>325000</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276295047_4908797466075377767.jpg</t>
+          <t>Đồng_hồ_thông_minh/275281412_8288843787915995951.jpg</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4a/62/9d/b83f4513fcfbfdbc3e35989eb2080281.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/26/6e/13/2bf1e724903a941e9f1af13057fb0993.jpg</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-xiaomi-redmi-watch-5-active-midnight-black-hang-chinh-hang-p276295047.html?spid=276295049</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-dinh-vi-tre-em-mai-duy-y85s-nghe-goi-nhan-tin-tu-xa-chong-nuoc-ip67-hang-nhap-khau-p275281412.html?spid=275281467</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -24081,12 +23753,12 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>MAI DUY</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Redmi Watch 5 Active</t>
+          <t>Y85S</t>
         </is>
       </c>
       <c r="L513" t="inlineStr"/>
@@ -24094,15 +23766,15 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>SW06</t>
+          <t>SW08</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>276130067</v>
+        <v>276664710</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Band 10</t>
+          <t>Xiaomi Smart Band 9 Active</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -24111,21 +23783,21 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1033050</v>
+        <v>525000</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276130067_-7228020809596367073.jpg</t>
+          <t>Đồng_hồ_thông_minh/276664710_-9198799680277359363.jpg</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/80/f6/73/f8a7c3a0a56618abfe4652893c30b05d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/50/18/56affe593feb1d3babcccad756a143fb.jpg</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-mi-band-9-ban-quoc-te-hang-chinh-hang-p276130067.html?spid=276130069</t>
+          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-smart-band-9-active-hang-chinh-hang-p276664710.html?spid=276664712</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -24140,7 +23812,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Mi Band 10</t>
+          <t>Smart Band 9 Active</t>
         </is>
       </c>
       <c r="L514" t="inlineStr"/>
@@ -24148,15 +23820,15 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>SW07</t>
+          <t>SW09</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>275281412</v>
+        <v>276115570</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>MAI DUY Y85S</t>
+          <t>Apple Watch Series 10 viền nhôm dây cao su</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -24165,21 +23837,21 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>325000</v>
+        <v>8760000</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/275281412_8288843787915995951.jpg</t>
+          <t>Đồng_hồ_thông_minh/276115570_-6212342290080913237.jpg</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/26/6e/13/2bf1e724903a941e9f1af13057fb0993.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a8/a3/9a/e1bb7178418877ba332bd7c01b90b479.jpg</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-dinh-vi-tre-em-mai-duy-y85s-nghe-goi-nhan-tin-tu-xa-chong-nuoc-ip67-hang-nhap-khau-p275281412.html?spid=275281467</t>
+          <t>https://tiki.vn/apple-watch-series-10-gps-vien-nhom-day-cao-su-p276115570.html?spid=276116452</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -24189,28 +23861,32 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>MAI DUY</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Y85S</t>
-        </is>
-      </c>
-      <c r="L515" t="inlineStr"/>
+          <t>Watch Series 10</t>
+        </is>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>viền nhôm dây cao su</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SW08</t>
+          <t>SW10</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>276664710</v>
+        <v>276115522</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Xiaomi Smart Band 9 Active</t>
+          <t>Apple Watch SE 2024 viền nhôm dây cao su</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -24219,21 +23895,21 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>525000</v>
+        <v>6360000</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276664710_-9198799680277359363.jpg</t>
+          <t>Đồng_hồ_thông_minh/276115522_1369627001624235375.jpg</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/50/18/56affe593feb1d3babcccad756a143fb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/ec/7d/de5a49dc09126ff6153b16bbb82ee814.jpg</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-smart-band-9-active-hang-chinh-hang-p276664710.html?spid=276664712</t>
+          <t>https://tiki.vn/apple-watch-se-2024-gps-vien-nhom-day-cao-su-p276115522.html?spid=276115846</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -24243,28 +23919,32 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Smart Band 9 Active</t>
-        </is>
-      </c>
-      <c r="L516" t="inlineStr"/>
+          <t>Watch SE 2024</t>
+        </is>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>viền nhôm dây cao su</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>SW09</t>
+          <t>SW11</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>276115570</v>
+        <v>273936761</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Apple Watch Series 10 viền nhôm dây cao su</t>
+          <t>AMA HW13</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -24273,21 +23953,21 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>8760000</v>
+        <v>1096391</v>
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276115570_-6212342290080913237.jpg</t>
+          <t>Đồng_hồ_thông_minh/273936761_-8735126153505365997.jpg</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a8/a3/9a/e1bb7178418877ba332bd7c01b90b479.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/79/06/db/de657748b73e722d01b96d126297833e.jpg</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-watch-series-10-gps-vien-nhom-day-cao-su-p276115570.html?spid=276116452</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-hoc-sinh-tieu-hoc-thcs-thpt-chong-nuoc-lap-sim-dinh-vi-kep-smart-watch-ama-hw13-hang-nhap-khau-p273936761.html?spid=273936763</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -24297,32 +23977,28 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Watch Series 10</t>
-        </is>
-      </c>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>viền nhôm dây cao su</t>
-        </is>
-      </c>
+          <t>HW13</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SW10</t>
+          <t>SW12</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>276115522</v>
+        <v>273690198</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Apple Watch SE 2024 viền nhôm dây cao su</t>
+          <t>AMA TK Watch Android 8.1</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -24331,21 +24007,21 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>6360000</v>
+        <v>1620870</v>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276115522_1369627001624235375.jpg</t>
+          <t>Đồng_hồ_thông_minh/273690198_9168548247674116842.jpg</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/ec/7d/de5a49dc09126ff6153b16bbb82ee814.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/82/81/b64f1908940da2db9b94abff5939fad4.jpg</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-watch-se-2024-gps-vien-nhom-day-cao-su-p276115522.html?spid=276115846</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-lap-sim-ket-noi-wifi-4g-blueltooth-dinh-vi-gps-google-xem-duoc-video-youtube-tiktok-tai-app-chat-za-lo-face-book-messenger-skype-whatsapp-viber-wechat-kakao-line-tele-choi-game-ama-smart-watch-tk-android-8-1-cho-tre-em-hang-nhap-khau-p273690198.html?spid=273690200</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -24355,32 +24031,28 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Watch SE 2024</t>
-        </is>
-      </c>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>viền nhôm dây cao su</t>
-        </is>
-      </c>
+          <t>TK Watch Android 8.1</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>SW11</t>
+          <t>SW13</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>273936761</v>
+        <v>9.186353276265624e+18</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>AMA HW13</t>
+          <t>Samsung Galaxy Watch Ultra 47mm dây silicone</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -24389,52 +24061,56 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1096391</v>
+        <v>16990000</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/273936761_-8735126153505365997.jpg</t>
+          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/79/06/db/de657748b73e722d01b96d126297833e.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-hoc-sinh-tieu-hoc-thcs-thpt-chong-nuoc-lap-sim-dinh-vi-kep-smart-watch-ama-hw13-hang-nhap-khau-p273936761.html?spid=273936763</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>TGDD</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>HW13</t>
-        </is>
-      </c>
-      <c r="L519" t="inlineStr"/>
+          <t>Galaxy Watch Ultra</t>
+        </is>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>47mm dây silicone</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>SW12</t>
+          <t>SW14</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>273690198</v>
+        <v>8.989072603909606e+18</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>AMA TK Watch Android 8.1</t>
+          <t>Garmin Forerunner 570 47mm dây silicone</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -24443,52 +24119,56 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1620870</v>
+        <v>14420000</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/273690198_9168548247674116842.jpg</t>
+          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/82/81/b64f1908940da2db9b94abff5939fad4.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-lap-sim-ket-noi-wifi-4g-blueltooth-dinh-vi-gps-google-xem-duoc-video-youtube-tiktok-tai-app-chat-za-lo-face-book-messenger-skype-whatsapp-viber-wechat-kakao-line-tele-choi-game-ama-smart-watch-tk-android-8-1-cho-tre-em-hang-nhap-khau-p273690198.html?spid=273690200</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>TGDD</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>Garmin</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>TK Watch Android 8.1</t>
-        </is>
-      </c>
-      <c r="L520" t="inlineStr"/>
+          <t>Forerunner 570</t>
+        </is>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>47mm dây silicone</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>SW13</t>
+          <t>SW15</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>9.186353276265624e+18</v>
+        <v>2.067984039751481e+18</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch Ultra 47mm dây silicone</t>
+          <t>Amazfit Active 2 Square 43.3mm dây da</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -24497,21 +24177,21 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>16990000</v>
+        <v>3690000</v>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
+          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -24521,32 +24201,32 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Amazfit</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Active 2 Square</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>47mm dây silicone</t>
+          <t>43.3mm dây da</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>SW14</t>
+          <t>SW16</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>8.989072603909606e+18</v>
+        <v>4.510275253775064e+18</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 47mm dây silicone</t>
+          <t>Garmin Forerunner 570 42.4mm</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -24559,17 +24239,17 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
+          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -24589,22 +24269,22 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>47mm dây silicone</t>
+          <t>42.4mm</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>SW15</t>
+          <t>SW17</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>2.067984039751481e+18</v>
+        <v>9.186353276265624e+18</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Amazfit Active 2 Square 43.3mm dây da</t>
+          <t>Samsung Galaxy Watch Ultra 47mm dây silicone</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -24613,21 +24293,21 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>3690000</v>
+        <v>16990000</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
+          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -24637,32 +24317,32 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Amazfit</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Active 2 Square</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>43.3mm dây da</t>
+          <t>47mm dây silicone</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>SW16</t>
+          <t>SW18</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>4.510275253775064e+18</v>
+        <v>5.366895306400635e+18</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 42.4mm</t>
+          <t>Huawei Watch 5 46mm dây cao su</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -24671,21 +24351,21 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>14420000</v>
+        <v>8830000</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
+          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -24695,32 +24375,32 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Garmin</t>
+          <t>Huawei</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Forerunner 570</t>
+          <t>Watch 5</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>42.4mm</t>
+          <t>46mm dây cao su</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>SW17</t>
+          <t>SW19</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>9.186353276265624e+18</v>
+        <v>1.676033394735769e+18</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch Ultra 47mm dây silicone</t>
+          <t>Samsung Galaxy Watch8 40mm dây silicone</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -24729,21 +24409,21 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>16990000</v>
+        <v>9990000</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
+          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -24758,27 +24438,27 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Watch8</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>47mm dây silicone</t>
+          <t>40mm dây silicone</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>SW18</t>
+          <t>SW20</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>5.366895306400635e+18</v>
+        <v>1.65783369162941e+18</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Huawei Watch 5 46mm dây cao su</t>
+          <t>Garmin Venu X1 51.2mm dây nylon</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -24787,21 +24467,21 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>8830000</v>
+        <v>21090000</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
+          <t>Đồng_hồ_thông_minh/1657833691629409441_-3756484674081019100.jpg</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340846/garmin-venu-x1-reu-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-venu-x1-sapphire</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
@@ -24811,32 +24491,32 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Huawei</t>
+          <t>Garmin</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Watch 5</t>
+          <t>Venu X1</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>46mm dây cao su</t>
+          <t>51.2mm dây nylon</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>SW19</t>
+          <t>SW21</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>1.676033394735769e+18</v>
+        <v>8.989072603909606e+18</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch8 40mm dây silicone</t>
+          <t>Garmin Forerunner 570 47mm dây silicone</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -24845,21 +24525,21 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>9990000</v>
+        <v>14420000</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
+          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
         </is>
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -24869,32 +24549,32 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Garmin</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Galaxy Watch8</t>
+          <t>Forerunner 570</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>40mm dây silicone</t>
+          <t>47mm dây silicone</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>SW20</t>
+          <t>SW22</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1.65783369162941e+18</v>
+        <v>2.067984039751481e+18</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Garmin Venu X1 51.2mm dây nylon</t>
+          <t>Amazfit Active 2 Square 43.3mm dây da</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -24903,21 +24583,21 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>21090000</v>
+        <v>3690000</v>
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/1657833691629409441_-3756484674081019100.jpg</t>
+          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340846/garmin-venu-x1-reu-tb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-venu-x1-sapphire</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -24927,32 +24607,32 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Garmin</t>
+          <t>Amazfit</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Venu X1</t>
+          <t>Active 2 Square</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>51.2mm dây nylon</t>
+          <t>43.3mm dây da</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>SW21</t>
+          <t>SW23</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>8.989072603909606e+18</v>
+        <v>4.510275253775064e+18</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 47mm dây silicone</t>
+          <t>Garmin Forerunner 570 42.4mm</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -24965,17 +24645,17 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
+          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -24995,22 +24675,22 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>47mm dây silicone</t>
+          <t>42.4mm</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>SW22</t>
+          <t>SW24</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>2.067984039751481e+18</v>
+        <v>6.907835202262853e+18</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Amazfit Active 2 Square 43.3mm dây da</t>
+          <t>Huawei Watch 5 46mm dây composite</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -25019,21 +24699,21 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>3690000</v>
+        <v>9810000</v>
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
+          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -25043,32 +24723,32 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Amazfit</t>
+          <t>Huawei</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Active 2 Square</t>
+          <t>Watch 5</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>43.3mm dây da</t>
+          <t>46mm dây composite</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>SW23</t>
+          <t>SW25</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>4.510275253775064e+18</v>
+        <v>229765302</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 42.4mm</t>
+          <t>AMA Watch Q12B</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -25077,56 +24757,52 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>14420000</v>
+        <v>195000</v>
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
+          <t>Đồng_hồ_thông_minh/229765302_-3877597272443373168.jpg</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3c/d3/4b/113da997583503fc0365000da880c475.jpg</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q12b-hang-nhap-khau-p229765302.html?spid=229765304</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>TGDD</t>
+          <t>Tiki</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Garmin</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Forerunner 570</t>
-        </is>
-      </c>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>42.4mm</t>
-        </is>
-      </c>
+          <t>Q12B</t>
+        </is>
+      </c>
+      <c r="L531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>SW24</t>
+          <t>SW26</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>6.907835202262853e+18</v>
+        <v>212142932</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Huawei Watch 5 46mm dây composite</t>
+          <t>AMA Watch D32</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -25135,56 +24811,52 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>9810000</v>
+        <v>1244510</v>
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
+          <t>Đồng_hồ_thông_minh/212142932_4862266102186728546.jpg</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/08/d0/5c2503b74acf53d8eeff0a6684aaa108.jpg</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-trai-gai-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-chong-nuoc-ip67-goi-video-call-dinh-vi-gps-wifi-ama-watch-d32-hang-nhap-khau-p212142932.html?spid=212142936</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>TGDD</t>
+          <t>Tiki</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Huawei</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Watch 5</t>
-        </is>
-      </c>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>46mm dây composite</t>
-        </is>
-      </c>
+          <t>D32</t>
+        </is>
+      </c>
+      <c r="L532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>SW25</t>
+          <t>SW27</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>229765302</v>
+        <v>198515846</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>AMA Watch Q12B</t>
+          <t>Wonlex KT18</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -25193,21 +24865,21 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>195000</v>
+        <v>1833300</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/229765302_-3877597272443373168.jpg</t>
+          <t>Đồng_hồ_thông_minh/198515846_-1573833554464561456.png</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3c/d3/4b/113da997583503fc0365000da880c475.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/99/66/7f/752b916f89fc61763fcf18dc6ea76874.png</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q12b-hang-nhap-khau-p229765302.html?spid=229765304</t>
+          <t>https://tiki.vn/dong-ho-dinh-vi-kt18-chinh-hang-wonlex-p198515846.html?spid=198515848</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
@@ -25217,12 +24889,12 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>Wonlex</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Q12B</t>
+          <t>KT18</t>
         </is>
       </c>
       <c r="L533" t="inlineStr"/>
@@ -25230,15 +24902,15 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>SW26</t>
+          <t>SW28</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>212142932</v>
+        <v>196516091</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>AMA Watch D32</t>
+          <t>Samsung Galaxy Watch5 SM-R900N 40mm</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -25247,21 +24919,21 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1244510</v>
+        <v>2890600</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/212142932_4862266102186728546.jpg</t>
+          <t>Đồng_hồ_thông_minh/196516091_-110608113805442775.jpg</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/08/d0/5c2503b74acf53d8eeff0a6684aaa108.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9c/4b/3b/39c1ef7bf5f1cfb5ce79f44c744a73d5.jpg</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-trai-gai-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-chong-nuoc-ip67-goi-video-call-dinh-vi-gps-wifi-ama-watch-d32-hang-nhap-khau-p212142932.html?spid=212142936</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-samsung-galaxy-watch5-40mm-sm-r900n-hang-chinh-hang-p196516091.html?spid=196516093</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -25271,28 +24943,32 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>D32</t>
-        </is>
-      </c>
-      <c r="L534" t="inlineStr"/>
+          <t>Galaxy Watch5 SM-R900N</t>
+        </is>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>40mm</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>SW27</t>
+          <t>SW29</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>198515846</v>
+        <v>192977208</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Wonlex KT18</t>
+          <t>AMA Watch Q16S</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -25301,21 +24977,21 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1833300</v>
+        <v>366000</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/198515846_-1573833554464561456.png</t>
+          <t>Đồng_hồ_thông_minh/192977208_-1295276845238255977.jpg</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/99/66/7f/752b916f89fc61763fcf18dc6ea76874.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/85/2c/82/084299fa304692f7dbdc403ced19c368.jpg</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-dinh-vi-kt18-chinh-hang-wonlex-p198515846.html?spid=198515848</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-chong-nuoc-chuan-ip67-ama-watch-q16s-hang-chinh-hang-p192977208.html?spid=193710183</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -25325,12 +25001,12 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Wonlex</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>KT18</t>
+          <t>Q16S</t>
         </is>
       </c>
       <c r="L535" t="inlineStr"/>
@@ -25338,15 +25014,15 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>SW28</t>
+          <t>SW30</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>196516091</v>
+        <v>112287571</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch5 SM-R900N 40mm</t>
+          <t>AMA Watch Y92</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -25355,21 +25031,21 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>2890600</v>
+        <v>591361</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/196516091_-110608113805442775.jpg</t>
+          <t>Đồng_hồ_thông_minh/112287571_-6014313050433431973.jpg</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9c/4b/3b/39c1ef7bf5f1cfb5ce79f44c744a73d5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/55/38/64/d6e65ca4c3c52cf8994c77c4af5ec993.jpg</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-samsung-galaxy-watch5-40mm-sm-r900n-hang-chinh-hang-p196516091.html?spid=196516093</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-lap-sim-doc-lap-nghe-goi-2-chieu-ama-watch-y92-chong-nuoc-dinh-vi-wifi-do-chinh-xac-cao-hang-nhap-khau-p112287571.html?spid=112287573</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -25379,32 +25055,28 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 SM-R900N</t>
-        </is>
-      </c>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>40mm</t>
-        </is>
-      </c>
+          <t>Y92</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>SW29</t>
+          <t>SW31</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>192977208</v>
+        <v>94304443</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>AMA Watch Q16S</t>
+          <t>AMA Watch D06</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -25413,21 +25085,21 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>366000</v>
+        <v>1079804</v>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/192977208_-1295276845238255977.jpg</t>
+          <t>Đồng_hồ_thông_minh/94304443_-1525890213333033887.jpg</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/85/2c/82/084299fa304692f7dbdc403ced19c368.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/d4/d2/f7eae7468d71bad8f3a2c606cc3fcd79.jpg</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-chong-nuoc-chuan-ip67-ama-watch-q16s-hang-chinh-hang-p192977208.html?spid=193710183</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-ama-watch-nam-nu-chong-nuoc-goi-dien-thoai-xem-tin-nhan-theo-doi-suc-khoe-van-dong-thiet-ke-nho-gon-thoi-trang-hang-nhap-khau-p94304443.html?spid=94304447</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -25442,7 +25114,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Q16S</t>
+          <t>D06</t>
         </is>
       </c>
       <c r="L537" t="inlineStr"/>
@@ -25450,15 +25122,15 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>SW30</t>
+          <t>SW32</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>112287571</v>
+        <v>74215680</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>AMA Watch Y92</t>
+          <t>AMA Watch S27</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -25467,21 +25139,21 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>591361</v>
+        <v>1471490</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/112287571_-6014313050433431973.jpg</t>
+          <t>Đồng_hồ_thông_minh/74215680_-5502139735237341598.png</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/55/38/64/d6e65ca4c3c52cf8994c77c4af5ec993.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0f/b3/74/7155e36ba130c0b68d6bdd6a327aa582.png</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-lap-sim-doc-lap-nghe-goi-2-chieu-ama-watch-y92-chong-nuoc-dinh-vi-wifi-do-chinh-xac-cao-hang-nhap-khau-p112287571.html?spid=112287573</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-nu-ama-watch-s27-thoi-trang-ket-noi-bluetooth-theo-doi-suc-khoe-van-dong-man-hinh-tron-hang-chinh-hang-p74215680.html?spid=75434136</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -25496,7 +25168,7 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Y92</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="L538" t="inlineStr"/>
@@ -25504,15 +25176,15 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>SW31</t>
+          <t>SW33</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>94304443</v>
+        <v>5.366895306400635e+18</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>AMA Watch D06</t>
+          <t>Huawei Watch 5 46mm dây cao su</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -25521,52 +25193,56 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>1079804</v>
+        <v>8830000</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/94304443_-1525890213333033887.jpg</t>
+          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/d4/d2/f7eae7468d71bad8f3a2c606cc3fcd79.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-ama-watch-nam-nu-chong-nuoc-goi-dien-thoai-xem-tin-nhan-theo-doi-suc-khoe-van-dong-thiet-ke-nho-gon-thoi-trang-hang-nhap-khau-p94304443.html?spid=94304447</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>TGDD</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>Huawei</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>D06</t>
-        </is>
-      </c>
-      <c r="L539" t="inlineStr"/>
+          <t>Watch 5</t>
+        </is>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>46mm dây cao su</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>SW32</t>
+          <t>SW34</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>74215680</v>
+        <v>1.676033394735769e+18</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>AMA Watch S27</t>
+          <t>Samsung Galaxy Watch8 40mm dây silicone</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -25575,52 +25251,56 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>1471490</v>
+        <v>9990000</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/74215680_-5502139735237341598.png</t>
+          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0f/b3/74/7155e36ba130c0b68d6bdd6a327aa582.png</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-nu-ama-watch-s27-thoi-trang-ket-noi-bluetooth-theo-doi-suc-khoe-van-dong-man-hinh-tron-hang-chinh-hang-p74215680.html?spid=75434136</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>TGDD</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>S27</t>
-        </is>
-      </c>
-      <c r="L540" t="inlineStr"/>
+          <t>Galaxy Watch8</t>
+        </is>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>40mm dây silicone</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>SW33</t>
+          <t>SW35</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>5.366895306400635e+18</v>
+        <v>6.907835202262853e+18</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Huawei Watch 5 46mm dây cao su</t>
+          <t>Huawei Watch 5 46mm dây composite</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -25629,21 +25309,21 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>8830000</v>
+        <v>9810000</v>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
+          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -25663,22 +25343,22 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>46mm dây cao su</t>
+          <t>46mm dây composite</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>SW34</t>
+          <t>SW36</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>1.676033394735769e+18</v>
+        <v>1.65783369162941e+18</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch8 40mm dây silicone</t>
+          <t>Garmin Venu X1 51.2mm dây nylon</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -25687,21 +25367,21 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>9990000</v>
+        <v>21090000</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
+          <t>Đồng_hồ_thông_minh/1657833691629409441_-3756484674081019100.jpg</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340846/garmin-venu-x1-reu-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-venu-x1-sapphire</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -25711,131 +25391,15 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Garmin</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Galaxy Watch8</t>
+          <t>Venu X1</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
-        <is>
-          <t>40mm dây silicone</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>SW35</t>
-        </is>
-      </c>
-      <c r="B543" t="n">
-        <v>6.907835202262853e+18</v>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>Huawei Watch 5 46mm dây composite</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>Đồng hồ thông minh</t>
-        </is>
-      </c>
-      <c r="E543" t="n">
-        <v>9810000</v>
-      </c>
-      <c r="F543" t="inlineStr">
-        <is>
-          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
-        </is>
-      </c>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
-        </is>
-      </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
-        </is>
-      </c>
-      <c r="I543" t="inlineStr">
-        <is>
-          <t>TGDD</t>
-        </is>
-      </c>
-      <c r="J543" t="inlineStr">
-        <is>
-          <t>Huawei</t>
-        </is>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>Watch 5</t>
-        </is>
-      </c>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>46mm dây composite</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>SW36</t>
-        </is>
-      </c>
-      <c r="B544" t="n">
-        <v>1.65783369162941e+18</v>
-      </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>Garmin Venu X1 51.2mm dây nylon</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>Đồng hồ thông minh</t>
-        </is>
-      </c>
-      <c r="E544" t="n">
-        <v>21090000</v>
-      </c>
-      <c r="F544" t="inlineStr">
-        <is>
-          <t>Đồng_hồ_thông_minh/1657833691629409441_-3756484674081019100.jpg</t>
-        </is>
-      </c>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340846/garmin-venu-x1-reu-tb-600x600.jpg</t>
-        </is>
-      </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-venu-x1-sapphire</t>
-        </is>
-      </c>
-      <c r="I544" t="inlineStr">
-        <is>
-          <t>TGDD</t>
-        </is>
-      </c>
-      <c r="J544" t="inlineStr">
-        <is>
-          <t>Garmin</t>
-        </is>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>Venu X1</t>
-        </is>
-      </c>
-      <c r="L544" t="inlineStr">
         <is>
           <t>51.2mm dây nylon</t>
         </is>
